--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR003.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR003.xlsx
@@ -172,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -181,10 +181,17 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -281,7 +288,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -290,27 +297,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="1" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="2" borderId="2" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="4" fillId="2" borderId="1" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="2" borderId="0" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="2" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="3" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="3" borderId="3" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="4" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="3" borderId="4" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -318,11 +321,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="3" borderId="6" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="3" borderId="6" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="6" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -334,23 +333,35 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="2" borderId="8" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="3" borderId="8" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="3" borderId="8" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="2" borderId="9" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="2" borderId="8" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="2" borderId="9" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="4" borderId="8" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="4" borderId="9" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="4" borderId="8" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="4" borderId="9" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="2" borderId="0" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -440,8 +451,8 @@
   </sheetPr>
   <dimension ref="A1:AJ997"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O11" activeCellId="0" sqref="O11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AC9" activeCellId="0" sqref="AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -453,7 +464,7 @@
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="C1" s="4"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -485,8 +496,8 @@
       <c r="AF1" s="3"/>
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
@@ -880,7 +891,7 @@
       <c r="AG18" s="17"/>
       <c r="AH18" s="17"/>
       <c r="AI18" s="17"/>
-      <c r="AJ18" s="4"/>
+      <c r="AJ18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="17"/>
@@ -918,7 +929,7 @@
       <c r="AG19" s="17"/>
       <c r="AH19" s="17"/>
       <c r="AI19" s="17"/>
-      <c r="AJ19" s="4"/>
+      <c r="AJ19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="17"/>
@@ -956,7 +967,7 @@
       <c r="AG20" s="17"/>
       <c r="AH20" s="17"/>
       <c r="AI20" s="17"/>
-      <c r="AJ20" s="4"/>
+      <c r="AJ20" s="18"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="17"/>
@@ -994,7 +1005,7 @@
       <c r="AG21" s="17"/>
       <c r="AH21" s="17"/>
       <c r="AI21" s="17"/>
-      <c r="AJ21" s="4"/>
+      <c r="AJ21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="17"/>
@@ -1032,7 +1043,7 @@
       <c r="AG22" s="17"/>
       <c r="AH22" s="17"/>
       <c r="AI22" s="17"/>
-      <c r="AJ22" s="4"/>
+      <c r="AJ22" s="18"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="17"/>
@@ -1070,7 +1081,7 @@
       <c r="AG23" s="17"/>
       <c r="AH23" s="17"/>
       <c r="AI23" s="17"/>
-      <c r="AJ23" s="4"/>
+      <c r="AJ23" s="18"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="17"/>
@@ -1108,7 +1119,7 @@
       <c r="AG24" s="17"/>
       <c r="AH24" s="17"/>
       <c r="AI24" s="17"/>
-      <c r="AJ24" s="4"/>
+      <c r="AJ24" s="18"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="17"/>
@@ -1146,7 +1157,7 @@
       <c r="AG25" s="17"/>
       <c r="AH25" s="17"/>
       <c r="AI25" s="17"/>
-      <c r="AJ25" s="4"/>
+      <c r="AJ25" s="18"/>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="17"/>
@@ -1184,7 +1195,7 @@
       <c r="AG26" s="17"/>
       <c r="AH26" s="17"/>
       <c r="AI26" s="17"/>
-      <c r="AJ26" s="4"/>
+      <c r="AJ26" s="18"/>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="17"/>
@@ -1222,7 +1233,7 @@
       <c r="AG27" s="17"/>
       <c r="AH27" s="17"/>
       <c r="AI27" s="17"/>
-      <c r="AJ27" s="4"/>
+      <c r="AJ27" s="18"/>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="17"/>
@@ -1260,7 +1271,7 @@
       <c r="AG28" s="17"/>
       <c r="AH28" s="17"/>
       <c r="AI28" s="17"/>
-      <c r="AJ28" s="4"/>
+      <c r="AJ28" s="18"/>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="17"/>
@@ -1298,7 +1309,7 @@
       <c r="AG29" s="17"/>
       <c r="AH29" s="17"/>
       <c r="AI29" s="17"/>
-      <c r="AJ29" s="4"/>
+      <c r="AJ29" s="18"/>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="17"/>
@@ -1336,7 +1347,7 @@
       <c r="AG30" s="17"/>
       <c r="AH30" s="17"/>
       <c r="AI30" s="17"/>
-      <c r="AJ30" s="4"/>
+      <c r="AJ30" s="18"/>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="17"/>
@@ -1374,7 +1385,7 @@
       <c r="AG31" s="17"/>
       <c r="AH31" s="17"/>
       <c r="AI31" s="17"/>
-      <c r="AJ31" s="4"/>
+      <c r="AJ31" s="18"/>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="17"/>
@@ -1412,7 +1423,7 @@
       <c r="AG32" s="17"/>
       <c r="AH32" s="17"/>
       <c r="AI32" s="17"/>
-      <c r="AJ32" s="4"/>
+      <c r="AJ32" s="18"/>
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="17"/>
@@ -1450,7 +1461,7 @@
       <c r="AG33" s="17"/>
       <c r="AH33" s="17"/>
       <c r="AI33" s="17"/>
-      <c r="AJ33" s="4"/>
+      <c r="AJ33" s="18"/>
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="17"/>
@@ -1488,7 +1499,7 @@
       <c r="AG34" s="17"/>
       <c r="AH34" s="17"/>
       <c r="AI34" s="17"/>
-      <c r="AJ34" s="4"/>
+      <c r="AJ34" s="18"/>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="17"/>
@@ -1526,7 +1537,7 @@
       <c r="AG35" s="17"/>
       <c r="AH35" s="17"/>
       <c r="AI35" s="17"/>
-      <c r="AJ35" s="4"/>
+      <c r="AJ35" s="18"/>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="17"/>
@@ -1564,7 +1575,7 @@
       <c r="AG36" s="17"/>
       <c r="AH36" s="17"/>
       <c r="AI36" s="17"/>
-      <c r="AJ36" s="4"/>
+      <c r="AJ36" s="18"/>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="17"/>
@@ -1602,7 +1613,7 @@
       <c r="AG37" s="17"/>
       <c r="AH37" s="17"/>
       <c r="AI37" s="17"/>
-      <c r="AJ37" s="4"/>
+      <c r="AJ37" s="18"/>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="17"/>
@@ -1640,7 +1651,7 @@
       <c r="AG38" s="17"/>
       <c r="AH38" s="17"/>
       <c r="AI38" s="17"/>
-      <c r="AJ38" s="4"/>
+      <c r="AJ38" s="18"/>
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="17"/>
@@ -1678,7 +1689,7 @@
       <c r="AG39" s="17"/>
       <c r="AH39" s="17"/>
       <c r="AI39" s="17"/>
-      <c r="AJ39" s="4"/>
+      <c r="AJ39" s="18"/>
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="17"/>
@@ -1716,7 +1727,7 @@
       <c r="AG40" s="17"/>
       <c r="AH40" s="17"/>
       <c r="AI40" s="17"/>
-      <c r="AJ40" s="4"/>
+      <c r="AJ40" s="18"/>
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="17"/>
@@ -1754,7 +1765,7 @@
       <c r="AG41" s="17"/>
       <c r="AH41" s="17"/>
       <c r="AI41" s="17"/>
-      <c r="AJ41" s="4"/>
+      <c r="AJ41" s="18"/>
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="17"/>
@@ -1792,7 +1803,7 @@
       <c r="AG42" s="17"/>
       <c r="AH42" s="17"/>
       <c r="AI42" s="17"/>
-      <c r="AJ42" s="4"/>
+      <c r="AJ42" s="18"/>
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="17"/>
@@ -1830,7 +1841,7 @@
       <c r="AG43" s="17"/>
       <c r="AH43" s="17"/>
       <c r="AI43" s="17"/>
-      <c r="AJ43" s="4"/>
+      <c r="AJ43" s="18"/>
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="17"/>
@@ -1868,7 +1879,7 @@
       <c r="AG44" s="17"/>
       <c r="AH44" s="17"/>
       <c r="AI44" s="17"/>
-      <c r="AJ44" s="4"/>
+      <c r="AJ44" s="18"/>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="17"/>
@@ -1906,7 +1917,7 @@
       <c r="AG45" s="17"/>
       <c r="AH45" s="17"/>
       <c r="AI45" s="17"/>
-      <c r="AJ45" s="4"/>
+      <c r="AJ45" s="18"/>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="17"/>
@@ -1944,7 +1955,7 @@
       <c r="AG46" s="17"/>
       <c r="AH46" s="17"/>
       <c r="AI46" s="17"/>
-      <c r="AJ46" s="4"/>
+      <c r="AJ46" s="18"/>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="17"/>
@@ -1982,7 +1993,7 @@
       <c r="AG47" s="17"/>
       <c r="AH47" s="17"/>
       <c r="AI47" s="17"/>
-      <c r="AJ47" s="4"/>
+      <c r="AJ47" s="18"/>
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="17"/>
@@ -2020,7 +2031,7 @@
       <c r="AG48" s="17"/>
       <c r="AH48" s="17"/>
       <c r="AI48" s="17"/>
-      <c r="AJ48" s="4"/>
+      <c r="AJ48" s="18"/>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="17"/>
@@ -2058,7 +2069,7 @@
       <c r="AG49" s="17"/>
       <c r="AH49" s="17"/>
       <c r="AI49" s="17"/>
-      <c r="AJ49" s="4"/>
+      <c r="AJ49" s="18"/>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="17"/>
@@ -2096,7 +2107,7 @@
       <c r="AG50" s="17"/>
       <c r="AH50" s="17"/>
       <c r="AI50" s="17"/>
-      <c r="AJ50" s="4"/>
+      <c r="AJ50" s="18"/>
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="17"/>
@@ -2134,7 +2145,7 @@
       <c r="AG51" s="17"/>
       <c r="AH51" s="17"/>
       <c r="AI51" s="17"/>
-      <c r="AJ51" s="4"/>
+      <c r="AJ51" s="18"/>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="17"/>
@@ -2172,7 +2183,7 @@
       <c r="AG52" s="17"/>
       <c r="AH52" s="17"/>
       <c r="AI52" s="17"/>
-      <c r="AJ52" s="4"/>
+      <c r="AJ52" s="18"/>
     </row>
     <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="17"/>
@@ -2210,7 +2221,7 @@
       <c r="AG53" s="17"/>
       <c r="AH53" s="17"/>
       <c r="AI53" s="17"/>
-      <c r="AJ53" s="4"/>
+      <c r="AJ53" s="18"/>
     </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="17"/>
@@ -2248,7 +2259,7 @@
       <c r="AG54" s="17"/>
       <c r="AH54" s="17"/>
       <c r="AI54" s="17"/>
-      <c r="AJ54" s="4"/>
+      <c r="AJ54" s="18"/>
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="17"/>
@@ -2286,7 +2297,7 @@
       <c r="AG55" s="17"/>
       <c r="AH55" s="17"/>
       <c r="AI55" s="17"/>
-      <c r="AJ55" s="4"/>
+      <c r="AJ55" s="18"/>
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="17"/>
@@ -2324,7 +2335,7 @@
       <c r="AG56" s="17"/>
       <c r="AH56" s="17"/>
       <c r="AI56" s="17"/>
-      <c r="AJ56" s="4"/>
+      <c r="AJ56" s="18"/>
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="17"/>
@@ -2362,7 +2373,7 @@
       <c r="AG57" s="17"/>
       <c r="AH57" s="17"/>
       <c r="AI57" s="17"/>
-      <c r="AJ57" s="4"/>
+      <c r="AJ57" s="18"/>
     </row>
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="17"/>
@@ -2400,7 +2411,7 @@
       <c r="AG58" s="17"/>
       <c r="AH58" s="17"/>
       <c r="AI58" s="17"/>
-      <c r="AJ58" s="4"/>
+      <c r="AJ58" s="18"/>
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="17"/>
@@ -2438,7 +2449,7 @@
       <c r="AG59" s="17"/>
       <c r="AH59" s="17"/>
       <c r="AI59" s="17"/>
-      <c r="AJ59" s="4"/>
+      <c r="AJ59" s="18"/>
     </row>
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="17"/>
@@ -2476,7 +2487,7 @@
       <c r="AG60" s="17"/>
       <c r="AH60" s="17"/>
       <c r="AI60" s="17"/>
-      <c r="AJ60" s="4"/>
+      <c r="AJ60" s="18"/>
     </row>
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="17"/>
@@ -2514,7 +2525,7 @@
       <c r="AG61" s="17"/>
       <c r="AH61" s="17"/>
       <c r="AI61" s="17"/>
-      <c r="AJ61" s="4"/>
+      <c r="AJ61" s="18"/>
     </row>
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="17"/>
@@ -2552,7 +2563,7 @@
       <c r="AG62" s="17"/>
       <c r="AH62" s="17"/>
       <c r="AI62" s="17"/>
-      <c r="AJ62" s="4"/>
+      <c r="AJ62" s="18"/>
     </row>
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="17"/>
@@ -2590,7 +2601,7 @@
       <c r="AG63" s="17"/>
       <c r="AH63" s="17"/>
       <c r="AI63" s="17"/>
-      <c r="AJ63" s="4"/>
+      <c r="AJ63" s="18"/>
     </row>
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="17"/>
@@ -2628,7 +2639,7 @@
       <c r="AG64" s="17"/>
       <c r="AH64" s="17"/>
       <c r="AI64" s="17"/>
-      <c r="AJ64" s="4"/>
+      <c r="AJ64" s="18"/>
     </row>
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="17"/>
@@ -2666,7 +2677,7 @@
       <c r="AG65" s="17"/>
       <c r="AH65" s="17"/>
       <c r="AI65" s="17"/>
-      <c r="AJ65" s="4"/>
+      <c r="AJ65" s="18"/>
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="17"/>
@@ -2704,7 +2715,7 @@
       <c r="AG66" s="17"/>
       <c r="AH66" s="17"/>
       <c r="AI66" s="17"/>
-      <c r="AJ66" s="4"/>
+      <c r="AJ66" s="18"/>
     </row>
     <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="17"/>
@@ -2742,7 +2753,7 @@
       <c r="AG67" s="17"/>
       <c r="AH67" s="17"/>
       <c r="AI67" s="17"/>
-      <c r="AJ67" s="4"/>
+      <c r="AJ67" s="18"/>
     </row>
     <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="17"/>
@@ -2780,7 +2791,7 @@
       <c r="AG68" s="17"/>
       <c r="AH68" s="17"/>
       <c r="AI68" s="17"/>
-      <c r="AJ68" s="4"/>
+      <c r="AJ68" s="18"/>
     </row>
     <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="17"/>
@@ -2818,7 +2829,7 @@
       <c r="AG69" s="17"/>
       <c r="AH69" s="17"/>
       <c r="AI69" s="17"/>
-      <c r="AJ69" s="4"/>
+      <c r="AJ69" s="18"/>
     </row>
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="17"/>
@@ -2856,7 +2867,7 @@
       <c r="AG70" s="17"/>
       <c r="AH70" s="17"/>
       <c r="AI70" s="17"/>
-      <c r="AJ70" s="4"/>
+      <c r="AJ70" s="18"/>
     </row>
     <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="17"/>
@@ -2894,7 +2905,7 @@
       <c r="AG71" s="17"/>
       <c r="AH71" s="17"/>
       <c r="AI71" s="17"/>
-      <c r="AJ71" s="4"/>
+      <c r="AJ71" s="18"/>
     </row>
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="17"/>
@@ -2932,7 +2943,7 @@
       <c r="AG72" s="17"/>
       <c r="AH72" s="17"/>
       <c r="AI72" s="17"/>
-      <c r="AJ72" s="4"/>
+      <c r="AJ72" s="18"/>
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="17"/>
@@ -2970,7 +2981,7 @@
       <c r="AG73" s="17"/>
       <c r="AH73" s="17"/>
       <c r="AI73" s="17"/>
-      <c r="AJ73" s="4"/>
+      <c r="AJ73" s="18"/>
     </row>
     <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="17"/>
@@ -3008,7 +3019,7 @@
       <c r="AG74" s="17"/>
       <c r="AH74" s="17"/>
       <c r="AI74" s="17"/>
-      <c r="AJ74" s="4"/>
+      <c r="AJ74" s="18"/>
     </row>
     <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="17"/>
@@ -3046,7 +3057,7 @@
       <c r="AG75" s="17"/>
       <c r="AH75" s="17"/>
       <c r="AI75" s="17"/>
-      <c r="AJ75" s="4"/>
+      <c r="AJ75" s="18"/>
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="17"/>
@@ -3084,7 +3095,7 @@
       <c r="AG76" s="17"/>
       <c r="AH76" s="17"/>
       <c r="AI76" s="17"/>
-      <c r="AJ76" s="4"/>
+      <c r="AJ76" s="18"/>
     </row>
     <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="17"/>
@@ -3122,7 +3133,7 @@
       <c r="AG77" s="17"/>
       <c r="AH77" s="17"/>
       <c r="AI77" s="17"/>
-      <c r="AJ77" s="4"/>
+      <c r="AJ77" s="18"/>
     </row>
     <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="17"/>
@@ -3160,7 +3171,7 @@
       <c r="AG78" s="17"/>
       <c r="AH78" s="17"/>
       <c r="AI78" s="17"/>
-      <c r="AJ78" s="4"/>
+      <c r="AJ78" s="18"/>
     </row>
     <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="17"/>
@@ -3198,7 +3209,7 @@
       <c r="AG79" s="17"/>
       <c r="AH79" s="17"/>
       <c r="AI79" s="17"/>
-      <c r="AJ79" s="4"/>
+      <c r="AJ79" s="18"/>
     </row>
     <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="17"/>
@@ -3236,7 +3247,7 @@
       <c r="AG80" s="17"/>
       <c r="AH80" s="17"/>
       <c r="AI80" s="17"/>
-      <c r="AJ80" s="4"/>
+      <c r="AJ80" s="18"/>
     </row>
     <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="17"/>
@@ -3274,7 +3285,7 @@
       <c r="AG81" s="17"/>
       <c r="AH81" s="17"/>
       <c r="AI81" s="17"/>
-      <c r="AJ81" s="4"/>
+      <c r="AJ81" s="18"/>
     </row>
     <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="17"/>
@@ -3312,7 +3323,7 @@
       <c r="AG82" s="17"/>
       <c r="AH82" s="17"/>
       <c r="AI82" s="17"/>
-      <c r="AJ82" s="4"/>
+      <c r="AJ82" s="18"/>
     </row>
     <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="17"/>
@@ -3350,7 +3361,7 @@
       <c r="AG83" s="17"/>
       <c r="AH83" s="17"/>
       <c r="AI83" s="17"/>
-      <c r="AJ83" s="4"/>
+      <c r="AJ83" s="18"/>
     </row>
     <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="17"/>
@@ -3388,7 +3399,7 @@
       <c r="AG84" s="17"/>
       <c r="AH84" s="17"/>
       <c r="AI84" s="17"/>
-      <c r="AJ84" s="4"/>
+      <c r="AJ84" s="18"/>
     </row>
     <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="17"/>
@@ -3426,7 +3437,7 @@
       <c r="AG85" s="17"/>
       <c r="AH85" s="17"/>
       <c r="AI85" s="17"/>
-      <c r="AJ85" s="4"/>
+      <c r="AJ85" s="18"/>
     </row>
     <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="17"/>
@@ -3464,7 +3475,7 @@
       <c r="AG86" s="17"/>
       <c r="AH86" s="17"/>
       <c r="AI86" s="17"/>
-      <c r="AJ86" s="4"/>
+      <c r="AJ86" s="18"/>
     </row>
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="17"/>
@@ -3502,7 +3513,7 @@
       <c r="AG87" s="17"/>
       <c r="AH87" s="17"/>
       <c r="AI87" s="17"/>
-      <c r="AJ87" s="4"/>
+      <c r="AJ87" s="18"/>
     </row>
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="17"/>
@@ -3540,7 +3551,7 @@
       <c r="AG88" s="17"/>
       <c r="AH88" s="17"/>
       <c r="AI88" s="17"/>
-      <c r="AJ88" s="4"/>
+      <c r="AJ88" s="18"/>
     </row>
     <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="17"/>
@@ -3578,7 +3589,7 @@
       <c r="AG89" s="17"/>
       <c r="AH89" s="17"/>
       <c r="AI89" s="17"/>
-      <c r="AJ89" s="4"/>
+      <c r="AJ89" s="18"/>
     </row>
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="17"/>
@@ -3616,7 +3627,7 @@
       <c r="AG90" s="17"/>
       <c r="AH90" s="17"/>
       <c r="AI90" s="17"/>
-      <c r="AJ90" s="4"/>
+      <c r="AJ90" s="18"/>
     </row>
     <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="17"/>
@@ -3654,7 +3665,7 @@
       <c r="AG91" s="17"/>
       <c r="AH91" s="17"/>
       <c r="AI91" s="17"/>
-      <c r="AJ91" s="4"/>
+      <c r="AJ91" s="18"/>
     </row>
     <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="17"/>
@@ -3692,7 +3703,7 @@
       <c r="AG92" s="17"/>
       <c r="AH92" s="17"/>
       <c r="AI92" s="17"/>
-      <c r="AJ92" s="4"/>
+      <c r="AJ92" s="18"/>
     </row>
     <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="17"/>
@@ -3730,7 +3741,7 @@
       <c r="AG93" s="17"/>
       <c r="AH93" s="17"/>
       <c r="AI93" s="17"/>
-      <c r="AJ93" s="4"/>
+      <c r="AJ93" s="18"/>
     </row>
     <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="17"/>
@@ -3768,7 +3779,7 @@
       <c r="AG94" s="17"/>
       <c r="AH94" s="17"/>
       <c r="AI94" s="17"/>
-      <c r="AJ94" s="4"/>
+      <c r="AJ94" s="18"/>
     </row>
     <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="17"/>
@@ -3806,7 +3817,7 @@
       <c r="AG95" s="17"/>
       <c r="AH95" s="17"/>
       <c r="AI95" s="17"/>
-      <c r="AJ95" s="4"/>
+      <c r="AJ95" s="18"/>
     </row>
     <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="17"/>
@@ -3844,7 +3855,7 @@
       <c r="AG96" s="17"/>
       <c r="AH96" s="17"/>
       <c r="AI96" s="17"/>
-      <c r="AJ96" s="4"/>
+      <c r="AJ96" s="18"/>
     </row>
     <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="17"/>
@@ -3882,7 +3893,7 @@
       <c r="AG97" s="17"/>
       <c r="AH97" s="17"/>
       <c r="AI97" s="17"/>
-      <c r="AJ97" s="4"/>
+      <c r="AJ97" s="18"/>
     </row>
     <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="17"/>
@@ -3920,7 +3931,7 @@
       <c r="AG98" s="17"/>
       <c r="AH98" s="17"/>
       <c r="AI98" s="17"/>
-      <c r="AJ98" s="4"/>
+      <c r="AJ98" s="18"/>
     </row>
     <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="17"/>
@@ -3958,7 +3969,7 @@
       <c r="AG99" s="17"/>
       <c r="AH99" s="17"/>
       <c r="AI99" s="17"/>
-      <c r="AJ99" s="4"/>
+      <c r="AJ99" s="18"/>
     </row>
     <row r="100" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="17"/>
@@ -3996,7 +4007,7 @@
       <c r="AG100" s="17"/>
       <c r="AH100" s="17"/>
       <c r="AI100" s="17"/>
-      <c r="AJ100" s="4"/>
+      <c r="AJ100" s="18"/>
     </row>
     <row r="101" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="17"/>
@@ -4034,7 +4045,7 @@
       <c r="AG101" s="17"/>
       <c r="AH101" s="17"/>
       <c r="AI101" s="17"/>
-      <c r="AJ101" s="4"/>
+      <c r="AJ101" s="18"/>
     </row>
     <row r="102" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="17"/>
@@ -4072,7 +4083,7 @@
       <c r="AG102" s="17"/>
       <c r="AH102" s="17"/>
       <c r="AI102" s="17"/>
-      <c r="AJ102" s="4"/>
+      <c r="AJ102" s="18"/>
     </row>
     <row r="103" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="17"/>
@@ -4110,7 +4121,7 @@
       <c r="AG103" s="17"/>
       <c r="AH103" s="17"/>
       <c r="AI103" s="17"/>
-      <c r="AJ103" s="4"/>
+      <c r="AJ103" s="18"/>
     </row>
     <row r="104" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="17"/>
@@ -4148,7 +4159,7 @@
       <c r="AG104" s="17"/>
       <c r="AH104" s="17"/>
       <c r="AI104" s="17"/>
-      <c r="AJ104" s="4"/>
+      <c r="AJ104" s="18"/>
     </row>
     <row r="105" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="17"/>
@@ -4186,7 +4197,7 @@
       <c r="AG105" s="17"/>
       <c r="AH105" s="17"/>
       <c r="AI105" s="17"/>
-      <c r="AJ105" s="4"/>
+      <c r="AJ105" s="18"/>
     </row>
     <row r="106" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="17"/>
@@ -4224,7 +4235,7 @@
       <c r="AG106" s="17"/>
       <c r="AH106" s="17"/>
       <c r="AI106" s="17"/>
-      <c r="AJ106" s="4"/>
+      <c r="AJ106" s="18"/>
     </row>
     <row r="107" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="17"/>
@@ -4262,7 +4273,7 @@
       <c r="AG107" s="17"/>
       <c r="AH107" s="17"/>
       <c r="AI107" s="17"/>
-      <c r="AJ107" s="4"/>
+      <c r="AJ107" s="18"/>
     </row>
     <row r="108" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="17"/>
@@ -4300,7 +4311,7 @@
       <c r="AG108" s="17"/>
       <c r="AH108" s="17"/>
       <c r="AI108" s="17"/>
-      <c r="AJ108" s="4"/>
+      <c r="AJ108" s="18"/>
     </row>
     <row r="109" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="17"/>
@@ -4338,7 +4349,7 @@
       <c r="AG109" s="17"/>
       <c r="AH109" s="17"/>
       <c r="AI109" s="17"/>
-      <c r="AJ109" s="4"/>
+      <c r="AJ109" s="18"/>
     </row>
     <row r="110" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="17"/>
@@ -4376,7 +4387,7 @@
       <c r="AG110" s="17"/>
       <c r="AH110" s="17"/>
       <c r="AI110" s="17"/>
-      <c r="AJ110" s="4"/>
+      <c r="AJ110" s="18"/>
     </row>
     <row r="111" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="17"/>
@@ -4414,7 +4425,7 @@
       <c r="AG111" s="17"/>
       <c r="AH111" s="17"/>
       <c r="AI111" s="17"/>
-      <c r="AJ111" s="4"/>
+      <c r="AJ111" s="18"/>
     </row>
     <row r="112" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="17"/>
@@ -4452,7 +4463,7 @@
       <c r="AG112" s="17"/>
       <c r="AH112" s="17"/>
       <c r="AI112" s="17"/>
-      <c r="AJ112" s="4"/>
+      <c r="AJ112" s="18"/>
     </row>
     <row r="113" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="17"/>
@@ -4490,7 +4501,7 @@
       <c r="AG113" s="17"/>
       <c r="AH113" s="17"/>
       <c r="AI113" s="17"/>
-      <c r="AJ113" s="4"/>
+      <c r="AJ113" s="18"/>
     </row>
     <row r="114" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="17"/>
@@ -4528,7 +4539,7 @@
       <c r="AG114" s="17"/>
       <c r="AH114" s="17"/>
       <c r="AI114" s="17"/>
-      <c r="AJ114" s="4"/>
+      <c r="AJ114" s="18"/>
     </row>
     <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="17"/>
@@ -4566,7 +4577,7 @@
       <c r="AG115" s="17"/>
       <c r="AH115" s="17"/>
       <c r="AI115" s="17"/>
-      <c r="AJ115" s="4"/>
+      <c r="AJ115" s="18"/>
     </row>
     <row r="116" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="17"/>
@@ -4604,7 +4615,7 @@
       <c r="AG116" s="17"/>
       <c r="AH116" s="17"/>
       <c r="AI116" s="17"/>
-      <c r="AJ116" s="4"/>
+      <c r="AJ116" s="18"/>
     </row>
     <row r="117" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="17"/>
@@ -4642,7 +4653,7 @@
       <c r="AG117" s="17"/>
       <c r="AH117" s="17"/>
       <c r="AI117" s="17"/>
-      <c r="AJ117" s="4"/>
+      <c r="AJ117" s="18"/>
     </row>
     <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="17"/>
@@ -4680,7 +4691,7 @@
       <c r="AG118" s="17"/>
       <c r="AH118" s="17"/>
       <c r="AI118" s="17"/>
-      <c r="AJ118" s="4"/>
+      <c r="AJ118" s="18"/>
     </row>
     <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="17"/>
@@ -4718,7 +4729,7 @@
       <c r="AG119" s="17"/>
       <c r="AH119" s="17"/>
       <c r="AI119" s="17"/>
-      <c r="AJ119" s="4"/>
+      <c r="AJ119" s="18"/>
     </row>
     <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="17"/>
@@ -4756,7 +4767,7 @@
       <c r="AG120" s="17"/>
       <c r="AH120" s="17"/>
       <c r="AI120" s="17"/>
-      <c r="AJ120" s="4"/>
+      <c r="AJ120" s="18"/>
     </row>
     <row r="121" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="17"/>
@@ -4794,7 +4805,7 @@
       <c r="AG121" s="17"/>
       <c r="AH121" s="17"/>
       <c r="AI121" s="17"/>
-      <c r="AJ121" s="4"/>
+      <c r="AJ121" s="18"/>
     </row>
     <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="17"/>
@@ -4832,7 +4843,7 @@
       <c r="AG122" s="17"/>
       <c r="AH122" s="17"/>
       <c r="AI122" s="17"/>
-      <c r="AJ122" s="4"/>
+      <c r="AJ122" s="18"/>
     </row>
     <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="17"/>
@@ -4870,7 +4881,7 @@
       <c r="AG123" s="17"/>
       <c r="AH123" s="17"/>
       <c r="AI123" s="17"/>
-      <c r="AJ123" s="4"/>
+      <c r="AJ123" s="18"/>
     </row>
     <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="17"/>
@@ -4908,7 +4919,7 @@
       <c r="AG124" s="17"/>
       <c r="AH124" s="17"/>
       <c r="AI124" s="17"/>
-      <c r="AJ124" s="4"/>
+      <c r="AJ124" s="18"/>
     </row>
     <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="17"/>
@@ -4946,7 +4957,7 @@
       <c r="AG125" s="17"/>
       <c r="AH125" s="17"/>
       <c r="AI125" s="17"/>
-      <c r="AJ125" s="4"/>
+      <c r="AJ125" s="18"/>
     </row>
     <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="17"/>
@@ -4984,7 +4995,7 @@
       <c r="AG126" s="17"/>
       <c r="AH126" s="17"/>
       <c r="AI126" s="17"/>
-      <c r="AJ126" s="4"/>
+      <c r="AJ126" s="18"/>
     </row>
     <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="17"/>
@@ -5022,7 +5033,7 @@
       <c r="AG127" s="17"/>
       <c r="AH127" s="17"/>
       <c r="AI127" s="17"/>
-      <c r="AJ127" s="4"/>
+      <c r="AJ127" s="18"/>
     </row>
     <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="17"/>
@@ -5060,7 +5071,7 @@
       <c r="AG128" s="17"/>
       <c r="AH128" s="17"/>
       <c r="AI128" s="17"/>
-      <c r="AJ128" s="4"/>
+      <c r="AJ128" s="18"/>
     </row>
     <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="17"/>
@@ -5098,7 +5109,7 @@
       <c r="AG129" s="17"/>
       <c r="AH129" s="17"/>
       <c r="AI129" s="17"/>
-      <c r="AJ129" s="4"/>
+      <c r="AJ129" s="18"/>
     </row>
     <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="17"/>
@@ -5136,7 +5147,7 @@
       <c r="AG130" s="17"/>
       <c r="AH130" s="17"/>
       <c r="AI130" s="17"/>
-      <c r="AJ130" s="4"/>
+      <c r="AJ130" s="18"/>
     </row>
     <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="17"/>
@@ -5174,7 +5185,7 @@
       <c r="AG131" s="17"/>
       <c r="AH131" s="17"/>
       <c r="AI131" s="17"/>
-      <c r="AJ131" s="4"/>
+      <c r="AJ131" s="18"/>
     </row>
     <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="17"/>
@@ -5212,7 +5223,7 @@
       <c r="AG132" s="17"/>
       <c r="AH132" s="17"/>
       <c r="AI132" s="17"/>
-      <c r="AJ132" s="4"/>
+      <c r="AJ132" s="18"/>
     </row>
     <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="17"/>
@@ -5250,7 +5261,7 @@
       <c r="AG133" s="17"/>
       <c r="AH133" s="17"/>
       <c r="AI133" s="17"/>
-      <c r="AJ133" s="4"/>
+      <c r="AJ133" s="18"/>
     </row>
     <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="17"/>
@@ -5288,7 +5299,7 @@
       <c r="AG134" s="17"/>
       <c r="AH134" s="17"/>
       <c r="AI134" s="17"/>
-      <c r="AJ134" s="4"/>
+      <c r="AJ134" s="18"/>
     </row>
     <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="17"/>
@@ -5326,7 +5337,7 @@
       <c r="AG135" s="17"/>
       <c r="AH135" s="17"/>
       <c r="AI135" s="17"/>
-      <c r="AJ135" s="4"/>
+      <c r="AJ135" s="18"/>
     </row>
     <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="17"/>
@@ -5364,7 +5375,7 @@
       <c r="AG136" s="17"/>
       <c r="AH136" s="17"/>
       <c r="AI136" s="17"/>
-      <c r="AJ136" s="4"/>
+      <c r="AJ136" s="18"/>
     </row>
     <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="17"/>
@@ -5402,7 +5413,7 @@
       <c r="AG137" s="17"/>
       <c r="AH137" s="17"/>
       <c r="AI137" s="17"/>
-      <c r="AJ137" s="4"/>
+      <c r="AJ137" s="18"/>
     </row>
     <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="17"/>
@@ -5440,7 +5451,7 @@
       <c r="AG138" s="17"/>
       <c r="AH138" s="17"/>
       <c r="AI138" s="17"/>
-      <c r="AJ138" s="4"/>
+      <c r="AJ138" s="18"/>
     </row>
     <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="17"/>
@@ -5478,7 +5489,7 @@
       <c r="AG139" s="17"/>
       <c r="AH139" s="17"/>
       <c r="AI139" s="17"/>
-      <c r="AJ139" s="4"/>
+      <c r="AJ139" s="18"/>
     </row>
     <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="17"/>
@@ -5516,7 +5527,7 @@
       <c r="AG140" s="17"/>
       <c r="AH140" s="17"/>
       <c r="AI140" s="17"/>
-      <c r="AJ140" s="4"/>
+      <c r="AJ140" s="18"/>
     </row>
     <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="17"/>
@@ -5554,7 +5565,7 @@
       <c r="AG141" s="17"/>
       <c r="AH141" s="17"/>
       <c r="AI141" s="17"/>
-      <c r="AJ141" s="4"/>
+      <c r="AJ141" s="18"/>
     </row>
     <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="17"/>
@@ -5592,7 +5603,7 @@
       <c r="AG142" s="17"/>
       <c r="AH142" s="17"/>
       <c r="AI142" s="17"/>
-      <c r="AJ142" s="4"/>
+      <c r="AJ142" s="18"/>
     </row>
     <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="17"/>
@@ -5630,7 +5641,7 @@
       <c r="AG143" s="17"/>
       <c r="AH143" s="17"/>
       <c r="AI143" s="17"/>
-      <c r="AJ143" s="4"/>
+      <c r="AJ143" s="18"/>
     </row>
     <row r="144" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="17"/>
@@ -5668,7 +5679,7 @@
       <c r="AG144" s="17"/>
       <c r="AH144" s="17"/>
       <c r="AI144" s="17"/>
-      <c r="AJ144" s="4"/>
+      <c r="AJ144" s="18"/>
     </row>
     <row r="145" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="17"/>
@@ -5706,7 +5717,7 @@
       <c r="AG145" s="17"/>
       <c r="AH145" s="17"/>
       <c r="AI145" s="17"/>
-      <c r="AJ145" s="4"/>
+      <c r="AJ145" s="18"/>
     </row>
     <row r="146" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="17"/>
@@ -5744,7 +5755,7 @@
       <c r="AG146" s="17"/>
       <c r="AH146" s="17"/>
       <c r="AI146" s="17"/>
-      <c r="AJ146" s="4"/>
+      <c r="AJ146" s="18"/>
     </row>
     <row r="147" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="17"/>
@@ -5782,7 +5793,7 @@
       <c r="AG147" s="17"/>
       <c r="AH147" s="17"/>
       <c r="AI147" s="17"/>
-      <c r="AJ147" s="4"/>
+      <c r="AJ147" s="18"/>
     </row>
     <row r="148" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="17"/>
@@ -5820,7 +5831,7 @@
       <c r="AG148" s="17"/>
       <c r="AH148" s="17"/>
       <c r="AI148" s="17"/>
-      <c r="AJ148" s="4"/>
+      <c r="AJ148" s="18"/>
     </row>
     <row r="149" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="17"/>
@@ -5858,7 +5869,7 @@
       <c r="AG149" s="17"/>
       <c r="AH149" s="17"/>
       <c r="AI149" s="17"/>
-      <c r="AJ149" s="4"/>
+      <c r="AJ149" s="18"/>
     </row>
     <row r="150" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="17"/>
@@ -5896,7 +5907,7 @@
       <c r="AG150" s="17"/>
       <c r="AH150" s="17"/>
       <c r="AI150" s="17"/>
-      <c r="AJ150" s="4"/>
+      <c r="AJ150" s="18"/>
     </row>
     <row r="151" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="17"/>
@@ -5934,7 +5945,7 @@
       <c r="AG151" s="17"/>
       <c r="AH151" s="17"/>
       <c r="AI151" s="17"/>
-      <c r="AJ151" s="4"/>
+      <c r="AJ151" s="18"/>
     </row>
     <row r="152" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="17"/>
@@ -5972,7 +5983,7 @@
       <c r="AG152" s="17"/>
       <c r="AH152" s="17"/>
       <c r="AI152" s="17"/>
-      <c r="AJ152" s="4"/>
+      <c r="AJ152" s="18"/>
     </row>
     <row r="153" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="17"/>
@@ -6010,7 +6021,7 @@
       <c r="AG153" s="17"/>
       <c r="AH153" s="17"/>
       <c r="AI153" s="17"/>
-      <c r="AJ153" s="4"/>
+      <c r="AJ153" s="18"/>
     </row>
     <row r="154" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="17"/>
@@ -6048,7 +6059,7 @@
       <c r="AG154" s="17"/>
       <c r="AH154" s="17"/>
       <c r="AI154" s="17"/>
-      <c r="AJ154" s="4"/>
+      <c r="AJ154" s="18"/>
     </row>
     <row r="155" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="17"/>
@@ -6086,7 +6097,7 @@
       <c r="AG155" s="17"/>
       <c r="AH155" s="17"/>
       <c r="AI155" s="17"/>
-      <c r="AJ155" s="4"/>
+      <c r="AJ155" s="18"/>
     </row>
     <row r="156" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="17"/>
@@ -6124,7 +6135,7 @@
       <c r="AG156" s="17"/>
       <c r="AH156" s="17"/>
       <c r="AI156" s="17"/>
-      <c r="AJ156" s="4"/>
+      <c r="AJ156" s="18"/>
     </row>
     <row r="157" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="17"/>
@@ -6162,7 +6173,7 @@
       <c r="AG157" s="17"/>
       <c r="AH157" s="17"/>
       <c r="AI157" s="17"/>
-      <c r="AJ157" s="4"/>
+      <c r="AJ157" s="18"/>
     </row>
     <row r="158" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="17"/>
@@ -6200,7 +6211,7 @@
       <c r="AG158" s="17"/>
       <c r="AH158" s="17"/>
       <c r="AI158" s="17"/>
-      <c r="AJ158" s="4"/>
+      <c r="AJ158" s="18"/>
     </row>
     <row r="159" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="17"/>
@@ -6238,7 +6249,7 @@
       <c r="AG159" s="17"/>
       <c r="AH159" s="17"/>
       <c r="AI159" s="17"/>
-      <c r="AJ159" s="4"/>
+      <c r="AJ159" s="18"/>
     </row>
     <row r="160" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="17"/>
@@ -6276,7 +6287,7 @@
       <c r="AG160" s="17"/>
       <c r="AH160" s="17"/>
       <c r="AI160" s="17"/>
-      <c r="AJ160" s="4"/>
+      <c r="AJ160" s="18"/>
     </row>
     <row r="161" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="17"/>
@@ -6314,7 +6325,7 @@
       <c r="AG161" s="17"/>
       <c r="AH161" s="17"/>
       <c r="AI161" s="17"/>
-      <c r="AJ161" s="4"/>
+      <c r="AJ161" s="18"/>
     </row>
     <row r="162" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="17"/>
@@ -6352,7 +6363,7 @@
       <c r="AG162" s="17"/>
       <c r="AH162" s="17"/>
       <c r="AI162" s="17"/>
-      <c r="AJ162" s="4"/>
+      <c r="AJ162" s="18"/>
     </row>
     <row r="163" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="17"/>
@@ -6390,7 +6401,7 @@
       <c r="AG163" s="17"/>
       <c r="AH163" s="17"/>
       <c r="AI163" s="17"/>
-      <c r="AJ163" s="4"/>
+      <c r="AJ163" s="18"/>
     </row>
     <row r="164" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="17"/>
@@ -6428,7 +6439,7 @@
       <c r="AG164" s="17"/>
       <c r="AH164" s="17"/>
       <c r="AI164" s="17"/>
-      <c r="AJ164" s="4"/>
+      <c r="AJ164" s="18"/>
     </row>
     <row r="165" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="17"/>
@@ -6466,7 +6477,7 @@
       <c r="AG165" s="17"/>
       <c r="AH165" s="17"/>
       <c r="AI165" s="17"/>
-      <c r="AJ165" s="4"/>
+      <c r="AJ165" s="18"/>
     </row>
     <row r="166" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="17"/>
@@ -6504,7 +6515,7 @@
       <c r="AG166" s="17"/>
       <c r="AH166" s="17"/>
       <c r="AI166" s="17"/>
-      <c r="AJ166" s="4"/>
+      <c r="AJ166" s="18"/>
     </row>
     <row r="167" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="17"/>
@@ -6542,7 +6553,7 @@
       <c r="AG167" s="17"/>
       <c r="AH167" s="17"/>
       <c r="AI167" s="17"/>
-      <c r="AJ167" s="4"/>
+      <c r="AJ167" s="18"/>
     </row>
     <row r="168" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="17"/>
@@ -6580,7 +6591,7 @@
       <c r="AG168" s="17"/>
       <c r="AH168" s="17"/>
       <c r="AI168" s="17"/>
-      <c r="AJ168" s="4"/>
+      <c r="AJ168" s="18"/>
     </row>
     <row r="169" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="17"/>
@@ -6618,7 +6629,7 @@
       <c r="AG169" s="17"/>
       <c r="AH169" s="17"/>
       <c r="AI169" s="17"/>
-      <c r="AJ169" s="4"/>
+      <c r="AJ169" s="18"/>
     </row>
     <row r="170" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="17"/>
@@ -6656,7 +6667,7 @@
       <c r="AG170" s="17"/>
       <c r="AH170" s="17"/>
       <c r="AI170" s="17"/>
-      <c r="AJ170" s="4"/>
+      <c r="AJ170" s="18"/>
     </row>
     <row r="171" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="17"/>
@@ -6694,7 +6705,7 @@
       <c r="AG171" s="17"/>
       <c r="AH171" s="17"/>
       <c r="AI171" s="17"/>
-      <c r="AJ171" s="4"/>
+      <c r="AJ171" s="18"/>
     </row>
     <row r="172" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="17"/>
@@ -6732,7 +6743,7 @@
       <c r="AG172" s="17"/>
       <c r="AH172" s="17"/>
       <c r="AI172" s="17"/>
-      <c r="AJ172" s="4"/>
+      <c r="AJ172" s="18"/>
     </row>
     <row r="173" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="17"/>
@@ -6770,7 +6781,7 @@
       <c r="AG173" s="17"/>
       <c r="AH173" s="17"/>
       <c r="AI173" s="17"/>
-      <c r="AJ173" s="4"/>
+      <c r="AJ173" s="18"/>
     </row>
     <row r="174" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="17"/>
@@ -6808,7 +6819,7 @@
       <c r="AG174" s="17"/>
       <c r="AH174" s="17"/>
       <c r="AI174" s="17"/>
-      <c r="AJ174" s="4"/>
+      <c r="AJ174" s="18"/>
     </row>
     <row r="175" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="17"/>
@@ -6846,7 +6857,7 @@
       <c r="AG175" s="17"/>
       <c r="AH175" s="17"/>
       <c r="AI175" s="17"/>
-      <c r="AJ175" s="4"/>
+      <c r="AJ175" s="18"/>
     </row>
     <row r="176" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="17"/>
@@ -6884,7 +6895,7 @@
       <c r="AG176" s="17"/>
       <c r="AH176" s="17"/>
       <c r="AI176" s="17"/>
-      <c r="AJ176" s="4"/>
+      <c r="AJ176" s="18"/>
     </row>
     <row r="177" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="17"/>
@@ -6922,7 +6933,7 @@
       <c r="AG177" s="17"/>
       <c r="AH177" s="17"/>
       <c r="AI177" s="17"/>
-      <c r="AJ177" s="4"/>
+      <c r="AJ177" s="18"/>
     </row>
     <row r="178" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="17"/>
@@ -6960,7 +6971,7 @@
       <c r="AG178" s="17"/>
       <c r="AH178" s="17"/>
       <c r="AI178" s="17"/>
-      <c r="AJ178" s="4"/>
+      <c r="AJ178" s="18"/>
     </row>
     <row r="179" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="17"/>
@@ -6998,7 +7009,7 @@
       <c r="AG179" s="17"/>
       <c r="AH179" s="17"/>
       <c r="AI179" s="17"/>
-      <c r="AJ179" s="4"/>
+      <c r="AJ179" s="18"/>
     </row>
     <row r="180" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="17"/>
@@ -7036,7 +7047,7 @@
       <c r="AG180" s="17"/>
       <c r="AH180" s="17"/>
       <c r="AI180" s="17"/>
-      <c r="AJ180" s="4"/>
+      <c r="AJ180" s="18"/>
     </row>
     <row r="181" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="17"/>
@@ -7074,7 +7085,7 @@
       <c r="AG181" s="17"/>
       <c r="AH181" s="17"/>
       <c r="AI181" s="17"/>
-      <c r="AJ181" s="4"/>
+      <c r="AJ181" s="18"/>
     </row>
     <row r="182" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="17"/>
@@ -7112,7 +7123,7 @@
       <c r="AG182" s="17"/>
       <c r="AH182" s="17"/>
       <c r="AI182" s="17"/>
-      <c r="AJ182" s="4"/>
+      <c r="AJ182" s="18"/>
     </row>
     <row r="183" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="17"/>
@@ -7150,7 +7161,7 @@
       <c r="AG183" s="17"/>
       <c r="AH183" s="17"/>
       <c r="AI183" s="17"/>
-      <c r="AJ183" s="4"/>
+      <c r="AJ183" s="18"/>
     </row>
     <row r="184" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="17"/>
@@ -7188,7 +7199,7 @@
       <c r="AG184" s="17"/>
       <c r="AH184" s="17"/>
       <c r="AI184" s="17"/>
-      <c r="AJ184" s="4"/>
+      <c r="AJ184" s="18"/>
     </row>
     <row r="185" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="17"/>
@@ -7226,7 +7237,7 @@
       <c r="AG185" s="17"/>
       <c r="AH185" s="17"/>
       <c r="AI185" s="17"/>
-      <c r="AJ185" s="4"/>
+      <c r="AJ185" s="18"/>
     </row>
     <row r="186" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="17"/>
@@ -7264,7 +7275,7 @@
       <c r="AG186" s="17"/>
       <c r="AH186" s="17"/>
       <c r="AI186" s="17"/>
-      <c r="AJ186" s="4"/>
+      <c r="AJ186" s="18"/>
     </row>
     <row r="187" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="17"/>
@@ -7302,7 +7313,7 @@
       <c r="AG187" s="17"/>
       <c r="AH187" s="17"/>
       <c r="AI187" s="17"/>
-      <c r="AJ187" s="4"/>
+      <c r="AJ187" s="18"/>
     </row>
     <row r="188" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="17"/>
@@ -7340,7 +7351,7 @@
       <c r="AG188" s="17"/>
       <c r="AH188" s="17"/>
       <c r="AI188" s="17"/>
-      <c r="AJ188" s="4"/>
+      <c r="AJ188" s="18"/>
     </row>
     <row r="189" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="17"/>
@@ -7378,7 +7389,7 @@
       <c r="AG189" s="17"/>
       <c r="AH189" s="17"/>
       <c r="AI189" s="17"/>
-      <c r="AJ189" s="4"/>
+      <c r="AJ189" s="18"/>
     </row>
     <row r="190" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="17"/>
@@ -7416,7 +7427,7 @@
       <c r="AG190" s="17"/>
       <c r="AH190" s="17"/>
       <c r="AI190" s="17"/>
-      <c r="AJ190" s="4"/>
+      <c r="AJ190" s="18"/>
     </row>
     <row r="191" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="17"/>
@@ -7454,7 +7465,7 @@
       <c r="AG191" s="17"/>
       <c r="AH191" s="17"/>
       <c r="AI191" s="17"/>
-      <c r="AJ191" s="4"/>
+      <c r="AJ191" s="18"/>
     </row>
     <row r="192" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="17"/>
@@ -7492,7 +7503,7 @@
       <c r="AG192" s="17"/>
       <c r="AH192" s="17"/>
       <c r="AI192" s="17"/>
-      <c r="AJ192" s="4"/>
+      <c r="AJ192" s="18"/>
     </row>
     <row r="193" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="17"/>
@@ -7530,7 +7541,7 @@
       <c r="AG193" s="17"/>
       <c r="AH193" s="17"/>
       <c r="AI193" s="17"/>
-      <c r="AJ193" s="4"/>
+      <c r="AJ193" s="18"/>
     </row>
     <row r="194" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="17"/>
@@ -7568,7 +7579,7 @@
       <c r="AG194" s="17"/>
       <c r="AH194" s="17"/>
       <c r="AI194" s="17"/>
-      <c r="AJ194" s="4"/>
+      <c r="AJ194" s="18"/>
     </row>
     <row r="195" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="17"/>
@@ -7606,7 +7617,7 @@
       <c r="AG195" s="17"/>
       <c r="AH195" s="17"/>
       <c r="AI195" s="17"/>
-      <c r="AJ195" s="4"/>
+      <c r="AJ195" s="18"/>
     </row>
     <row r="196" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="17"/>
@@ -7644,7 +7655,7 @@
       <c r="AG196" s="17"/>
       <c r="AH196" s="17"/>
       <c r="AI196" s="17"/>
-      <c r="AJ196" s="4"/>
+      <c r="AJ196" s="18"/>
     </row>
     <row r="197" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="17"/>
@@ -7682,7 +7693,7 @@
       <c r="AG197" s="17"/>
       <c r="AH197" s="17"/>
       <c r="AI197" s="17"/>
-      <c r="AJ197" s="4"/>
+      <c r="AJ197" s="18"/>
     </row>
     <row r="198" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="17"/>
@@ -7720,7 +7731,7 @@
       <c r="AG198" s="17"/>
       <c r="AH198" s="17"/>
       <c r="AI198" s="17"/>
-      <c r="AJ198" s="4"/>
+      <c r="AJ198" s="18"/>
     </row>
     <row r="199" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="17"/>
@@ -7758,7 +7769,7 @@
       <c r="AG199" s="17"/>
       <c r="AH199" s="17"/>
       <c r="AI199" s="17"/>
-      <c r="AJ199" s="4"/>
+      <c r="AJ199" s="18"/>
     </row>
     <row r="200" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="17"/>
@@ -7796,7 +7807,7 @@
       <c r="AG200" s="17"/>
       <c r="AH200" s="17"/>
       <c r="AI200" s="17"/>
-      <c r="AJ200" s="4"/>
+      <c r="AJ200" s="18"/>
     </row>
     <row r="201" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="17"/>
@@ -7834,7 +7845,7 @@
       <c r="AG201" s="17"/>
       <c r="AH201" s="17"/>
       <c r="AI201" s="17"/>
-      <c r="AJ201" s="4"/>
+      <c r="AJ201" s="18"/>
     </row>
     <row r="202" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="17"/>
@@ -7872,7 +7883,7 @@
       <c r="AG202" s="17"/>
       <c r="AH202" s="17"/>
       <c r="AI202" s="17"/>
-      <c r="AJ202" s="4"/>
+      <c r="AJ202" s="18"/>
     </row>
     <row r="203" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="17"/>
@@ -7910,7 +7921,7 @@
       <c r="AG203" s="17"/>
       <c r="AH203" s="17"/>
       <c r="AI203" s="17"/>
-      <c r="AJ203" s="4"/>
+      <c r="AJ203" s="18"/>
     </row>
     <row r="204" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="17"/>
@@ -7948,7 +7959,7 @@
       <c r="AG204" s="17"/>
       <c r="AH204" s="17"/>
       <c r="AI204" s="17"/>
-      <c r="AJ204" s="4"/>
+      <c r="AJ204" s="18"/>
     </row>
     <row r="205" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="17"/>
@@ -7986,7 +7997,7 @@
       <c r="AG205" s="17"/>
       <c r="AH205" s="17"/>
       <c r="AI205" s="17"/>
-      <c r="AJ205" s="4"/>
+      <c r="AJ205" s="18"/>
     </row>
     <row r="206" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="17"/>
@@ -8024,7 +8035,7 @@
       <c r="AG206" s="17"/>
       <c r="AH206" s="17"/>
       <c r="AI206" s="17"/>
-      <c r="AJ206" s="4"/>
+      <c r="AJ206" s="18"/>
     </row>
     <row r="207" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="17"/>
@@ -8062,7 +8073,7 @@
       <c r="AG207" s="17"/>
       <c r="AH207" s="17"/>
       <c r="AI207" s="17"/>
-      <c r="AJ207" s="4"/>
+      <c r="AJ207" s="18"/>
     </row>
     <row r="208" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="17"/>
@@ -8100,7 +8111,7 @@
       <c r="AG208" s="17"/>
       <c r="AH208" s="17"/>
       <c r="AI208" s="17"/>
-      <c r="AJ208" s="4"/>
+      <c r="AJ208" s="18"/>
     </row>
     <row r="209" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="17"/>
@@ -8138,7 +8149,7 @@
       <c r="AG209" s="17"/>
       <c r="AH209" s="17"/>
       <c r="AI209" s="17"/>
-      <c r="AJ209" s="4"/>
+      <c r="AJ209" s="18"/>
     </row>
     <row r="210" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="17"/>
@@ -8176,7 +8187,7 @@
       <c r="AG210" s="17"/>
       <c r="AH210" s="17"/>
       <c r="AI210" s="17"/>
-      <c r="AJ210" s="4"/>
+      <c r="AJ210" s="18"/>
     </row>
     <row r="211" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="17"/>
@@ -8214,7 +8225,7 @@
       <c r="AG211" s="17"/>
       <c r="AH211" s="17"/>
       <c r="AI211" s="17"/>
-      <c r="AJ211" s="4"/>
+      <c r="AJ211" s="18"/>
     </row>
     <row r="212" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="17"/>
@@ -8252,7 +8263,7 @@
       <c r="AG212" s="17"/>
       <c r="AH212" s="17"/>
       <c r="AI212" s="17"/>
-      <c r="AJ212" s="4"/>
+      <c r="AJ212" s="18"/>
     </row>
     <row r="213" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="17"/>
@@ -8290,7 +8301,7 @@
       <c r="AG213" s="17"/>
       <c r="AH213" s="17"/>
       <c r="AI213" s="17"/>
-      <c r="AJ213" s="4"/>
+      <c r="AJ213" s="18"/>
     </row>
     <row r="214" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="17"/>
@@ -8328,7 +8339,7 @@
       <c r="AG214" s="17"/>
       <c r="AH214" s="17"/>
       <c r="AI214" s="17"/>
-      <c r="AJ214" s="4"/>
+      <c r="AJ214" s="18"/>
     </row>
     <row r="215" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="17"/>
@@ -8366,7 +8377,7 @@
       <c r="AG215" s="17"/>
       <c r="AH215" s="17"/>
       <c r="AI215" s="17"/>
-      <c r="AJ215" s="4"/>
+      <c r="AJ215" s="18"/>
     </row>
     <row r="216" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="17"/>
@@ -8404,7 +8415,7 @@
       <c r="AG216" s="17"/>
       <c r="AH216" s="17"/>
       <c r="AI216" s="17"/>
-      <c r="AJ216" s="4"/>
+      <c r="AJ216" s="18"/>
     </row>
     <row r="217" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="17"/>
@@ -8442,7 +8453,7 @@
       <c r="AG217" s="17"/>
       <c r="AH217" s="17"/>
       <c r="AI217" s="17"/>
-      <c r="AJ217" s="4"/>
+      <c r="AJ217" s="18"/>
     </row>
     <row r="218" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="17"/>
@@ -8480,7 +8491,7 @@
       <c r="AG218" s="17"/>
       <c r="AH218" s="17"/>
       <c r="AI218" s="17"/>
-      <c r="AJ218" s="4"/>
+      <c r="AJ218" s="18"/>
     </row>
     <row r="219" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="17"/>
@@ -8518,7 +8529,7 @@
       <c r="AG219" s="17"/>
       <c r="AH219" s="17"/>
       <c r="AI219" s="17"/>
-      <c r="AJ219" s="4"/>
+      <c r="AJ219" s="18"/>
     </row>
     <row r="220" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="17"/>
@@ -8556,7 +8567,7 @@
       <c r="AG220" s="17"/>
       <c r="AH220" s="17"/>
       <c r="AI220" s="17"/>
-      <c r="AJ220" s="4"/>
+      <c r="AJ220" s="18"/>
     </row>
     <row r="221" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="17"/>
@@ -8594,7 +8605,7 @@
       <c r="AG221" s="17"/>
       <c r="AH221" s="17"/>
       <c r="AI221" s="17"/>
-      <c r="AJ221" s="4"/>
+      <c r="AJ221" s="18"/>
     </row>
     <row r="222" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A222" s="17"/>
@@ -8632,7 +8643,7 @@
       <c r="AG222" s="17"/>
       <c r="AH222" s="17"/>
       <c r="AI222" s="17"/>
-      <c r="AJ222" s="4"/>
+      <c r="AJ222" s="18"/>
     </row>
     <row r="223" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="17"/>
@@ -8670,7 +8681,7 @@
       <c r="AG223" s="17"/>
       <c r="AH223" s="17"/>
       <c r="AI223" s="17"/>
-      <c r="AJ223" s="4"/>
+      <c r="AJ223" s="18"/>
     </row>
     <row r="224" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="17"/>
@@ -8708,7 +8719,7 @@
       <c r="AG224" s="17"/>
       <c r="AH224" s="17"/>
       <c r="AI224" s="17"/>
-      <c r="AJ224" s="4"/>
+      <c r="AJ224" s="18"/>
     </row>
     <row r="225" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="17"/>
@@ -8746,7 +8757,7 @@
       <c r="AG225" s="17"/>
       <c r="AH225" s="17"/>
       <c r="AI225" s="17"/>
-      <c r="AJ225" s="4"/>
+      <c r="AJ225" s="18"/>
     </row>
     <row r="226" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="17"/>
@@ -8784,7 +8795,7 @@
       <c r="AG226" s="17"/>
       <c r="AH226" s="17"/>
       <c r="AI226" s="17"/>
-      <c r="AJ226" s="4"/>
+      <c r="AJ226" s="18"/>
     </row>
     <row r="227" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="17"/>
@@ -8822,7 +8833,7 @@
       <c r="AG227" s="17"/>
       <c r="AH227" s="17"/>
       <c r="AI227" s="17"/>
-      <c r="AJ227" s="4"/>
+      <c r="AJ227" s="18"/>
     </row>
     <row r="228" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="17"/>
@@ -8860,7 +8871,7 @@
       <c r="AG228" s="17"/>
       <c r="AH228" s="17"/>
       <c r="AI228" s="17"/>
-      <c r="AJ228" s="4"/>
+      <c r="AJ228" s="18"/>
     </row>
     <row r="229" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="17"/>
@@ -8898,7 +8909,7 @@
       <c r="AG229" s="17"/>
       <c r="AH229" s="17"/>
       <c r="AI229" s="17"/>
-      <c r="AJ229" s="4"/>
+      <c r="AJ229" s="18"/>
     </row>
     <row r="230" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="17"/>
@@ -8936,7 +8947,7 @@
       <c r="AG230" s="17"/>
       <c r="AH230" s="17"/>
       <c r="AI230" s="17"/>
-      <c r="AJ230" s="4"/>
+      <c r="AJ230" s="18"/>
     </row>
     <row r="231" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="17"/>
@@ -8974,7 +8985,7 @@
       <c r="AG231" s="17"/>
       <c r="AH231" s="17"/>
       <c r="AI231" s="17"/>
-      <c r="AJ231" s="4"/>
+      <c r="AJ231" s="18"/>
     </row>
     <row r="232" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="17"/>
@@ -9012,7 +9023,7 @@
       <c r="AG232" s="17"/>
       <c r="AH232" s="17"/>
       <c r="AI232" s="17"/>
-      <c r="AJ232" s="4"/>
+      <c r="AJ232" s="18"/>
     </row>
     <row r="233" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="17"/>
@@ -9050,7 +9061,7 @@
       <c r="AG233" s="17"/>
       <c r="AH233" s="17"/>
       <c r="AI233" s="17"/>
-      <c r="AJ233" s="4"/>
+      <c r="AJ233" s="18"/>
     </row>
     <row r="234" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="17"/>
@@ -9088,7 +9099,7 @@
       <c r="AG234" s="17"/>
       <c r="AH234" s="17"/>
       <c r="AI234" s="17"/>
-      <c r="AJ234" s="4"/>
+      <c r="AJ234" s="18"/>
     </row>
     <row r="235" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="17"/>
@@ -9126,7 +9137,7 @@
       <c r="AG235" s="17"/>
       <c r="AH235" s="17"/>
       <c r="AI235" s="17"/>
-      <c r="AJ235" s="4"/>
+      <c r="AJ235" s="18"/>
     </row>
     <row r="236" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="17"/>
@@ -9164,7 +9175,7 @@
       <c r="AG236" s="17"/>
       <c r="AH236" s="17"/>
       <c r="AI236" s="17"/>
-      <c r="AJ236" s="4"/>
+      <c r="AJ236" s="18"/>
     </row>
     <row r="237" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="17"/>
@@ -9202,7 +9213,7 @@
       <c r="AG237" s="17"/>
       <c r="AH237" s="17"/>
       <c r="AI237" s="17"/>
-      <c r="AJ237" s="4"/>
+      <c r="AJ237" s="18"/>
     </row>
     <row r="238" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="17"/>
@@ -9240,7 +9251,7 @@
       <c r="AG238" s="17"/>
       <c r="AH238" s="17"/>
       <c r="AI238" s="17"/>
-      <c r="AJ238" s="4"/>
+      <c r="AJ238" s="18"/>
     </row>
     <row r="239" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="17"/>
@@ -9278,7 +9289,7 @@
       <c r="AG239" s="17"/>
       <c r="AH239" s="17"/>
       <c r="AI239" s="17"/>
-      <c r="AJ239" s="4"/>
+      <c r="AJ239" s="18"/>
     </row>
     <row r="240" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="17"/>
@@ -9316,7 +9327,7 @@
       <c r="AG240" s="17"/>
       <c r="AH240" s="17"/>
       <c r="AI240" s="17"/>
-      <c r="AJ240" s="4"/>
+      <c r="AJ240" s="18"/>
     </row>
     <row r="241" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="17"/>
@@ -9354,7 +9365,7 @@
       <c r="AG241" s="17"/>
       <c r="AH241" s="17"/>
       <c r="AI241" s="17"/>
-      <c r="AJ241" s="4"/>
+      <c r="AJ241" s="18"/>
     </row>
     <row r="242" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="17"/>
@@ -9392,7 +9403,7 @@
       <c r="AG242" s="17"/>
       <c r="AH242" s="17"/>
       <c r="AI242" s="17"/>
-      <c r="AJ242" s="4"/>
+      <c r="AJ242" s="18"/>
     </row>
     <row r="243" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="17"/>
@@ -9430,7 +9441,7 @@
       <c r="AG243" s="17"/>
       <c r="AH243" s="17"/>
       <c r="AI243" s="17"/>
-      <c r="AJ243" s="4"/>
+      <c r="AJ243" s="18"/>
     </row>
     <row r="244" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="17"/>
@@ -9468,7 +9479,7 @@
       <c r="AG244" s="17"/>
       <c r="AH244" s="17"/>
       <c r="AI244" s="17"/>
-      <c r="AJ244" s="4"/>
+      <c r="AJ244" s="18"/>
     </row>
     <row r="245" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="17"/>
@@ -9506,7 +9517,7 @@
       <c r="AG245" s="17"/>
       <c r="AH245" s="17"/>
       <c r="AI245" s="17"/>
-      <c r="AJ245" s="4"/>
+      <c r="AJ245" s="18"/>
     </row>
     <row r="246" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="17"/>
@@ -9544,7 +9555,7 @@
       <c r="AG246" s="17"/>
       <c r="AH246" s="17"/>
       <c r="AI246" s="17"/>
-      <c r="AJ246" s="4"/>
+      <c r="AJ246" s="18"/>
     </row>
     <row r="247" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="17"/>
@@ -9582,7 +9593,7 @@
       <c r="AG247" s="17"/>
       <c r="AH247" s="17"/>
       <c r="AI247" s="17"/>
-      <c r="AJ247" s="4"/>
+      <c r="AJ247" s="18"/>
     </row>
     <row r="248" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="17"/>
@@ -9620,7 +9631,7 @@
       <c r="AG248" s="17"/>
       <c r="AH248" s="17"/>
       <c r="AI248" s="17"/>
-      <c r="AJ248" s="4"/>
+      <c r="AJ248" s="18"/>
     </row>
     <row r="249" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="17"/>
@@ -9658,7 +9669,7 @@
       <c r="AG249" s="17"/>
       <c r="AH249" s="17"/>
       <c r="AI249" s="17"/>
-      <c r="AJ249" s="4"/>
+      <c r="AJ249" s="18"/>
     </row>
     <row r="250" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="17"/>
@@ -9696,7 +9707,7 @@
       <c r="AG250" s="17"/>
       <c r="AH250" s="17"/>
       <c r="AI250" s="17"/>
-      <c r="AJ250" s="4"/>
+      <c r="AJ250" s="18"/>
     </row>
     <row r="251" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="17"/>
@@ -9734,7 +9745,7 @@
       <c r="AG251" s="17"/>
       <c r="AH251" s="17"/>
       <c r="AI251" s="17"/>
-      <c r="AJ251" s="4"/>
+      <c r="AJ251" s="18"/>
     </row>
     <row r="252" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="17"/>
@@ -9772,7 +9783,7 @@
       <c r="AG252" s="17"/>
       <c r="AH252" s="17"/>
       <c r="AI252" s="17"/>
-      <c r="AJ252" s="4"/>
+      <c r="AJ252" s="18"/>
     </row>
     <row r="253" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="17"/>
@@ -9810,7 +9821,7 @@
       <c r="AG253" s="17"/>
       <c r="AH253" s="17"/>
       <c r="AI253" s="17"/>
-      <c r="AJ253" s="4"/>
+      <c r="AJ253" s="18"/>
     </row>
     <row r="254" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="17"/>
@@ -9848,7 +9859,7 @@
       <c r="AG254" s="17"/>
       <c r="AH254" s="17"/>
       <c r="AI254" s="17"/>
-      <c r="AJ254" s="4"/>
+      <c r="AJ254" s="18"/>
     </row>
     <row r="255" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="17"/>
@@ -9886,7 +9897,7 @@
       <c r="AG255" s="17"/>
       <c r="AH255" s="17"/>
       <c r="AI255" s="17"/>
-      <c r="AJ255" s="4"/>
+      <c r="AJ255" s="18"/>
     </row>
     <row r="256" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="17"/>
@@ -9924,7 +9935,7 @@
       <c r="AG256" s="17"/>
       <c r="AH256" s="17"/>
       <c r="AI256" s="17"/>
-      <c r="AJ256" s="4"/>
+      <c r="AJ256" s="18"/>
     </row>
     <row r="257" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="17"/>
@@ -9962,7 +9973,7 @@
       <c r="AG257" s="17"/>
       <c r="AH257" s="17"/>
       <c r="AI257" s="17"/>
-      <c r="AJ257" s="4"/>
+      <c r="AJ257" s="18"/>
     </row>
     <row r="258" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="17"/>
@@ -10000,7 +10011,7 @@
       <c r="AG258" s="17"/>
       <c r="AH258" s="17"/>
       <c r="AI258" s="17"/>
-      <c r="AJ258" s="4"/>
+      <c r="AJ258" s="18"/>
     </row>
     <row r="259" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="17"/>
@@ -10038,7 +10049,7 @@
       <c r="AG259" s="17"/>
       <c r="AH259" s="17"/>
       <c r="AI259" s="17"/>
-      <c r="AJ259" s="4"/>
+      <c r="AJ259" s="18"/>
     </row>
     <row r="260" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="17"/>
@@ -10076,7 +10087,7 @@
       <c r="AG260" s="17"/>
       <c r="AH260" s="17"/>
       <c r="AI260" s="17"/>
-      <c r="AJ260" s="4"/>
+      <c r="AJ260" s="18"/>
     </row>
     <row r="261" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="17"/>
@@ -10114,7 +10125,7 @@
       <c r="AG261" s="17"/>
       <c r="AH261" s="17"/>
       <c r="AI261" s="17"/>
-      <c r="AJ261" s="4"/>
+      <c r="AJ261" s="18"/>
     </row>
     <row r="262" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="17"/>
@@ -10152,7 +10163,7 @@
       <c r="AG262" s="17"/>
       <c r="AH262" s="17"/>
       <c r="AI262" s="17"/>
-      <c r="AJ262" s="4"/>
+      <c r="AJ262" s="18"/>
     </row>
     <row r="263" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="17"/>
@@ -10190,7 +10201,7 @@
       <c r="AG263" s="17"/>
       <c r="AH263" s="17"/>
       <c r="AI263" s="17"/>
-      <c r="AJ263" s="4"/>
+      <c r="AJ263" s="18"/>
     </row>
     <row r="264" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="17"/>
@@ -10228,7 +10239,7 @@
       <c r="AG264" s="17"/>
       <c r="AH264" s="17"/>
       <c r="AI264" s="17"/>
-      <c r="AJ264" s="4"/>
+      <c r="AJ264" s="18"/>
     </row>
     <row r="265" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="17"/>
@@ -10266,7 +10277,7 @@
       <c r="AG265" s="17"/>
       <c r="AH265" s="17"/>
       <c r="AI265" s="17"/>
-      <c r="AJ265" s="4"/>
+      <c r="AJ265" s="18"/>
     </row>
     <row r="266" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="17"/>
@@ -10304,7 +10315,7 @@
       <c r="AG266" s="17"/>
       <c r="AH266" s="17"/>
       <c r="AI266" s="17"/>
-      <c r="AJ266" s="4"/>
+      <c r="AJ266" s="18"/>
     </row>
     <row r="267" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="17"/>
@@ -10342,7 +10353,7 @@
       <c r="AG267" s="17"/>
       <c r="AH267" s="17"/>
       <c r="AI267" s="17"/>
-      <c r="AJ267" s="4"/>
+      <c r="AJ267" s="18"/>
     </row>
     <row r="268" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="17"/>
@@ -10380,7 +10391,7 @@
       <c r="AG268" s="17"/>
       <c r="AH268" s="17"/>
       <c r="AI268" s="17"/>
-      <c r="AJ268" s="4"/>
+      <c r="AJ268" s="18"/>
     </row>
     <row r="269" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="17"/>
@@ -10418,7 +10429,7 @@
       <c r="AG269" s="17"/>
       <c r="AH269" s="17"/>
       <c r="AI269" s="17"/>
-      <c r="AJ269" s="4"/>
+      <c r="AJ269" s="18"/>
     </row>
     <row r="270" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="17"/>
@@ -10456,7 +10467,7 @@
       <c r="AG270" s="17"/>
       <c r="AH270" s="17"/>
       <c r="AI270" s="17"/>
-      <c r="AJ270" s="4"/>
+      <c r="AJ270" s="18"/>
     </row>
     <row r="271" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="17"/>
@@ -10494,7 +10505,7 @@
       <c r="AG271" s="17"/>
       <c r="AH271" s="17"/>
       <c r="AI271" s="17"/>
-      <c r="AJ271" s="4"/>
+      <c r="AJ271" s="18"/>
     </row>
     <row r="272" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="17"/>
@@ -10532,7 +10543,7 @@
       <c r="AG272" s="17"/>
       <c r="AH272" s="17"/>
       <c r="AI272" s="17"/>
-      <c r="AJ272" s="4"/>
+      <c r="AJ272" s="18"/>
     </row>
     <row r="273" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="17"/>
@@ -10570,7 +10581,7 @@
       <c r="AG273" s="17"/>
       <c r="AH273" s="17"/>
       <c r="AI273" s="17"/>
-      <c r="AJ273" s="4"/>
+      <c r="AJ273" s="18"/>
     </row>
     <row r="274" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="17"/>
@@ -10608,7 +10619,7 @@
       <c r="AG274" s="17"/>
       <c r="AH274" s="17"/>
       <c r="AI274" s="17"/>
-      <c r="AJ274" s="4"/>
+      <c r="AJ274" s="18"/>
     </row>
     <row r="275" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A275" s="17"/>
@@ -10646,7 +10657,7 @@
       <c r="AG275" s="17"/>
       <c r="AH275" s="17"/>
       <c r="AI275" s="17"/>
-      <c r="AJ275" s="4"/>
+      <c r="AJ275" s="18"/>
     </row>
     <row r="276" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="17"/>
@@ -10684,7 +10695,7 @@
       <c r="AG276" s="17"/>
       <c r="AH276" s="17"/>
       <c r="AI276" s="17"/>
-      <c r="AJ276" s="4"/>
+      <c r="AJ276" s="18"/>
     </row>
     <row r="277" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="17"/>
@@ -10722,7 +10733,7 @@
       <c r="AG277" s="17"/>
       <c r="AH277" s="17"/>
       <c r="AI277" s="17"/>
-      <c r="AJ277" s="4"/>
+      <c r="AJ277" s="18"/>
     </row>
     <row r="278" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="17"/>
@@ -10760,7 +10771,7 @@
       <c r="AG278" s="17"/>
       <c r="AH278" s="17"/>
       <c r="AI278" s="17"/>
-      <c r="AJ278" s="4"/>
+      <c r="AJ278" s="18"/>
     </row>
     <row r="279" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="17"/>
@@ -10798,7 +10809,7 @@
       <c r="AG279" s="17"/>
       <c r="AH279" s="17"/>
       <c r="AI279" s="17"/>
-      <c r="AJ279" s="4"/>
+      <c r="AJ279" s="18"/>
     </row>
     <row r="280" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="17"/>
@@ -10836,7 +10847,7 @@
       <c r="AG280" s="17"/>
       <c r="AH280" s="17"/>
       <c r="AI280" s="17"/>
-      <c r="AJ280" s="4"/>
+      <c r="AJ280" s="18"/>
     </row>
     <row r="281" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="17"/>
@@ -10874,7 +10885,7 @@
       <c r="AG281" s="17"/>
       <c r="AH281" s="17"/>
       <c r="AI281" s="17"/>
-      <c r="AJ281" s="4"/>
+      <c r="AJ281" s="18"/>
     </row>
     <row r="282" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="17"/>
@@ -10912,7 +10923,7 @@
       <c r="AG282" s="17"/>
       <c r="AH282" s="17"/>
       <c r="AI282" s="17"/>
-      <c r="AJ282" s="4"/>
+      <c r="AJ282" s="18"/>
     </row>
     <row r="283" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="17"/>
@@ -10950,7 +10961,7 @@
       <c r="AG283" s="17"/>
       <c r="AH283" s="17"/>
       <c r="AI283" s="17"/>
-      <c r="AJ283" s="4"/>
+      <c r="AJ283" s="18"/>
     </row>
     <row r="284" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="17"/>
@@ -10988,7 +10999,7 @@
       <c r="AG284" s="17"/>
       <c r="AH284" s="17"/>
       <c r="AI284" s="17"/>
-      <c r="AJ284" s="4"/>
+      <c r="AJ284" s="18"/>
     </row>
     <row r="285" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="17"/>
@@ -11026,7 +11037,7 @@
       <c r="AG285" s="17"/>
       <c r="AH285" s="17"/>
       <c r="AI285" s="17"/>
-      <c r="AJ285" s="4"/>
+      <c r="AJ285" s="18"/>
     </row>
     <row r="286" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A286" s="17"/>
@@ -11064,7 +11075,7 @@
       <c r="AG286" s="17"/>
       <c r="AH286" s="17"/>
       <c r="AI286" s="17"/>
-      <c r="AJ286" s="4"/>
+      <c r="AJ286" s="18"/>
     </row>
     <row r="287" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="17"/>
@@ -11102,7 +11113,7 @@
       <c r="AG287" s="17"/>
       <c r="AH287" s="17"/>
       <c r="AI287" s="17"/>
-      <c r="AJ287" s="4"/>
+      <c r="AJ287" s="18"/>
     </row>
     <row r="288" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="17"/>
@@ -11140,7 +11151,7 @@
       <c r="AG288" s="17"/>
       <c r="AH288" s="17"/>
       <c r="AI288" s="17"/>
-      <c r="AJ288" s="4"/>
+      <c r="AJ288" s="18"/>
     </row>
     <row r="289" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="17"/>
@@ -11178,7 +11189,7 @@
       <c r="AG289" s="17"/>
       <c r="AH289" s="17"/>
       <c r="AI289" s="17"/>
-      <c r="AJ289" s="4"/>
+      <c r="AJ289" s="18"/>
     </row>
     <row r="290" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A290" s="17"/>
@@ -11216,7 +11227,7 @@
       <c r="AG290" s="17"/>
       <c r="AH290" s="17"/>
       <c r="AI290" s="17"/>
-      <c r="AJ290" s="4"/>
+      <c r="AJ290" s="18"/>
     </row>
     <row r="291" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="17"/>
@@ -11254,7 +11265,7 @@
       <c r="AG291" s="17"/>
       <c r="AH291" s="17"/>
       <c r="AI291" s="17"/>
-      <c r="AJ291" s="4"/>
+      <c r="AJ291" s="18"/>
     </row>
     <row r="292" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="17"/>
@@ -11292,7 +11303,7 @@
       <c r="AG292" s="17"/>
       <c r="AH292" s="17"/>
       <c r="AI292" s="17"/>
-      <c r="AJ292" s="4"/>
+      <c r="AJ292" s="18"/>
     </row>
     <row r="293" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="17"/>
@@ -11330,7 +11341,7 @@
       <c r="AG293" s="17"/>
       <c r="AH293" s="17"/>
       <c r="AI293" s="17"/>
-      <c r="AJ293" s="4"/>
+      <c r="AJ293" s="18"/>
     </row>
     <row r="294" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="17"/>
@@ -11368,7 +11379,7 @@
       <c r="AG294" s="17"/>
       <c r="AH294" s="17"/>
       <c r="AI294" s="17"/>
-      <c r="AJ294" s="4"/>
+      <c r="AJ294" s="18"/>
     </row>
     <row r="295" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="17"/>
@@ -11406,7 +11417,7 @@
       <c r="AG295" s="17"/>
       <c r="AH295" s="17"/>
       <c r="AI295" s="17"/>
-      <c r="AJ295" s="4"/>
+      <c r="AJ295" s="18"/>
     </row>
     <row r="296" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="17"/>
@@ -11444,7 +11455,7 @@
       <c r="AG296" s="17"/>
       <c r="AH296" s="17"/>
       <c r="AI296" s="17"/>
-      <c r="AJ296" s="4"/>
+      <c r="AJ296" s="18"/>
     </row>
     <row r="297" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="17"/>
@@ -11482,7 +11493,7 @@
       <c r="AG297" s="17"/>
       <c r="AH297" s="17"/>
       <c r="AI297" s="17"/>
-      <c r="AJ297" s="4"/>
+      <c r="AJ297" s="18"/>
     </row>
     <row r="298" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="17"/>
@@ -11520,7 +11531,7 @@
       <c r="AG298" s="17"/>
       <c r="AH298" s="17"/>
       <c r="AI298" s="17"/>
-      <c r="AJ298" s="4"/>
+      <c r="AJ298" s="18"/>
     </row>
     <row r="299" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="17"/>
@@ -11558,7 +11569,7 @@
       <c r="AG299" s="17"/>
       <c r="AH299" s="17"/>
       <c r="AI299" s="17"/>
-      <c r="AJ299" s="4"/>
+      <c r="AJ299" s="18"/>
     </row>
     <row r="300" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="17"/>
@@ -11596,7 +11607,7 @@
       <c r="AG300" s="17"/>
       <c r="AH300" s="17"/>
       <c r="AI300" s="17"/>
-      <c r="AJ300" s="4"/>
+      <c r="AJ300" s="18"/>
     </row>
     <row r="301" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="17"/>
@@ -11634,7 +11645,7 @@
       <c r="AG301" s="17"/>
       <c r="AH301" s="17"/>
       <c r="AI301" s="17"/>
-      <c r="AJ301" s="4"/>
+      <c r="AJ301" s="18"/>
     </row>
     <row r="302" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="17"/>
@@ -11672,7 +11683,7 @@
       <c r="AG302" s="17"/>
       <c r="AH302" s="17"/>
       <c r="AI302" s="17"/>
-      <c r="AJ302" s="4"/>
+      <c r="AJ302" s="18"/>
     </row>
     <row r="303" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="17"/>
@@ -11710,7 +11721,7 @@
       <c r="AG303" s="17"/>
       <c r="AH303" s="17"/>
       <c r="AI303" s="17"/>
-      <c r="AJ303" s="4"/>
+      <c r="AJ303" s="18"/>
     </row>
     <row r="304" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="17"/>
@@ -11748,7 +11759,7 @@
       <c r="AG304" s="17"/>
       <c r="AH304" s="17"/>
       <c r="AI304" s="17"/>
-      <c r="AJ304" s="4"/>
+      <c r="AJ304" s="18"/>
     </row>
     <row r="305" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="17"/>
@@ -11786,7 +11797,7 @@
       <c r="AG305" s="17"/>
       <c r="AH305" s="17"/>
       <c r="AI305" s="17"/>
-      <c r="AJ305" s="4"/>
+      <c r="AJ305" s="18"/>
     </row>
     <row r="306" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="17"/>
@@ -11824,7 +11835,7 @@
       <c r="AG306" s="17"/>
       <c r="AH306" s="17"/>
       <c r="AI306" s="17"/>
-      <c r="AJ306" s="4"/>
+      <c r="AJ306" s="18"/>
     </row>
     <row r="307" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="17"/>
@@ -11862,7 +11873,7 @@
       <c r="AG307" s="17"/>
       <c r="AH307" s="17"/>
       <c r="AI307" s="17"/>
-      <c r="AJ307" s="4"/>
+      <c r="AJ307" s="18"/>
     </row>
     <row r="308" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="17"/>
@@ -11900,7 +11911,7 @@
       <c r="AG308" s="17"/>
       <c r="AH308" s="17"/>
       <c r="AI308" s="17"/>
-      <c r="AJ308" s="4"/>
+      <c r="AJ308" s="18"/>
     </row>
     <row r="309" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="17"/>
@@ -11938,7 +11949,7 @@
       <c r="AG309" s="17"/>
       <c r="AH309" s="17"/>
       <c r="AI309" s="17"/>
-      <c r="AJ309" s="4"/>
+      <c r="AJ309" s="18"/>
     </row>
     <row r="310" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="17"/>
@@ -11976,7 +11987,7 @@
       <c r="AG310" s="17"/>
       <c r="AH310" s="17"/>
       <c r="AI310" s="17"/>
-      <c r="AJ310" s="4"/>
+      <c r="AJ310" s="18"/>
     </row>
     <row r="311" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="17"/>
@@ -12014,7 +12025,7 @@
       <c r="AG311" s="17"/>
       <c r="AH311" s="17"/>
       <c r="AI311" s="17"/>
-      <c r="AJ311" s="4"/>
+      <c r="AJ311" s="18"/>
     </row>
     <row r="312" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A312" s="17"/>
@@ -12052,7 +12063,7 @@
       <c r="AG312" s="17"/>
       <c r="AH312" s="17"/>
       <c r="AI312" s="17"/>
-      <c r="AJ312" s="4"/>
+      <c r="AJ312" s="18"/>
     </row>
     <row r="313" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="17"/>
@@ -12090,7 +12101,7 @@
       <c r="AG313" s="17"/>
       <c r="AH313" s="17"/>
       <c r="AI313" s="17"/>
-      <c r="AJ313" s="4"/>
+      <c r="AJ313" s="18"/>
     </row>
     <row r="314" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="17"/>
@@ -12128,7 +12139,7 @@
       <c r="AG314" s="17"/>
       <c r="AH314" s="17"/>
       <c r="AI314" s="17"/>
-      <c r="AJ314" s="4"/>
+      <c r="AJ314" s="18"/>
     </row>
     <row r="315" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A315" s="17"/>
@@ -12166,7 +12177,7 @@
       <c r="AG315" s="17"/>
       <c r="AH315" s="17"/>
       <c r="AI315" s="17"/>
-      <c r="AJ315" s="4"/>
+      <c r="AJ315" s="18"/>
     </row>
     <row r="316" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A316" s="17"/>
@@ -12204,7 +12215,7 @@
       <c r="AG316" s="17"/>
       <c r="AH316" s="17"/>
       <c r="AI316" s="17"/>
-      <c r="AJ316" s="4"/>
+      <c r="AJ316" s="18"/>
     </row>
     <row r="317" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A317" s="17"/>
@@ -12242,7 +12253,7 @@
       <c r="AG317" s="17"/>
       <c r="AH317" s="17"/>
       <c r="AI317" s="17"/>
-      <c r="AJ317" s="4"/>
+      <c r="AJ317" s="18"/>
     </row>
     <row r="318" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A318" s="17"/>
@@ -12280,7 +12291,7 @@
       <c r="AG318" s="17"/>
       <c r="AH318" s="17"/>
       <c r="AI318" s="17"/>
-      <c r="AJ318" s="4"/>
+      <c r="AJ318" s="18"/>
     </row>
     <row r="319" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A319" s="17"/>
@@ -12318,7 +12329,7 @@
       <c r="AG319" s="17"/>
       <c r="AH319" s="17"/>
       <c r="AI319" s="17"/>
-      <c r="AJ319" s="4"/>
+      <c r="AJ319" s="18"/>
     </row>
     <row r="320" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A320" s="17"/>
@@ -12356,7 +12367,7 @@
       <c r="AG320" s="17"/>
       <c r="AH320" s="17"/>
       <c r="AI320" s="17"/>
-      <c r="AJ320" s="4"/>
+      <c r="AJ320" s="18"/>
     </row>
     <row r="321" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A321" s="17"/>
@@ -12394,7 +12405,7 @@
       <c r="AG321" s="17"/>
       <c r="AH321" s="17"/>
       <c r="AI321" s="17"/>
-      <c r="AJ321" s="4"/>
+      <c r="AJ321" s="18"/>
     </row>
     <row r="322" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A322" s="17"/>
@@ -12432,7 +12443,7 @@
       <c r="AG322" s="17"/>
       <c r="AH322" s="17"/>
       <c r="AI322" s="17"/>
-      <c r="AJ322" s="4"/>
+      <c r="AJ322" s="18"/>
     </row>
     <row r="323" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A323" s="17"/>
@@ -12470,7 +12481,7 @@
       <c r="AG323" s="17"/>
       <c r="AH323" s="17"/>
       <c r="AI323" s="17"/>
-      <c r="AJ323" s="4"/>
+      <c r="AJ323" s="18"/>
     </row>
     <row r="324" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A324" s="17"/>
@@ -12508,7 +12519,7 @@
       <c r="AG324" s="17"/>
       <c r="AH324" s="17"/>
       <c r="AI324" s="17"/>
-      <c r="AJ324" s="4"/>
+      <c r="AJ324" s="18"/>
     </row>
     <row r="325" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A325" s="17"/>
@@ -12546,7 +12557,7 @@
       <c r="AG325" s="17"/>
       <c r="AH325" s="17"/>
       <c r="AI325" s="17"/>
-      <c r="AJ325" s="4"/>
+      <c r="AJ325" s="18"/>
     </row>
     <row r="326" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A326" s="17"/>
@@ -12584,7 +12595,7 @@
       <c r="AG326" s="17"/>
       <c r="AH326" s="17"/>
       <c r="AI326" s="17"/>
-      <c r="AJ326" s="4"/>
+      <c r="AJ326" s="18"/>
     </row>
     <row r="327" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A327" s="17"/>
@@ -12622,7 +12633,7 @@
       <c r="AG327" s="17"/>
       <c r="AH327" s="17"/>
       <c r="AI327" s="17"/>
-      <c r="AJ327" s="4"/>
+      <c r="AJ327" s="18"/>
     </row>
     <row r="328" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A328" s="17"/>
@@ -12660,7 +12671,7 @@
       <c r="AG328" s="17"/>
       <c r="AH328" s="17"/>
       <c r="AI328" s="17"/>
-      <c r="AJ328" s="4"/>
+      <c r="AJ328" s="18"/>
     </row>
     <row r="329" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A329" s="17"/>
@@ -12698,7 +12709,7 @@
       <c r="AG329" s="17"/>
       <c r="AH329" s="17"/>
       <c r="AI329" s="17"/>
-      <c r="AJ329" s="4"/>
+      <c r="AJ329" s="18"/>
     </row>
     <row r="330" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A330" s="17"/>
@@ -12736,7 +12747,7 @@
       <c r="AG330" s="17"/>
       <c r="AH330" s="17"/>
       <c r="AI330" s="17"/>
-      <c r="AJ330" s="4"/>
+      <c r="AJ330" s="18"/>
     </row>
     <row r="331" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A331" s="17"/>
@@ -12774,7 +12785,7 @@
       <c r="AG331" s="17"/>
       <c r="AH331" s="17"/>
       <c r="AI331" s="17"/>
-      <c r="AJ331" s="4"/>
+      <c r="AJ331" s="18"/>
     </row>
     <row r="332" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A332" s="17"/>
@@ -12812,7 +12823,7 @@
       <c r="AG332" s="17"/>
       <c r="AH332" s="17"/>
       <c r="AI332" s="17"/>
-      <c r="AJ332" s="4"/>
+      <c r="AJ332" s="18"/>
     </row>
     <row r="333" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A333" s="17"/>
@@ -12850,7 +12861,7 @@
       <c r="AG333" s="17"/>
       <c r="AH333" s="17"/>
       <c r="AI333" s="17"/>
-      <c r="AJ333" s="4"/>
+      <c r="AJ333" s="18"/>
     </row>
     <row r="334" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A334" s="17"/>
@@ -12888,7 +12899,7 @@
       <c r="AG334" s="17"/>
       <c r="AH334" s="17"/>
       <c r="AI334" s="17"/>
-      <c r="AJ334" s="4"/>
+      <c r="AJ334" s="18"/>
     </row>
     <row r="335" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A335" s="17"/>
@@ -12926,7 +12937,7 @@
       <c r="AG335" s="17"/>
       <c r="AH335" s="17"/>
       <c r="AI335" s="17"/>
-      <c r="AJ335" s="4"/>
+      <c r="AJ335" s="18"/>
     </row>
     <row r="336" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A336" s="17"/>
@@ -12964,7 +12975,7 @@
       <c r="AG336" s="17"/>
       <c r="AH336" s="17"/>
       <c r="AI336" s="17"/>
-      <c r="AJ336" s="4"/>
+      <c r="AJ336" s="18"/>
     </row>
     <row r="337" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A337" s="17"/>
@@ -13002,7 +13013,7 @@
       <c r="AG337" s="17"/>
       <c r="AH337" s="17"/>
       <c r="AI337" s="17"/>
-      <c r="AJ337" s="4"/>
+      <c r="AJ337" s="18"/>
     </row>
     <row r="338" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A338" s="17"/>
@@ -13040,7 +13051,7 @@
       <c r="AG338" s="17"/>
       <c r="AH338" s="17"/>
       <c r="AI338" s="17"/>
-      <c r="AJ338" s="4"/>
+      <c r="AJ338" s="18"/>
     </row>
     <row r="339" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A339" s="17"/>
@@ -13078,7 +13089,7 @@
       <c r="AG339" s="17"/>
       <c r="AH339" s="17"/>
       <c r="AI339" s="17"/>
-      <c r="AJ339" s="4"/>
+      <c r="AJ339" s="18"/>
     </row>
     <row r="340" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A340" s="17"/>
@@ -13116,7 +13127,7 @@
       <c r="AG340" s="17"/>
       <c r="AH340" s="17"/>
       <c r="AI340" s="17"/>
-      <c r="AJ340" s="4"/>
+      <c r="AJ340" s="18"/>
     </row>
     <row r="341" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A341" s="17"/>
@@ -13154,7 +13165,7 @@
       <c r="AG341" s="17"/>
       <c r="AH341" s="17"/>
       <c r="AI341" s="17"/>
-      <c r="AJ341" s="4"/>
+      <c r="AJ341" s="18"/>
     </row>
     <row r="342" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A342" s="17"/>
@@ -13192,7 +13203,7 @@
       <c r="AG342" s="17"/>
       <c r="AH342" s="17"/>
       <c r="AI342" s="17"/>
-      <c r="AJ342" s="4"/>
+      <c r="AJ342" s="18"/>
     </row>
     <row r="343" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="17"/>
@@ -13230,7 +13241,7 @@
       <c r="AG343" s="17"/>
       <c r="AH343" s="17"/>
       <c r="AI343" s="17"/>
-      <c r="AJ343" s="4"/>
+      <c r="AJ343" s="18"/>
     </row>
     <row r="344" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A344" s="17"/>
@@ -13268,7 +13279,7 @@
       <c r="AG344" s="17"/>
       <c r="AH344" s="17"/>
       <c r="AI344" s="17"/>
-      <c r="AJ344" s="4"/>
+      <c r="AJ344" s="18"/>
     </row>
     <row r="345" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A345" s="17"/>
@@ -13306,7 +13317,7 @@
       <c r="AG345" s="17"/>
       <c r="AH345" s="17"/>
       <c r="AI345" s="17"/>
-      <c r="AJ345" s="4"/>
+      <c r="AJ345" s="18"/>
     </row>
     <row r="346" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A346" s="17"/>
@@ -13344,7 +13355,7 @@
       <c r="AG346" s="17"/>
       <c r="AH346" s="17"/>
       <c r="AI346" s="17"/>
-      <c r="AJ346" s="4"/>
+      <c r="AJ346" s="18"/>
     </row>
     <row r="347" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="17"/>
@@ -13382,7 +13393,7 @@
       <c r="AG347" s="17"/>
       <c r="AH347" s="17"/>
       <c r="AI347" s="17"/>
-      <c r="AJ347" s="4"/>
+      <c r="AJ347" s="18"/>
     </row>
     <row r="348" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A348" s="17"/>
@@ -13420,7 +13431,7 @@
       <c r="AG348" s="17"/>
       <c r="AH348" s="17"/>
       <c r="AI348" s="17"/>
-      <c r="AJ348" s="4"/>
+      <c r="AJ348" s="18"/>
     </row>
     <row r="349" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A349" s="17"/>
@@ -13458,7 +13469,7 @@
       <c r="AG349" s="17"/>
       <c r="AH349" s="17"/>
       <c r="AI349" s="17"/>
-      <c r="AJ349" s="4"/>
+      <c r="AJ349" s="18"/>
     </row>
     <row r="350" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A350" s="17"/>
@@ -13496,7 +13507,7 @@
       <c r="AG350" s="17"/>
       <c r="AH350" s="17"/>
       <c r="AI350" s="17"/>
-      <c r="AJ350" s="4"/>
+      <c r="AJ350" s="18"/>
     </row>
     <row r="351" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A351" s="17"/>
@@ -13534,7 +13545,7 @@
       <c r="AG351" s="17"/>
       <c r="AH351" s="17"/>
       <c r="AI351" s="17"/>
-      <c r="AJ351" s="4"/>
+      <c r="AJ351" s="18"/>
     </row>
     <row r="352" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A352" s="17"/>
@@ -13572,7 +13583,7 @@
       <c r="AG352" s="17"/>
       <c r="AH352" s="17"/>
       <c r="AI352" s="17"/>
-      <c r="AJ352" s="4"/>
+      <c r="AJ352" s="18"/>
     </row>
     <row r="353" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A353" s="17"/>
@@ -13610,7 +13621,7 @@
       <c r="AG353" s="17"/>
       <c r="AH353" s="17"/>
       <c r="AI353" s="17"/>
-      <c r="AJ353" s="4"/>
+      <c r="AJ353" s="18"/>
     </row>
     <row r="354" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A354" s="17"/>
@@ -13648,7 +13659,7 @@
       <c r="AG354" s="17"/>
       <c r="AH354" s="17"/>
       <c r="AI354" s="17"/>
-      <c r="AJ354" s="4"/>
+      <c r="AJ354" s="18"/>
     </row>
     <row r="355" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="17"/>
@@ -13686,7 +13697,7 @@
       <c r="AG355" s="17"/>
       <c r="AH355" s="17"/>
       <c r="AI355" s="17"/>
-      <c r="AJ355" s="4"/>
+      <c r="AJ355" s="18"/>
     </row>
     <row r="356" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A356" s="17"/>
@@ -13724,7 +13735,7 @@
       <c r="AG356" s="17"/>
       <c r="AH356" s="17"/>
       <c r="AI356" s="17"/>
-      <c r="AJ356" s="4"/>
+      <c r="AJ356" s="18"/>
     </row>
     <row r="357" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A357" s="17"/>
@@ -13762,7 +13773,7 @@
       <c r="AG357" s="17"/>
       <c r="AH357" s="17"/>
       <c r="AI357" s="17"/>
-      <c r="AJ357" s="4"/>
+      <c r="AJ357" s="18"/>
     </row>
     <row r="358" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A358" s="17"/>
@@ -13800,7 +13811,7 @@
       <c r="AG358" s="17"/>
       <c r="AH358" s="17"/>
       <c r="AI358" s="17"/>
-      <c r="AJ358" s="4"/>
+      <c r="AJ358" s="18"/>
     </row>
     <row r="359" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A359" s="17"/>
@@ -13838,7 +13849,7 @@
       <c r="AG359" s="17"/>
       <c r="AH359" s="17"/>
       <c r="AI359" s="17"/>
-      <c r="AJ359" s="4"/>
+      <c r="AJ359" s="18"/>
     </row>
     <row r="360" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A360" s="17"/>
@@ -13876,7 +13887,7 @@
       <c r="AG360" s="17"/>
       <c r="AH360" s="17"/>
       <c r="AI360" s="17"/>
-      <c r="AJ360" s="4"/>
+      <c r="AJ360" s="18"/>
     </row>
     <row r="361" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="17"/>
@@ -13914,7 +13925,7 @@
       <c r="AG361" s="17"/>
       <c r="AH361" s="17"/>
       <c r="AI361" s="17"/>
-      <c r="AJ361" s="4"/>
+      <c r="AJ361" s="18"/>
     </row>
     <row r="362" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="17"/>
@@ -13952,7 +13963,7 @@
       <c r="AG362" s="17"/>
       <c r="AH362" s="17"/>
       <c r="AI362" s="17"/>
-      <c r="AJ362" s="4"/>
+      <c r="AJ362" s="18"/>
     </row>
     <row r="363" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A363" s="17"/>
@@ -13990,7 +14001,7 @@
       <c r="AG363" s="17"/>
       <c r="AH363" s="17"/>
       <c r="AI363" s="17"/>
-      <c r="AJ363" s="4"/>
+      <c r="AJ363" s="18"/>
     </row>
     <row r="364" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A364" s="17"/>
@@ -14028,7 +14039,7 @@
       <c r="AG364" s="17"/>
       <c r="AH364" s="17"/>
       <c r="AI364" s="17"/>
-      <c r="AJ364" s="4"/>
+      <c r="AJ364" s="18"/>
     </row>
     <row r="365" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A365" s="17"/>
@@ -14066,7 +14077,7 @@
       <c r="AG365" s="17"/>
       <c r="AH365" s="17"/>
       <c r="AI365" s="17"/>
-      <c r="AJ365" s="4"/>
+      <c r="AJ365" s="18"/>
     </row>
     <row r="366" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A366" s="17"/>
@@ -14104,7 +14115,7 @@
       <c r="AG366" s="17"/>
       <c r="AH366" s="17"/>
       <c r="AI366" s="17"/>
-      <c r="AJ366" s="4"/>
+      <c r="AJ366" s="18"/>
     </row>
     <row r="367" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A367" s="17"/>
@@ -14142,7 +14153,7 @@
       <c r="AG367" s="17"/>
       <c r="AH367" s="17"/>
       <c r="AI367" s="17"/>
-      <c r="AJ367" s="4"/>
+      <c r="AJ367" s="18"/>
     </row>
     <row r="368" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A368" s="17"/>
@@ -14180,7 +14191,7 @@
       <c r="AG368" s="17"/>
       <c r="AH368" s="17"/>
       <c r="AI368" s="17"/>
-      <c r="AJ368" s="4"/>
+      <c r="AJ368" s="18"/>
     </row>
     <row r="369" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A369" s="17"/>
@@ -14218,7 +14229,7 @@
       <c r="AG369" s="17"/>
       <c r="AH369" s="17"/>
       <c r="AI369" s="17"/>
-      <c r="AJ369" s="4"/>
+      <c r="AJ369" s="18"/>
     </row>
     <row r="370" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A370" s="17"/>
@@ -14256,7 +14267,7 @@
       <c r="AG370" s="17"/>
       <c r="AH370" s="17"/>
       <c r="AI370" s="17"/>
-      <c r="AJ370" s="4"/>
+      <c r="AJ370" s="18"/>
     </row>
     <row r="371" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A371" s="17"/>
@@ -14294,7 +14305,7 @@
       <c r="AG371" s="17"/>
       <c r="AH371" s="17"/>
       <c r="AI371" s="17"/>
-      <c r="AJ371" s="4"/>
+      <c r="AJ371" s="18"/>
     </row>
     <row r="372" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A372" s="17"/>
@@ -14332,7 +14343,7 @@
       <c r="AG372" s="17"/>
       <c r="AH372" s="17"/>
       <c r="AI372" s="17"/>
-      <c r="AJ372" s="4"/>
+      <c r="AJ372" s="18"/>
     </row>
     <row r="373" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A373" s="17"/>
@@ -14370,7 +14381,7 @@
       <c r="AG373" s="17"/>
       <c r="AH373" s="17"/>
       <c r="AI373" s="17"/>
-      <c r="AJ373" s="4"/>
+      <c r="AJ373" s="18"/>
     </row>
     <row r="374" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A374" s="17"/>
@@ -14408,7 +14419,7 @@
       <c r="AG374" s="17"/>
       <c r="AH374" s="17"/>
       <c r="AI374" s="17"/>
-      <c r="AJ374" s="4"/>
+      <c r="AJ374" s="18"/>
     </row>
     <row r="375" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A375" s="17"/>
@@ -14446,7 +14457,7 @@
       <c r="AG375" s="17"/>
       <c r="AH375" s="17"/>
       <c r="AI375" s="17"/>
-      <c r="AJ375" s="4"/>
+      <c r="AJ375" s="18"/>
     </row>
     <row r="376" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A376" s="17"/>
@@ -14484,7 +14495,7 @@
       <c r="AG376" s="17"/>
       <c r="AH376" s="17"/>
       <c r="AI376" s="17"/>
-      <c r="AJ376" s="4"/>
+      <c r="AJ376" s="18"/>
     </row>
     <row r="377" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A377" s="17"/>
@@ -14522,7 +14533,7 @@
       <c r="AG377" s="17"/>
       <c r="AH377" s="17"/>
       <c r="AI377" s="17"/>
-      <c r="AJ377" s="4"/>
+      <c r="AJ377" s="18"/>
     </row>
     <row r="378" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A378" s="17"/>
@@ -14560,7 +14571,7 @@
       <c r="AG378" s="17"/>
       <c r="AH378" s="17"/>
       <c r="AI378" s="17"/>
-      <c r="AJ378" s="4"/>
+      <c r="AJ378" s="18"/>
     </row>
     <row r="379" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A379" s="17"/>
@@ -14598,7 +14609,7 @@
       <c r="AG379" s="17"/>
       <c r="AH379" s="17"/>
       <c r="AI379" s="17"/>
-      <c r="AJ379" s="4"/>
+      <c r="AJ379" s="18"/>
     </row>
     <row r="380" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A380" s="17"/>
@@ -14636,7 +14647,7 @@
       <c r="AG380" s="17"/>
       <c r="AH380" s="17"/>
       <c r="AI380" s="17"/>
-      <c r="AJ380" s="4"/>
+      <c r="AJ380" s="18"/>
     </row>
     <row r="381" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A381" s="17"/>
@@ -14674,7 +14685,7 @@
       <c r="AG381" s="17"/>
       <c r="AH381" s="17"/>
       <c r="AI381" s="17"/>
-      <c r="AJ381" s="4"/>
+      <c r="AJ381" s="18"/>
     </row>
     <row r="382" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A382" s="17"/>
@@ -14712,7 +14723,7 @@
       <c r="AG382" s="17"/>
       <c r="AH382" s="17"/>
       <c r="AI382" s="17"/>
-      <c r="AJ382" s="4"/>
+      <c r="AJ382" s="18"/>
     </row>
     <row r="383" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A383" s="17"/>
@@ -14750,7 +14761,7 @@
       <c r="AG383" s="17"/>
       <c r="AH383" s="17"/>
       <c r="AI383" s="17"/>
-      <c r="AJ383" s="4"/>
+      <c r="AJ383" s="18"/>
     </row>
     <row r="384" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A384" s="17"/>
@@ -14788,7 +14799,7 @@
       <c r="AG384" s="17"/>
       <c r="AH384" s="17"/>
       <c r="AI384" s="17"/>
-      <c r="AJ384" s="4"/>
+      <c r="AJ384" s="18"/>
     </row>
     <row r="385" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A385" s="17"/>
@@ -14826,7 +14837,7 @@
       <c r="AG385" s="17"/>
       <c r="AH385" s="17"/>
       <c r="AI385" s="17"/>
-      <c r="AJ385" s="4"/>
+      <c r="AJ385" s="18"/>
     </row>
     <row r="386" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="17"/>
@@ -14864,7 +14875,7 @@
       <c r="AG386" s="17"/>
       <c r="AH386" s="17"/>
       <c r="AI386" s="17"/>
-      <c r="AJ386" s="4"/>
+      <c r="AJ386" s="18"/>
     </row>
     <row r="387" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A387" s="17"/>
@@ -14902,7 +14913,7 @@
       <c r="AG387" s="17"/>
       <c r="AH387" s="17"/>
       <c r="AI387" s="17"/>
-      <c r="AJ387" s="4"/>
+      <c r="AJ387" s="18"/>
     </row>
     <row r="388" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A388" s="17"/>
@@ -14940,7 +14951,7 @@
       <c r="AG388" s="17"/>
       <c r="AH388" s="17"/>
       <c r="AI388" s="17"/>
-      <c r="AJ388" s="4"/>
+      <c r="AJ388" s="18"/>
     </row>
     <row r="389" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A389" s="17"/>
@@ -14978,7 +14989,7 @@
       <c r="AG389" s="17"/>
       <c r="AH389" s="17"/>
       <c r="AI389" s="17"/>
-      <c r="AJ389" s="4"/>
+      <c r="AJ389" s="18"/>
     </row>
     <row r="390" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A390" s="17"/>
@@ -15016,7 +15027,7 @@
       <c r="AG390" s="17"/>
       <c r="AH390" s="17"/>
       <c r="AI390" s="17"/>
-      <c r="AJ390" s="4"/>
+      <c r="AJ390" s="18"/>
     </row>
     <row r="391" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A391" s="17"/>
@@ -15054,7 +15065,7 @@
       <c r="AG391" s="17"/>
       <c r="AH391" s="17"/>
       <c r="AI391" s="17"/>
-      <c r="AJ391" s="4"/>
+      <c r="AJ391" s="18"/>
     </row>
     <row r="392" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A392" s="17"/>
@@ -15092,7 +15103,7 @@
       <c r="AG392" s="17"/>
       <c r="AH392" s="17"/>
       <c r="AI392" s="17"/>
-      <c r="AJ392" s="4"/>
+      <c r="AJ392" s="18"/>
     </row>
     <row r="393" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A393" s="17"/>
@@ -15130,7 +15141,7 @@
       <c r="AG393" s="17"/>
       <c r="AH393" s="17"/>
       <c r="AI393" s="17"/>
-      <c r="AJ393" s="4"/>
+      <c r="AJ393" s="18"/>
     </row>
     <row r="394" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A394" s="17"/>
@@ -15168,7 +15179,7 @@
       <c r="AG394" s="17"/>
       <c r="AH394" s="17"/>
       <c r="AI394" s="17"/>
-      <c r="AJ394" s="4"/>
+      <c r="AJ394" s="18"/>
     </row>
     <row r="395" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A395" s="17"/>
@@ -15206,7 +15217,7 @@
       <c r="AG395" s="17"/>
       <c r="AH395" s="17"/>
       <c r="AI395" s="17"/>
-      <c r="AJ395" s="4"/>
+      <c r="AJ395" s="18"/>
     </row>
     <row r="396" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A396" s="17"/>
@@ -15244,7 +15255,7 @@
       <c r="AG396" s="17"/>
       <c r="AH396" s="17"/>
       <c r="AI396" s="17"/>
-      <c r="AJ396" s="4"/>
+      <c r="AJ396" s="18"/>
     </row>
     <row r="397" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A397" s="17"/>
@@ -15282,7 +15293,7 @@
       <c r="AG397" s="17"/>
       <c r="AH397" s="17"/>
       <c r="AI397" s="17"/>
-      <c r="AJ397" s="4"/>
+      <c r="AJ397" s="18"/>
     </row>
     <row r="398" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A398" s="17"/>
@@ -15320,7 +15331,7 @@
       <c r="AG398" s="17"/>
       <c r="AH398" s="17"/>
       <c r="AI398" s="17"/>
-      <c r="AJ398" s="4"/>
+      <c r="AJ398" s="18"/>
     </row>
     <row r="399" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A399" s="17"/>
@@ -15358,7 +15369,7 @@
       <c r="AG399" s="17"/>
       <c r="AH399" s="17"/>
       <c r="AI399" s="17"/>
-      <c r="AJ399" s="4"/>
+      <c r="AJ399" s="18"/>
     </row>
     <row r="400" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A400" s="17"/>
@@ -15396,7 +15407,7 @@
       <c r="AG400" s="17"/>
       <c r="AH400" s="17"/>
       <c r="AI400" s="17"/>
-      <c r="AJ400" s="4"/>
+      <c r="AJ400" s="18"/>
     </row>
     <row r="401" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A401" s="17"/>
@@ -15434,7 +15445,7 @@
       <c r="AG401" s="17"/>
       <c r="AH401" s="17"/>
       <c r="AI401" s="17"/>
-      <c r="AJ401" s="4"/>
+      <c r="AJ401" s="18"/>
     </row>
     <row r="402" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A402" s="17"/>
@@ -15472,7 +15483,7 @@
       <c r="AG402" s="17"/>
       <c r="AH402" s="17"/>
       <c r="AI402" s="17"/>
-      <c r="AJ402" s="4"/>
+      <c r="AJ402" s="18"/>
     </row>
     <row r="403" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A403" s="17"/>
@@ -15510,7 +15521,7 @@
       <c r="AG403" s="17"/>
       <c r="AH403" s="17"/>
       <c r="AI403" s="17"/>
-      <c r="AJ403" s="4"/>
+      <c r="AJ403" s="18"/>
     </row>
     <row r="404" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A404" s="17"/>
@@ -15548,7 +15559,7 @@
       <c r="AG404" s="17"/>
       <c r="AH404" s="17"/>
       <c r="AI404" s="17"/>
-      <c r="AJ404" s="4"/>
+      <c r="AJ404" s="18"/>
     </row>
     <row r="405" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A405" s="17"/>
@@ -15586,7 +15597,7 @@
       <c r="AG405" s="17"/>
       <c r="AH405" s="17"/>
       <c r="AI405" s="17"/>
-      <c r="AJ405" s="4"/>
+      <c r="AJ405" s="18"/>
     </row>
     <row r="406" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A406" s="17"/>
@@ -15624,7 +15635,7 @@
       <c r="AG406" s="17"/>
       <c r="AH406" s="17"/>
       <c r="AI406" s="17"/>
-      <c r="AJ406" s="4"/>
+      <c r="AJ406" s="18"/>
     </row>
     <row r="407" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A407" s="17"/>
@@ -15662,7 +15673,7 @@
       <c r="AG407" s="17"/>
       <c r="AH407" s="17"/>
       <c r="AI407" s="17"/>
-      <c r="AJ407" s="4"/>
+      <c r="AJ407" s="18"/>
     </row>
     <row r="408" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A408" s="17"/>
@@ -15700,7 +15711,7 @@
       <c r="AG408" s="17"/>
       <c r="AH408" s="17"/>
       <c r="AI408" s="17"/>
-      <c r="AJ408" s="4"/>
+      <c r="AJ408" s="18"/>
     </row>
     <row r="409" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A409" s="17"/>
@@ -15738,7 +15749,7 @@
       <c r="AG409" s="17"/>
       <c r="AH409" s="17"/>
       <c r="AI409" s="17"/>
-      <c r="AJ409" s="4"/>
+      <c r="AJ409" s="18"/>
     </row>
     <row r="410" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A410" s="17"/>
@@ -15776,7 +15787,7 @@
       <c r="AG410" s="17"/>
       <c r="AH410" s="17"/>
       <c r="AI410" s="17"/>
-      <c r="AJ410" s="4"/>
+      <c r="AJ410" s="18"/>
     </row>
     <row r="411" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A411" s="17"/>
@@ -15814,7 +15825,7 @@
       <c r="AG411" s="17"/>
       <c r="AH411" s="17"/>
       <c r="AI411" s="17"/>
-      <c r="AJ411" s="4"/>
+      <c r="AJ411" s="18"/>
     </row>
     <row r="412" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A412" s="17"/>
@@ -15852,7 +15863,7 @@
       <c r="AG412" s="17"/>
       <c r="AH412" s="17"/>
       <c r="AI412" s="17"/>
-      <c r="AJ412" s="4"/>
+      <c r="AJ412" s="18"/>
     </row>
     <row r="413" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A413" s="17"/>
@@ -15890,7 +15901,7 @@
       <c r="AG413" s="17"/>
       <c r="AH413" s="17"/>
       <c r="AI413" s="17"/>
-      <c r="AJ413" s="4"/>
+      <c r="AJ413" s="18"/>
     </row>
     <row r="414" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A414" s="17"/>
@@ -15928,7 +15939,7 @@
       <c r="AG414" s="17"/>
       <c r="AH414" s="17"/>
       <c r="AI414" s="17"/>
-      <c r="AJ414" s="4"/>
+      <c r="AJ414" s="18"/>
     </row>
     <row r="415" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A415" s="17"/>
@@ -15966,7 +15977,7 @@
       <c r="AG415" s="17"/>
       <c r="AH415" s="17"/>
       <c r="AI415" s="17"/>
-      <c r="AJ415" s="4"/>
+      <c r="AJ415" s="18"/>
     </row>
     <row r="416" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A416" s="17"/>
@@ -16004,7 +16015,7 @@
       <c r="AG416" s="17"/>
       <c r="AH416" s="17"/>
       <c r="AI416" s="17"/>
-      <c r="AJ416" s="4"/>
+      <c r="AJ416" s="18"/>
     </row>
     <row r="417" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A417" s="17"/>
@@ -16042,7 +16053,7 @@
       <c r="AG417" s="17"/>
       <c r="AH417" s="17"/>
       <c r="AI417" s="17"/>
-      <c r="AJ417" s="4"/>
+      <c r="AJ417" s="18"/>
     </row>
     <row r="418" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A418" s="17"/>
@@ -16080,7 +16091,7 @@
       <c r="AG418" s="17"/>
       <c r="AH418" s="17"/>
       <c r="AI418" s="17"/>
-      <c r="AJ418" s="4"/>
+      <c r="AJ418" s="18"/>
     </row>
     <row r="419" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A419" s="17"/>
@@ -16118,7 +16129,7 @@
       <c r="AG419" s="17"/>
       <c r="AH419" s="17"/>
       <c r="AI419" s="17"/>
-      <c r="AJ419" s="4"/>
+      <c r="AJ419" s="18"/>
     </row>
     <row r="420" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A420" s="17"/>
@@ -16156,7 +16167,7 @@
       <c r="AG420" s="17"/>
       <c r="AH420" s="17"/>
       <c r="AI420" s="17"/>
-      <c r="AJ420" s="4"/>
+      <c r="AJ420" s="18"/>
     </row>
     <row r="421" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A421" s="17"/>
@@ -16194,7 +16205,7 @@
       <c r="AG421" s="17"/>
       <c r="AH421" s="17"/>
       <c r="AI421" s="17"/>
-      <c r="AJ421" s="4"/>
+      <c r="AJ421" s="18"/>
     </row>
     <row r="422" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A422" s="17"/>
@@ -16232,7 +16243,7 @@
       <c r="AG422" s="17"/>
       <c r="AH422" s="17"/>
       <c r="AI422" s="17"/>
-      <c r="AJ422" s="4"/>
+      <c r="AJ422" s="18"/>
     </row>
     <row r="423" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A423" s="17"/>
@@ -16270,7 +16281,7 @@
       <c r="AG423" s="17"/>
       <c r="AH423" s="17"/>
       <c r="AI423" s="17"/>
-      <c r="AJ423" s="4"/>
+      <c r="AJ423" s="18"/>
     </row>
     <row r="424" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A424" s="17"/>
@@ -16308,7 +16319,7 @@
       <c r="AG424" s="17"/>
       <c r="AH424" s="17"/>
       <c r="AI424" s="17"/>
-      <c r="AJ424" s="4"/>
+      <c r="AJ424" s="18"/>
     </row>
     <row r="425" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A425" s="17"/>
@@ -16346,7 +16357,7 @@
       <c r="AG425" s="17"/>
       <c r="AH425" s="17"/>
       <c r="AI425" s="17"/>
-      <c r="AJ425" s="4"/>
+      <c r="AJ425" s="18"/>
     </row>
     <row r="426" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A426" s="17"/>
@@ -16384,7 +16395,7 @@
       <c r="AG426" s="17"/>
       <c r="AH426" s="17"/>
       <c r="AI426" s="17"/>
-      <c r="AJ426" s="4"/>
+      <c r="AJ426" s="18"/>
     </row>
     <row r="427" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A427" s="17"/>
@@ -16422,7 +16433,7 @@
       <c r="AG427" s="17"/>
       <c r="AH427" s="17"/>
       <c r="AI427" s="17"/>
-      <c r="AJ427" s="4"/>
+      <c r="AJ427" s="18"/>
     </row>
     <row r="428" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A428" s="17"/>
@@ -16460,7 +16471,7 @@
       <c r="AG428" s="17"/>
       <c r="AH428" s="17"/>
       <c r="AI428" s="17"/>
-      <c r="AJ428" s="4"/>
+      <c r="AJ428" s="18"/>
     </row>
     <row r="429" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A429" s="17"/>
@@ -16498,7 +16509,7 @@
       <c r="AG429" s="17"/>
       <c r="AH429" s="17"/>
       <c r="AI429" s="17"/>
-      <c r="AJ429" s="4"/>
+      <c r="AJ429" s="18"/>
     </row>
     <row r="430" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A430" s="17"/>
@@ -16536,7 +16547,7 @@
       <c r="AG430" s="17"/>
       <c r="AH430" s="17"/>
       <c r="AI430" s="17"/>
-      <c r="AJ430" s="4"/>
+      <c r="AJ430" s="18"/>
     </row>
     <row r="431" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A431" s="17"/>
@@ -16574,7 +16585,7 @@
       <c r="AG431" s="17"/>
       <c r="AH431" s="17"/>
       <c r="AI431" s="17"/>
-      <c r="AJ431" s="4"/>
+      <c r="AJ431" s="18"/>
     </row>
     <row r="432" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A432" s="17"/>
@@ -16612,7 +16623,7 @@
       <c r="AG432" s="17"/>
       <c r="AH432" s="17"/>
       <c r="AI432" s="17"/>
-      <c r="AJ432" s="4"/>
+      <c r="AJ432" s="18"/>
     </row>
     <row r="433" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A433" s="17"/>
@@ -16650,7 +16661,7 @@
       <c r="AG433" s="17"/>
       <c r="AH433" s="17"/>
       <c r="AI433" s="17"/>
-      <c r="AJ433" s="4"/>
+      <c r="AJ433" s="18"/>
     </row>
     <row r="434" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A434" s="17"/>
@@ -16688,7 +16699,7 @@
       <c r="AG434" s="17"/>
       <c r="AH434" s="17"/>
       <c r="AI434" s="17"/>
-      <c r="AJ434" s="4"/>
+      <c r="AJ434" s="18"/>
     </row>
     <row r="435" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A435" s="17"/>
@@ -16726,7 +16737,7 @@
       <c r="AG435" s="17"/>
       <c r="AH435" s="17"/>
       <c r="AI435" s="17"/>
-      <c r="AJ435" s="4"/>
+      <c r="AJ435" s="18"/>
     </row>
     <row r="436" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A436" s="17"/>
@@ -16764,7 +16775,7 @@
       <c r="AG436" s="17"/>
       <c r="AH436" s="17"/>
       <c r="AI436" s="17"/>
-      <c r="AJ436" s="4"/>
+      <c r="AJ436" s="18"/>
     </row>
     <row r="437" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A437" s="17"/>
@@ -16802,7 +16813,7 @@
       <c r="AG437" s="17"/>
       <c r="AH437" s="17"/>
       <c r="AI437" s="17"/>
-      <c r="AJ437" s="4"/>
+      <c r="AJ437" s="18"/>
     </row>
     <row r="438" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A438" s="17"/>
@@ -16840,7 +16851,7 @@
       <c r="AG438" s="17"/>
       <c r="AH438" s="17"/>
       <c r="AI438" s="17"/>
-      <c r="AJ438" s="4"/>
+      <c r="AJ438" s="18"/>
     </row>
     <row r="439" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A439" s="17"/>
@@ -16878,7 +16889,7 @@
       <c r="AG439" s="17"/>
       <c r="AH439" s="17"/>
       <c r="AI439" s="17"/>
-      <c r="AJ439" s="4"/>
+      <c r="AJ439" s="18"/>
     </row>
     <row r="440" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A440" s="17"/>
@@ -16916,7 +16927,7 @@
       <c r="AG440" s="17"/>
       <c r="AH440" s="17"/>
       <c r="AI440" s="17"/>
-      <c r="AJ440" s="4"/>
+      <c r="AJ440" s="18"/>
     </row>
     <row r="441" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A441" s="17"/>
@@ -16954,7 +16965,7 @@
       <c r="AG441" s="17"/>
       <c r="AH441" s="17"/>
       <c r="AI441" s="17"/>
-      <c r="AJ441" s="4"/>
+      <c r="AJ441" s="18"/>
     </row>
     <row r="442" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A442" s="17"/>
@@ -16992,7 +17003,7 @@
       <c r="AG442" s="17"/>
       <c r="AH442" s="17"/>
       <c r="AI442" s="17"/>
-      <c r="AJ442" s="4"/>
+      <c r="AJ442" s="18"/>
     </row>
     <row r="443" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A443" s="17"/>
@@ -17030,7 +17041,7 @@
       <c r="AG443" s="17"/>
       <c r="AH443" s="17"/>
       <c r="AI443" s="17"/>
-      <c r="AJ443" s="4"/>
+      <c r="AJ443" s="18"/>
     </row>
     <row r="444" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A444" s="17"/>
@@ -17068,7 +17079,7 @@
       <c r="AG444" s="17"/>
       <c r="AH444" s="17"/>
       <c r="AI444" s="17"/>
-      <c r="AJ444" s="4"/>
+      <c r="AJ444" s="18"/>
     </row>
     <row r="445" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A445" s="17"/>
@@ -17106,7 +17117,7 @@
       <c r="AG445" s="17"/>
       <c r="AH445" s="17"/>
       <c r="AI445" s="17"/>
-      <c r="AJ445" s="4"/>
+      <c r="AJ445" s="18"/>
     </row>
     <row r="446" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A446" s="17"/>
@@ -17144,7 +17155,7 @@
       <c r="AG446" s="17"/>
       <c r="AH446" s="17"/>
       <c r="AI446" s="17"/>
-      <c r="AJ446" s="4"/>
+      <c r="AJ446" s="18"/>
     </row>
     <row r="447" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A447" s="17"/>
@@ -17182,7 +17193,7 @@
       <c r="AG447" s="17"/>
       <c r="AH447" s="17"/>
       <c r="AI447" s="17"/>
-      <c r="AJ447" s="4"/>
+      <c r="AJ447" s="18"/>
     </row>
     <row r="448" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A448" s="17"/>
@@ -17220,7 +17231,7 @@
       <c r="AG448" s="17"/>
       <c r="AH448" s="17"/>
       <c r="AI448" s="17"/>
-      <c r="AJ448" s="4"/>
+      <c r="AJ448" s="18"/>
     </row>
     <row r="449" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A449" s="17"/>
@@ -17258,7 +17269,7 @@
       <c r="AG449" s="17"/>
       <c r="AH449" s="17"/>
       <c r="AI449" s="17"/>
-      <c r="AJ449" s="4"/>
+      <c r="AJ449" s="18"/>
     </row>
     <row r="450" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A450" s="17"/>
@@ -17296,7 +17307,7 @@
       <c r="AG450" s="17"/>
       <c r="AH450" s="17"/>
       <c r="AI450" s="17"/>
-      <c r="AJ450" s="4"/>
+      <c r="AJ450" s="18"/>
     </row>
     <row r="451" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A451" s="17"/>
@@ -17334,7 +17345,7 @@
       <c r="AG451" s="17"/>
       <c r="AH451" s="17"/>
       <c r="AI451" s="17"/>
-      <c r="AJ451" s="4"/>
+      <c r="AJ451" s="18"/>
     </row>
     <row r="452" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A452" s="17"/>
@@ -17372,7 +17383,7 @@
       <c r="AG452" s="17"/>
       <c r="AH452" s="17"/>
       <c r="AI452" s="17"/>
-      <c r="AJ452" s="4"/>
+      <c r="AJ452" s="18"/>
     </row>
     <row r="453" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A453" s="17"/>
@@ -17410,7 +17421,7 @@
       <c r="AG453" s="17"/>
       <c r="AH453" s="17"/>
       <c r="AI453" s="17"/>
-      <c r="AJ453" s="4"/>
+      <c r="AJ453" s="18"/>
     </row>
     <row r="454" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A454" s="17"/>
@@ -17448,7 +17459,7 @@
       <c r="AG454" s="17"/>
       <c r="AH454" s="17"/>
       <c r="AI454" s="17"/>
-      <c r="AJ454" s="4"/>
+      <c r="AJ454" s="18"/>
     </row>
     <row r="455" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A455" s="17"/>
@@ -17486,7 +17497,7 @@
       <c r="AG455" s="17"/>
       <c r="AH455" s="17"/>
       <c r="AI455" s="17"/>
-      <c r="AJ455" s="4"/>
+      <c r="AJ455" s="18"/>
     </row>
     <row r="456" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A456" s="17"/>
@@ -17524,7 +17535,7 @@
       <c r="AG456" s="17"/>
       <c r="AH456" s="17"/>
       <c r="AI456" s="17"/>
-      <c r="AJ456" s="4"/>
+      <c r="AJ456" s="18"/>
     </row>
     <row r="457" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A457" s="17"/>
@@ -17562,7 +17573,7 @@
       <c r="AG457" s="17"/>
       <c r="AH457" s="17"/>
       <c r="AI457" s="17"/>
-      <c r="AJ457" s="4"/>
+      <c r="AJ457" s="18"/>
     </row>
     <row r="458" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A458" s="17"/>
@@ -17600,7 +17611,7 @@
       <c r="AG458" s="17"/>
       <c r="AH458" s="17"/>
       <c r="AI458" s="17"/>
-      <c r="AJ458" s="4"/>
+      <c r="AJ458" s="18"/>
     </row>
     <row r="459" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A459" s="17"/>
@@ -17638,7 +17649,7 @@
       <c r="AG459" s="17"/>
       <c r="AH459" s="17"/>
       <c r="AI459" s="17"/>
-      <c r="AJ459" s="4"/>
+      <c r="AJ459" s="18"/>
     </row>
     <row r="460" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A460" s="17"/>
@@ -17676,7 +17687,7 @@
       <c r="AG460" s="17"/>
       <c r="AH460" s="17"/>
       <c r="AI460" s="17"/>
-      <c r="AJ460" s="4"/>
+      <c r="AJ460" s="18"/>
     </row>
     <row r="461" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A461" s="17"/>
@@ -17714,7 +17725,7 @@
       <c r="AG461" s="17"/>
       <c r="AH461" s="17"/>
       <c r="AI461" s="17"/>
-      <c r="AJ461" s="4"/>
+      <c r="AJ461" s="18"/>
     </row>
     <row r="462" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A462" s="17"/>
@@ -17752,7 +17763,7 @@
       <c r="AG462" s="17"/>
       <c r="AH462" s="17"/>
       <c r="AI462" s="17"/>
-      <c r="AJ462" s="4"/>
+      <c r="AJ462" s="18"/>
     </row>
     <row r="463" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A463" s="17"/>
@@ -17790,7 +17801,7 @@
       <c r="AG463" s="17"/>
       <c r="AH463" s="17"/>
       <c r="AI463" s="17"/>
-      <c r="AJ463" s="4"/>
+      <c r="AJ463" s="18"/>
     </row>
     <row r="464" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A464" s="17"/>
@@ -17828,7 +17839,7 @@
       <c r="AG464" s="17"/>
       <c r="AH464" s="17"/>
       <c r="AI464" s="17"/>
-      <c r="AJ464" s="4"/>
+      <c r="AJ464" s="18"/>
     </row>
     <row r="465" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A465" s="17"/>
@@ -17866,7 +17877,7 @@
       <c r="AG465" s="17"/>
       <c r="AH465" s="17"/>
       <c r="AI465" s="17"/>
-      <c r="AJ465" s="4"/>
+      <c r="AJ465" s="18"/>
     </row>
     <row r="466" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A466" s="17"/>
@@ -17904,7 +17915,7 @@
       <c r="AG466" s="17"/>
       <c r="AH466" s="17"/>
       <c r="AI466" s="17"/>
-      <c r="AJ466" s="4"/>
+      <c r="AJ466" s="18"/>
     </row>
     <row r="467" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A467" s="17"/>
@@ -17942,7 +17953,7 @@
       <c r="AG467" s="17"/>
       <c r="AH467" s="17"/>
       <c r="AI467" s="17"/>
-      <c r="AJ467" s="4"/>
+      <c r="AJ467" s="18"/>
     </row>
     <row r="468" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A468" s="17"/>
@@ -17980,7 +17991,7 @@
       <c r="AG468" s="17"/>
       <c r="AH468" s="17"/>
       <c r="AI468" s="17"/>
-      <c r="AJ468" s="4"/>
+      <c r="AJ468" s="18"/>
     </row>
     <row r="469" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A469" s="17"/>
@@ -18018,7 +18029,7 @@
       <c r="AG469" s="17"/>
       <c r="AH469" s="17"/>
       <c r="AI469" s="17"/>
-      <c r="AJ469" s="4"/>
+      <c r="AJ469" s="18"/>
     </row>
     <row r="470" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A470" s="17"/>
@@ -18056,7 +18067,7 @@
       <c r="AG470" s="17"/>
       <c r="AH470" s="17"/>
       <c r="AI470" s="17"/>
-      <c r="AJ470" s="4"/>
+      <c r="AJ470" s="18"/>
     </row>
     <row r="471" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A471" s="17"/>
@@ -18094,7 +18105,7 @@
       <c r="AG471" s="17"/>
       <c r="AH471" s="17"/>
       <c r="AI471" s="17"/>
-      <c r="AJ471" s="4"/>
+      <c r="AJ471" s="18"/>
     </row>
     <row r="472" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A472" s="17"/>
@@ -18132,7 +18143,7 @@
       <c r="AG472" s="17"/>
       <c r="AH472" s="17"/>
       <c r="AI472" s="17"/>
-      <c r="AJ472" s="4"/>
+      <c r="AJ472" s="18"/>
     </row>
     <row r="473" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A473" s="17"/>
@@ -18170,7 +18181,7 @@
       <c r="AG473" s="17"/>
       <c r="AH473" s="17"/>
       <c r="AI473" s="17"/>
-      <c r="AJ473" s="4"/>
+      <c r="AJ473" s="18"/>
     </row>
     <row r="474" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A474" s="17"/>
@@ -18208,7 +18219,7 @@
       <c r="AG474" s="17"/>
       <c r="AH474" s="17"/>
       <c r="AI474" s="17"/>
-      <c r="AJ474" s="4"/>
+      <c r="AJ474" s="18"/>
     </row>
     <row r="475" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A475" s="17"/>
@@ -18246,7 +18257,7 @@
       <c r="AG475" s="17"/>
       <c r="AH475" s="17"/>
       <c r="AI475" s="17"/>
-      <c r="AJ475" s="4"/>
+      <c r="AJ475" s="18"/>
     </row>
     <row r="476" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A476" s="17"/>
@@ -18284,7 +18295,7 @@
       <c r="AG476" s="17"/>
       <c r="AH476" s="17"/>
       <c r="AI476" s="17"/>
-      <c r="AJ476" s="4"/>
+      <c r="AJ476" s="18"/>
     </row>
     <row r="477" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A477" s="17"/>
@@ -18322,7 +18333,7 @@
       <c r="AG477" s="17"/>
       <c r="AH477" s="17"/>
       <c r="AI477" s="17"/>
-      <c r="AJ477" s="4"/>
+      <c r="AJ477" s="18"/>
     </row>
     <row r="478" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A478" s="17"/>
@@ -18360,7 +18371,7 @@
       <c r="AG478" s="17"/>
       <c r="AH478" s="17"/>
       <c r="AI478" s="17"/>
-      <c r="AJ478" s="4"/>
+      <c r="AJ478" s="18"/>
     </row>
     <row r="479" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A479" s="17"/>
@@ -18398,7 +18409,7 @@
       <c r="AG479" s="17"/>
       <c r="AH479" s="17"/>
       <c r="AI479" s="17"/>
-      <c r="AJ479" s="4"/>
+      <c r="AJ479" s="18"/>
     </row>
     <row r="480" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A480" s="17"/>
@@ -18436,7 +18447,7 @@
       <c r="AG480" s="17"/>
       <c r="AH480" s="17"/>
       <c r="AI480" s="17"/>
-      <c r="AJ480" s="4"/>
+      <c r="AJ480" s="18"/>
     </row>
     <row r="481" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A481" s="17"/>
@@ -18474,7 +18485,7 @@
       <c r="AG481" s="17"/>
       <c r="AH481" s="17"/>
       <c r="AI481" s="17"/>
-      <c r="AJ481" s="4"/>
+      <c r="AJ481" s="18"/>
     </row>
     <row r="482" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A482" s="17"/>
@@ -18512,7 +18523,7 @@
       <c r="AG482" s="17"/>
       <c r="AH482" s="17"/>
       <c r="AI482" s="17"/>
-      <c r="AJ482" s="4"/>
+      <c r="AJ482" s="18"/>
     </row>
     <row r="483" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A483" s="17"/>
@@ -18550,7 +18561,7 @@
       <c r="AG483" s="17"/>
       <c r="AH483" s="17"/>
       <c r="AI483" s="17"/>
-      <c r="AJ483" s="4"/>
+      <c r="AJ483" s="18"/>
     </row>
     <row r="484" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A484" s="17"/>
@@ -18588,7 +18599,7 @@
       <c r="AG484" s="17"/>
       <c r="AH484" s="17"/>
       <c r="AI484" s="17"/>
-      <c r="AJ484" s="4"/>
+      <c r="AJ484" s="18"/>
     </row>
     <row r="485" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A485" s="17"/>
@@ -18626,7 +18637,7 @@
       <c r="AG485" s="17"/>
       <c r="AH485" s="17"/>
       <c r="AI485" s="17"/>
-      <c r="AJ485" s="4"/>
+      <c r="AJ485" s="18"/>
     </row>
     <row r="486" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A486" s="17"/>
@@ -18664,7 +18675,7 @@
       <c r="AG486" s="17"/>
       <c r="AH486" s="17"/>
       <c r="AI486" s="17"/>
-      <c r="AJ486" s="4"/>
+      <c r="AJ486" s="18"/>
     </row>
     <row r="487" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A487" s="17"/>
@@ -18702,7 +18713,7 @@
       <c r="AG487" s="17"/>
       <c r="AH487" s="17"/>
       <c r="AI487" s="17"/>
-      <c r="AJ487" s="4"/>
+      <c r="AJ487" s="18"/>
     </row>
     <row r="488" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A488" s="17"/>
@@ -18740,7 +18751,7 @@
       <c r="AG488" s="17"/>
       <c r="AH488" s="17"/>
       <c r="AI488" s="17"/>
-      <c r="AJ488" s="4"/>
+      <c r="AJ488" s="18"/>
     </row>
     <row r="489" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A489" s="17"/>
@@ -18778,7 +18789,7 @@
       <c r="AG489" s="17"/>
       <c r="AH489" s="17"/>
       <c r="AI489" s="17"/>
-      <c r="AJ489" s="4"/>
+      <c r="AJ489" s="18"/>
     </row>
     <row r="490" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A490" s="17"/>
@@ -18816,7 +18827,7 @@
       <c r="AG490" s="17"/>
       <c r="AH490" s="17"/>
       <c r="AI490" s="17"/>
-      <c r="AJ490" s="4"/>
+      <c r="AJ490" s="18"/>
     </row>
     <row r="491" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A491" s="17"/>
@@ -18854,7 +18865,7 @@
       <c r="AG491" s="17"/>
       <c r="AH491" s="17"/>
       <c r="AI491" s="17"/>
-      <c r="AJ491" s="4"/>
+      <c r="AJ491" s="18"/>
     </row>
     <row r="492" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A492" s="17"/>
@@ -18892,7 +18903,7 @@
       <c r="AG492" s="17"/>
       <c r="AH492" s="17"/>
       <c r="AI492" s="17"/>
-      <c r="AJ492" s="4"/>
+      <c r="AJ492" s="18"/>
     </row>
     <row r="493" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A493" s="17"/>
@@ -18930,7 +18941,7 @@
       <c r="AG493" s="17"/>
       <c r="AH493" s="17"/>
       <c r="AI493" s="17"/>
-      <c r="AJ493" s="4"/>
+      <c r="AJ493" s="18"/>
     </row>
     <row r="494" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A494" s="17"/>
@@ -18968,7 +18979,7 @@
       <c r="AG494" s="17"/>
       <c r="AH494" s="17"/>
       <c r="AI494" s="17"/>
-      <c r="AJ494" s="4"/>
+      <c r="AJ494" s="18"/>
     </row>
     <row r="495" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A495" s="17"/>
@@ -19006,7 +19017,7 @@
       <c r="AG495" s="17"/>
       <c r="AH495" s="17"/>
       <c r="AI495" s="17"/>
-      <c r="AJ495" s="4"/>
+      <c r="AJ495" s="18"/>
     </row>
     <row r="496" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A496" s="17"/>
@@ -19044,7 +19055,7 @@
       <c r="AG496" s="17"/>
       <c r="AH496" s="17"/>
       <c r="AI496" s="17"/>
-      <c r="AJ496" s="4"/>
+      <c r="AJ496" s="18"/>
     </row>
     <row r="497" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A497" s="17"/>
@@ -19082,7 +19093,7 @@
       <c r="AG497" s="17"/>
       <c r="AH497" s="17"/>
       <c r="AI497" s="17"/>
-      <c r="AJ497" s="4"/>
+      <c r="AJ497" s="18"/>
     </row>
     <row r="498" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A498" s="17"/>
@@ -19120,7 +19131,7 @@
       <c r="AG498" s="17"/>
       <c r="AH498" s="17"/>
       <c r="AI498" s="17"/>
-      <c r="AJ498" s="4"/>
+      <c r="AJ498" s="18"/>
     </row>
     <row r="499" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A499" s="17"/>
@@ -19158,7 +19169,7 @@
       <c r="AG499" s="17"/>
       <c r="AH499" s="17"/>
       <c r="AI499" s="17"/>
-      <c r="AJ499" s="4"/>
+      <c r="AJ499" s="18"/>
     </row>
     <row r="500" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A500" s="17"/>
@@ -19196,7 +19207,7 @@
       <c r="AG500" s="17"/>
       <c r="AH500" s="17"/>
       <c r="AI500" s="17"/>
-      <c r="AJ500" s="4"/>
+      <c r="AJ500" s="18"/>
     </row>
     <row r="501" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A501" s="17"/>
@@ -19234,7 +19245,7 @@
       <c r="AG501" s="17"/>
       <c r="AH501" s="17"/>
       <c r="AI501" s="17"/>
-      <c r="AJ501" s="4"/>
+      <c r="AJ501" s="18"/>
     </row>
     <row r="502" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A502" s="17"/>
@@ -19272,7 +19283,7 @@
       <c r="AG502" s="17"/>
       <c r="AH502" s="17"/>
       <c r="AI502" s="17"/>
-      <c r="AJ502" s="4"/>
+      <c r="AJ502" s="18"/>
     </row>
     <row r="503" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A503" s="17"/>
@@ -19310,7 +19321,7 @@
       <c r="AG503" s="17"/>
       <c r="AH503" s="17"/>
       <c r="AI503" s="17"/>
-      <c r="AJ503" s="4"/>
+      <c r="AJ503" s="18"/>
     </row>
     <row r="504" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A504" s="17"/>
@@ -19348,7 +19359,7 @@
       <c r="AG504" s="17"/>
       <c r="AH504" s="17"/>
       <c r="AI504" s="17"/>
-      <c r="AJ504" s="4"/>
+      <c r="AJ504" s="18"/>
     </row>
     <row r="505" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A505" s="17"/>
@@ -19386,7 +19397,7 @@
       <c r="AG505" s="17"/>
       <c r="AH505" s="17"/>
       <c r="AI505" s="17"/>
-      <c r="AJ505" s="4"/>
+      <c r="AJ505" s="18"/>
     </row>
     <row r="506" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A506" s="17"/>
@@ -19424,7 +19435,7 @@
       <c r="AG506" s="17"/>
       <c r="AH506" s="17"/>
       <c r="AI506" s="17"/>
-      <c r="AJ506" s="4"/>
+      <c r="AJ506" s="18"/>
     </row>
     <row r="507" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A507" s="17"/>
@@ -19462,7 +19473,7 @@
       <c r="AG507" s="17"/>
       <c r="AH507" s="17"/>
       <c r="AI507" s="17"/>
-      <c r="AJ507" s="4"/>
+      <c r="AJ507" s="18"/>
     </row>
     <row r="508" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A508" s="17"/>
@@ -19500,7 +19511,7 @@
       <c r="AG508" s="17"/>
       <c r="AH508" s="17"/>
       <c r="AI508" s="17"/>
-      <c r="AJ508" s="4"/>
+      <c r="AJ508" s="18"/>
     </row>
     <row r="509" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A509" s="17"/>
@@ -19538,7 +19549,7 @@
       <c r="AG509" s="17"/>
       <c r="AH509" s="17"/>
       <c r="AI509" s="17"/>
-      <c r="AJ509" s="4"/>
+      <c r="AJ509" s="18"/>
     </row>
     <row r="510" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A510" s="17"/>
@@ -19576,7 +19587,7 @@
       <c r="AG510" s="17"/>
       <c r="AH510" s="17"/>
       <c r="AI510" s="17"/>
-      <c r="AJ510" s="4"/>
+      <c r="AJ510" s="18"/>
     </row>
     <row r="511" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A511" s="17"/>
@@ -19614,7 +19625,7 @@
       <c r="AG511" s="17"/>
       <c r="AH511" s="17"/>
       <c r="AI511" s="17"/>
-      <c r="AJ511" s="4"/>
+      <c r="AJ511" s="18"/>
     </row>
     <row r="512" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A512" s="17"/>
@@ -19652,7 +19663,7 @@
       <c r="AG512" s="17"/>
       <c r="AH512" s="17"/>
       <c r="AI512" s="17"/>
-      <c r="AJ512" s="4"/>
+      <c r="AJ512" s="18"/>
     </row>
     <row r="513" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A513" s="17"/>
@@ -19690,7 +19701,7 @@
       <c r="AG513" s="17"/>
       <c r="AH513" s="17"/>
       <c r="AI513" s="17"/>
-      <c r="AJ513" s="4"/>
+      <c r="AJ513" s="18"/>
     </row>
     <row r="514" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A514" s="17"/>
@@ -19728,7 +19739,7 @@
       <c r="AG514" s="17"/>
       <c r="AH514" s="17"/>
       <c r="AI514" s="17"/>
-      <c r="AJ514" s="4"/>
+      <c r="AJ514" s="18"/>
     </row>
     <row r="515" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A515" s="17"/>
@@ -19766,7 +19777,7 @@
       <c r="AG515" s="17"/>
       <c r="AH515" s="17"/>
       <c r="AI515" s="17"/>
-      <c r="AJ515" s="4"/>
+      <c r="AJ515" s="18"/>
     </row>
     <row r="516" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A516" s="17"/>
@@ -19804,7 +19815,7 @@
       <c r="AG516" s="17"/>
       <c r="AH516" s="17"/>
       <c r="AI516" s="17"/>
-      <c r="AJ516" s="4"/>
+      <c r="AJ516" s="18"/>
     </row>
     <row r="517" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A517" s="17"/>
@@ -19842,7 +19853,7 @@
       <c r="AG517" s="17"/>
       <c r="AH517" s="17"/>
       <c r="AI517" s="17"/>
-      <c r="AJ517" s="4"/>
+      <c r="AJ517" s="18"/>
     </row>
     <row r="518" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A518" s="17"/>
@@ -19880,7 +19891,7 @@
       <c r="AG518" s="17"/>
       <c r="AH518" s="17"/>
       <c r="AI518" s="17"/>
-      <c r="AJ518" s="4"/>
+      <c r="AJ518" s="18"/>
     </row>
     <row r="519" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A519" s="17"/>
@@ -19918,7 +19929,7 @@
       <c r="AG519" s="17"/>
       <c r="AH519" s="17"/>
       <c r="AI519" s="17"/>
-      <c r="AJ519" s="4"/>
+      <c r="AJ519" s="18"/>
     </row>
     <row r="520" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A520" s="17"/>
@@ -19956,7 +19967,7 @@
       <c r="AG520" s="17"/>
       <c r="AH520" s="17"/>
       <c r="AI520" s="17"/>
-      <c r="AJ520" s="4"/>
+      <c r="AJ520" s="18"/>
     </row>
     <row r="521" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A521" s="17"/>
@@ -19994,7 +20005,7 @@
       <c r="AG521" s="17"/>
       <c r="AH521" s="17"/>
       <c r="AI521" s="17"/>
-      <c r="AJ521" s="4"/>
+      <c r="AJ521" s="18"/>
     </row>
     <row r="522" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A522" s="17"/>
@@ -20032,7 +20043,7 @@
       <c r="AG522" s="17"/>
       <c r="AH522" s="17"/>
       <c r="AI522" s="17"/>
-      <c r="AJ522" s="4"/>
+      <c r="AJ522" s="18"/>
     </row>
     <row r="523" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A523" s="17"/>
@@ -20070,7 +20081,7 @@
       <c r="AG523" s="17"/>
       <c r="AH523" s="17"/>
       <c r="AI523" s="17"/>
-      <c r="AJ523" s="4"/>
+      <c r="AJ523" s="18"/>
     </row>
     <row r="524" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A524" s="17"/>
@@ -20108,7 +20119,7 @@
       <c r="AG524" s="17"/>
       <c r="AH524" s="17"/>
       <c r="AI524" s="17"/>
-      <c r="AJ524" s="4"/>
+      <c r="AJ524" s="18"/>
     </row>
     <row r="525" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A525" s="17"/>
@@ -20146,7 +20157,7 @@
       <c r="AG525" s="17"/>
       <c r="AH525" s="17"/>
       <c r="AI525" s="17"/>
-      <c r="AJ525" s="4"/>
+      <c r="AJ525" s="18"/>
     </row>
     <row r="526" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A526" s="17"/>
@@ -20184,7 +20195,7 @@
       <c r="AG526" s="17"/>
       <c r="AH526" s="17"/>
       <c r="AI526" s="17"/>
-      <c r="AJ526" s="4"/>
+      <c r="AJ526" s="18"/>
     </row>
     <row r="527" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A527" s="17"/>
@@ -20222,7 +20233,7 @@
       <c r="AG527" s="17"/>
       <c r="AH527" s="17"/>
       <c r="AI527" s="17"/>
-      <c r="AJ527" s="4"/>
+      <c r="AJ527" s="18"/>
     </row>
     <row r="528" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A528" s="17"/>
@@ -20260,7 +20271,7 @@
       <c r="AG528" s="17"/>
       <c r="AH528" s="17"/>
       <c r="AI528" s="17"/>
-      <c r="AJ528" s="4"/>
+      <c r="AJ528" s="18"/>
     </row>
     <row r="529" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A529" s="17"/>
@@ -20298,7 +20309,7 @@
       <c r="AG529" s="17"/>
       <c r="AH529" s="17"/>
       <c r="AI529" s="17"/>
-      <c r="AJ529" s="4"/>
+      <c r="AJ529" s="18"/>
     </row>
     <row r="530" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A530" s="17"/>
@@ -20336,7 +20347,7 @@
       <c r="AG530" s="17"/>
       <c r="AH530" s="17"/>
       <c r="AI530" s="17"/>
-      <c r="AJ530" s="4"/>
+      <c r="AJ530" s="18"/>
     </row>
     <row r="531" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A531" s="17"/>
@@ -20374,7 +20385,7 @@
       <c r="AG531" s="17"/>
       <c r="AH531" s="17"/>
       <c r="AI531" s="17"/>
-      <c r="AJ531" s="4"/>
+      <c r="AJ531" s="18"/>
     </row>
     <row r="532" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A532" s="17"/>
@@ -20412,7 +20423,7 @@
       <c r="AG532" s="17"/>
       <c r="AH532" s="17"/>
       <c r="AI532" s="17"/>
-      <c r="AJ532" s="4"/>
+      <c r="AJ532" s="18"/>
     </row>
     <row r="533" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A533" s="17"/>
@@ -20450,7 +20461,7 @@
       <c r="AG533" s="17"/>
       <c r="AH533" s="17"/>
       <c r="AI533" s="17"/>
-      <c r="AJ533" s="4"/>
+      <c r="AJ533" s="18"/>
     </row>
     <row r="534" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A534" s="17"/>
@@ -20488,7 +20499,7 @@
       <c r="AG534" s="17"/>
       <c r="AH534" s="17"/>
       <c r="AI534" s="17"/>
-      <c r="AJ534" s="4"/>
+      <c r="AJ534" s="18"/>
     </row>
     <row r="535" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A535" s="17"/>
@@ -20526,7 +20537,7 @@
       <c r="AG535" s="17"/>
       <c r="AH535" s="17"/>
       <c r="AI535" s="17"/>
-      <c r="AJ535" s="4"/>
+      <c r="AJ535" s="18"/>
     </row>
     <row r="536" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A536" s="17"/>
@@ -20564,7 +20575,7 @@
       <c r="AG536" s="17"/>
       <c r="AH536" s="17"/>
       <c r="AI536" s="17"/>
-      <c r="AJ536" s="4"/>
+      <c r="AJ536" s="18"/>
     </row>
     <row r="537" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A537" s="17"/>
@@ -20602,7 +20613,7 @@
       <c r="AG537" s="17"/>
       <c r="AH537" s="17"/>
       <c r="AI537" s="17"/>
-      <c r="AJ537" s="4"/>
+      <c r="AJ537" s="18"/>
     </row>
     <row r="538" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A538" s="17"/>
@@ -20640,7 +20651,7 @@
       <c r="AG538" s="17"/>
       <c r="AH538" s="17"/>
       <c r="AI538" s="17"/>
-      <c r="AJ538" s="4"/>
+      <c r="AJ538" s="18"/>
     </row>
     <row r="539" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A539" s="17"/>
@@ -20678,7 +20689,7 @@
       <c r="AG539" s="17"/>
       <c r="AH539" s="17"/>
       <c r="AI539" s="17"/>
-      <c r="AJ539" s="4"/>
+      <c r="AJ539" s="18"/>
     </row>
     <row r="540" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A540" s="17"/>
@@ -20716,7 +20727,7 @@
       <c r="AG540" s="17"/>
       <c r="AH540" s="17"/>
       <c r="AI540" s="17"/>
-      <c r="AJ540" s="4"/>
+      <c r="AJ540" s="18"/>
     </row>
     <row r="541" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A541" s="17"/>
@@ -20754,7 +20765,7 @@
       <c r="AG541" s="17"/>
       <c r="AH541" s="17"/>
       <c r="AI541" s="17"/>
-      <c r="AJ541" s="4"/>
+      <c r="AJ541" s="18"/>
     </row>
     <row r="542" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A542" s="17"/>
@@ -20792,7 +20803,7 @@
       <c r="AG542" s="17"/>
       <c r="AH542" s="17"/>
       <c r="AI542" s="17"/>
-      <c r="AJ542" s="4"/>
+      <c r="AJ542" s="18"/>
     </row>
     <row r="543" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A543" s="17"/>
@@ -20830,7 +20841,7 @@
       <c r="AG543" s="17"/>
       <c r="AH543" s="17"/>
       <c r="AI543" s="17"/>
-      <c r="AJ543" s="4"/>
+      <c r="AJ543" s="18"/>
     </row>
     <row r="544" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A544" s="17"/>
@@ -20868,7 +20879,7 @@
       <c r="AG544" s="17"/>
       <c r="AH544" s="17"/>
       <c r="AI544" s="17"/>
-      <c r="AJ544" s="4"/>
+      <c r="AJ544" s="18"/>
     </row>
     <row r="545" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A545" s="17"/>
@@ -20906,7 +20917,7 @@
       <c r="AG545" s="17"/>
       <c r="AH545" s="17"/>
       <c r="AI545" s="17"/>
-      <c r="AJ545" s="4"/>
+      <c r="AJ545" s="18"/>
     </row>
     <row r="546" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A546" s="17"/>
@@ -20944,7 +20955,7 @@
       <c r="AG546" s="17"/>
       <c r="AH546" s="17"/>
       <c r="AI546" s="17"/>
-      <c r="AJ546" s="4"/>
+      <c r="AJ546" s="18"/>
     </row>
     <row r="547" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A547" s="17"/>
@@ -20982,7 +20993,7 @@
       <c r="AG547" s="17"/>
       <c r="AH547" s="17"/>
       <c r="AI547" s="17"/>
-      <c r="AJ547" s="4"/>
+      <c r="AJ547" s="18"/>
     </row>
     <row r="548" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A548" s="17"/>
@@ -21020,7 +21031,7 @@
       <c r="AG548" s="17"/>
       <c r="AH548" s="17"/>
       <c r="AI548" s="17"/>
-      <c r="AJ548" s="4"/>
+      <c r="AJ548" s="18"/>
     </row>
     <row r="549" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A549" s="17"/>
@@ -21058,7 +21069,7 @@
       <c r="AG549" s="17"/>
       <c r="AH549" s="17"/>
       <c r="AI549" s="17"/>
-      <c r="AJ549" s="4"/>
+      <c r="AJ549" s="18"/>
     </row>
     <row r="550" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A550" s="17"/>
@@ -21096,7 +21107,7 @@
       <c r="AG550" s="17"/>
       <c r="AH550" s="17"/>
       <c r="AI550" s="17"/>
-      <c r="AJ550" s="4"/>
+      <c r="AJ550" s="18"/>
     </row>
     <row r="551" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A551" s="17"/>
@@ -21134,7 +21145,7 @@
       <c r="AG551" s="17"/>
       <c r="AH551" s="17"/>
       <c r="AI551" s="17"/>
-      <c r="AJ551" s="4"/>
+      <c r="AJ551" s="18"/>
     </row>
     <row r="552" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A552" s="17"/>
@@ -21172,7 +21183,7 @@
       <c r="AG552" s="17"/>
       <c r="AH552" s="17"/>
       <c r="AI552" s="17"/>
-      <c r="AJ552" s="4"/>
+      <c r="AJ552" s="18"/>
     </row>
     <row r="553" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A553" s="17"/>
@@ -21210,7 +21221,7 @@
       <c r="AG553" s="17"/>
       <c r="AH553" s="17"/>
       <c r="AI553" s="17"/>
-      <c r="AJ553" s="4"/>
+      <c r="AJ553" s="18"/>
     </row>
     <row r="554" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A554" s="17"/>
@@ -21248,7 +21259,7 @@
       <c r="AG554" s="17"/>
       <c r="AH554" s="17"/>
       <c r="AI554" s="17"/>
-      <c r="AJ554" s="4"/>
+      <c r="AJ554" s="18"/>
     </row>
     <row r="555" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A555" s="17"/>
@@ -21286,7 +21297,7 @@
       <c r="AG555" s="17"/>
       <c r="AH555" s="17"/>
       <c r="AI555" s="17"/>
-      <c r="AJ555" s="4"/>
+      <c r="AJ555" s="18"/>
     </row>
     <row r="556" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A556" s="17"/>
@@ -21324,7 +21335,7 @@
       <c r="AG556" s="17"/>
       <c r="AH556" s="17"/>
       <c r="AI556" s="17"/>
-      <c r="AJ556" s="4"/>
+      <c r="AJ556" s="18"/>
     </row>
     <row r="557" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A557" s="17"/>
@@ -21362,7 +21373,7 @@
       <c r="AG557" s="17"/>
       <c r="AH557" s="17"/>
       <c r="AI557" s="17"/>
-      <c r="AJ557" s="4"/>
+      <c r="AJ557" s="18"/>
     </row>
     <row r="558" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A558" s="17"/>
@@ -21400,7 +21411,7 @@
       <c r="AG558" s="17"/>
       <c r="AH558" s="17"/>
       <c r="AI558" s="17"/>
-      <c r="AJ558" s="4"/>
+      <c r="AJ558" s="18"/>
     </row>
     <row r="559" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A559" s="17"/>
@@ -21438,7 +21449,7 @@
       <c r="AG559" s="17"/>
       <c r="AH559" s="17"/>
       <c r="AI559" s="17"/>
-      <c r="AJ559" s="4"/>
+      <c r="AJ559" s="18"/>
     </row>
     <row r="560" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A560" s="17"/>
@@ -21476,7 +21487,7 @@
       <c r="AG560" s="17"/>
       <c r="AH560" s="17"/>
       <c r="AI560" s="17"/>
-      <c r="AJ560" s="4"/>
+      <c r="AJ560" s="18"/>
     </row>
     <row r="561" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A561" s="17"/>
@@ -21514,7 +21525,7 @@
       <c r="AG561" s="17"/>
       <c r="AH561" s="17"/>
       <c r="AI561" s="17"/>
-      <c r="AJ561" s="4"/>
+      <c r="AJ561" s="18"/>
     </row>
     <row r="562" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A562" s="17"/>
@@ -21552,7 +21563,7 @@
       <c r="AG562" s="17"/>
       <c r="AH562" s="17"/>
       <c r="AI562" s="17"/>
-      <c r="AJ562" s="4"/>
+      <c r="AJ562" s="18"/>
     </row>
     <row r="563" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A563" s="17"/>
@@ -21590,7 +21601,7 @@
       <c r="AG563" s="17"/>
       <c r="AH563" s="17"/>
       <c r="AI563" s="17"/>
-      <c r="AJ563" s="4"/>
+      <c r="AJ563" s="18"/>
     </row>
     <row r="564" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A564" s="17"/>
@@ -21628,7 +21639,7 @@
       <c r="AG564" s="17"/>
       <c r="AH564" s="17"/>
       <c r="AI564" s="17"/>
-      <c r="AJ564" s="4"/>
+      <c r="AJ564" s="18"/>
     </row>
     <row r="565" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A565" s="17"/>
@@ -21666,7 +21677,7 @@
       <c r="AG565" s="17"/>
       <c r="AH565" s="17"/>
       <c r="AI565" s="17"/>
-      <c r="AJ565" s="4"/>
+      <c r="AJ565" s="18"/>
     </row>
     <row r="566" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A566" s="17"/>
@@ -21704,7 +21715,7 @@
       <c r="AG566" s="17"/>
       <c r="AH566" s="17"/>
       <c r="AI566" s="17"/>
-      <c r="AJ566" s="4"/>
+      <c r="AJ566" s="18"/>
     </row>
     <row r="567" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A567" s="17"/>
@@ -21742,7 +21753,7 @@
       <c r="AG567" s="17"/>
       <c r="AH567" s="17"/>
       <c r="AI567" s="17"/>
-      <c r="AJ567" s="4"/>
+      <c r="AJ567" s="18"/>
     </row>
     <row r="568" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A568" s="17"/>
@@ -21780,7 +21791,7 @@
       <c r="AG568" s="17"/>
       <c r="AH568" s="17"/>
       <c r="AI568" s="17"/>
-      <c r="AJ568" s="4"/>
+      <c r="AJ568" s="18"/>
     </row>
     <row r="569" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A569" s="17"/>
@@ -21818,7 +21829,7 @@
       <c r="AG569" s="17"/>
       <c r="AH569" s="17"/>
       <c r="AI569" s="17"/>
-      <c r="AJ569" s="4"/>
+      <c r="AJ569" s="18"/>
     </row>
     <row r="570" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A570" s="17"/>
@@ -21856,7 +21867,7 @@
       <c r="AG570" s="17"/>
       <c r="AH570" s="17"/>
       <c r="AI570" s="17"/>
-      <c r="AJ570" s="4"/>
+      <c r="AJ570" s="18"/>
     </row>
     <row r="571" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A571" s="17"/>
@@ -21894,7 +21905,7 @@
       <c r="AG571" s="17"/>
       <c r="AH571" s="17"/>
       <c r="AI571" s="17"/>
-      <c r="AJ571" s="4"/>
+      <c r="AJ571" s="18"/>
     </row>
     <row r="572" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A572" s="17"/>
@@ -21932,7 +21943,7 @@
       <c r="AG572" s="17"/>
       <c r="AH572" s="17"/>
       <c r="AI572" s="17"/>
-      <c r="AJ572" s="4"/>
+      <c r="AJ572" s="18"/>
     </row>
     <row r="573" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A573" s="17"/>
@@ -21970,7 +21981,7 @@
       <c r="AG573" s="17"/>
       <c r="AH573" s="17"/>
       <c r="AI573" s="17"/>
-      <c r="AJ573" s="4"/>
+      <c r="AJ573" s="18"/>
     </row>
     <row r="574" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A574" s="17"/>
@@ -22008,7 +22019,7 @@
       <c r="AG574" s="17"/>
       <c r="AH574" s="17"/>
       <c r="AI574" s="17"/>
-      <c r="AJ574" s="4"/>
+      <c r="AJ574" s="18"/>
     </row>
     <row r="575" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A575" s="17"/>
@@ -22046,7 +22057,7 @@
       <c r="AG575" s="17"/>
       <c r="AH575" s="17"/>
       <c r="AI575" s="17"/>
-      <c r="AJ575" s="4"/>
+      <c r="AJ575" s="18"/>
     </row>
     <row r="576" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A576" s="17"/>
@@ -22084,7 +22095,7 @@
       <c r="AG576" s="17"/>
       <c r="AH576" s="17"/>
       <c r="AI576" s="17"/>
-      <c r="AJ576" s="4"/>
+      <c r="AJ576" s="18"/>
     </row>
     <row r="577" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A577" s="17"/>
@@ -22122,7 +22133,7 @@
       <c r="AG577" s="17"/>
       <c r="AH577" s="17"/>
       <c r="AI577" s="17"/>
-      <c r="AJ577" s="4"/>
+      <c r="AJ577" s="18"/>
     </row>
     <row r="578" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A578" s="17"/>
@@ -22160,7 +22171,7 @@
       <c r="AG578" s="17"/>
       <c r="AH578" s="17"/>
       <c r="AI578" s="17"/>
-      <c r="AJ578" s="4"/>
+      <c r="AJ578" s="18"/>
     </row>
     <row r="579" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A579" s="17"/>
@@ -22198,7 +22209,7 @@
       <c r="AG579" s="17"/>
       <c r="AH579" s="17"/>
       <c r="AI579" s="17"/>
-      <c r="AJ579" s="4"/>
+      <c r="AJ579" s="18"/>
     </row>
     <row r="580" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A580" s="17"/>
@@ -22236,7 +22247,7 @@
       <c r="AG580" s="17"/>
       <c r="AH580" s="17"/>
       <c r="AI580" s="17"/>
-      <c r="AJ580" s="4"/>
+      <c r="AJ580" s="18"/>
     </row>
     <row r="581" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A581" s="17"/>
@@ -22274,7 +22285,7 @@
       <c r="AG581" s="17"/>
       <c r="AH581" s="17"/>
       <c r="AI581" s="17"/>
-      <c r="AJ581" s="4"/>
+      <c r="AJ581" s="18"/>
     </row>
     <row r="582" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A582" s="17"/>
@@ -22312,7 +22323,7 @@
       <c r="AG582" s="17"/>
       <c r="AH582" s="17"/>
       <c r="AI582" s="17"/>
-      <c r="AJ582" s="4"/>
+      <c r="AJ582" s="18"/>
     </row>
     <row r="583" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A583" s="17"/>
@@ -22350,7 +22361,7 @@
       <c r="AG583" s="17"/>
       <c r="AH583" s="17"/>
       <c r="AI583" s="17"/>
-      <c r="AJ583" s="4"/>
+      <c r="AJ583" s="18"/>
     </row>
     <row r="584" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A584" s="17"/>
@@ -22388,7 +22399,7 @@
       <c r="AG584" s="17"/>
       <c r="AH584" s="17"/>
       <c r="AI584" s="17"/>
-      <c r="AJ584" s="4"/>
+      <c r="AJ584" s="18"/>
     </row>
     <row r="585" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A585" s="17"/>
@@ -22426,7 +22437,7 @@
       <c r="AG585" s="17"/>
       <c r="AH585" s="17"/>
       <c r="AI585" s="17"/>
-      <c r="AJ585" s="4"/>
+      <c r="AJ585" s="18"/>
     </row>
     <row r="586" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A586" s="17"/>
@@ -22464,7 +22475,7 @@
       <c r="AG586" s="17"/>
       <c r="AH586" s="17"/>
       <c r="AI586" s="17"/>
-      <c r="AJ586" s="4"/>
+      <c r="AJ586" s="18"/>
     </row>
     <row r="587" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A587" s="17"/>
@@ -22502,7 +22513,7 @@
       <c r="AG587" s="17"/>
       <c r="AH587" s="17"/>
       <c r="AI587" s="17"/>
-      <c r="AJ587" s="4"/>
+      <c r="AJ587" s="18"/>
     </row>
     <row r="588" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A588" s="17"/>
@@ -22540,7 +22551,7 @@
       <c r="AG588" s="17"/>
       <c r="AH588" s="17"/>
       <c r="AI588" s="17"/>
-      <c r="AJ588" s="4"/>
+      <c r="AJ588" s="18"/>
     </row>
     <row r="589" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A589" s="17"/>
@@ -22578,7 +22589,7 @@
       <c r="AG589" s="17"/>
       <c r="AH589" s="17"/>
       <c r="AI589" s="17"/>
-      <c r="AJ589" s="4"/>
+      <c r="AJ589" s="18"/>
     </row>
     <row r="590" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A590" s="17"/>
@@ -22616,7 +22627,7 @@
       <c r="AG590" s="17"/>
       <c r="AH590" s="17"/>
       <c r="AI590" s="17"/>
-      <c r="AJ590" s="4"/>
+      <c r="AJ590" s="18"/>
     </row>
     <row r="591" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A591" s="17"/>
@@ -22654,7 +22665,7 @@
       <c r="AG591" s="17"/>
       <c r="AH591" s="17"/>
       <c r="AI591" s="17"/>
-      <c r="AJ591" s="4"/>
+      <c r="AJ591" s="18"/>
     </row>
     <row r="592" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A592" s="17"/>
@@ -22692,7 +22703,7 @@
       <c r="AG592" s="17"/>
       <c r="AH592" s="17"/>
       <c r="AI592" s="17"/>
-      <c r="AJ592" s="4"/>
+      <c r="AJ592" s="18"/>
     </row>
     <row r="593" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A593" s="17"/>
@@ -22730,7 +22741,7 @@
       <c r="AG593" s="17"/>
       <c r="AH593" s="17"/>
       <c r="AI593" s="17"/>
-      <c r="AJ593" s="4"/>
+      <c r="AJ593" s="18"/>
     </row>
     <row r="594" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A594" s="17"/>
@@ -22768,7 +22779,7 @@
       <c r="AG594" s="17"/>
       <c r="AH594" s="17"/>
       <c r="AI594" s="17"/>
-      <c r="AJ594" s="4"/>
+      <c r="AJ594" s="18"/>
     </row>
     <row r="595" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A595" s="17"/>
@@ -22806,7 +22817,7 @@
       <c r="AG595" s="17"/>
       <c r="AH595" s="17"/>
       <c r="AI595" s="17"/>
-      <c r="AJ595" s="4"/>
+      <c r="AJ595" s="18"/>
     </row>
     <row r="596" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A596" s="17"/>
@@ -22844,7 +22855,7 @@
       <c r="AG596" s="17"/>
       <c r="AH596" s="17"/>
       <c r="AI596" s="17"/>
-      <c r="AJ596" s="4"/>
+      <c r="AJ596" s="18"/>
     </row>
     <row r="597" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A597" s="17"/>
@@ -22882,7 +22893,7 @@
       <c r="AG597" s="17"/>
       <c r="AH597" s="17"/>
       <c r="AI597" s="17"/>
-      <c r="AJ597" s="4"/>
+      <c r="AJ597" s="18"/>
     </row>
     <row r="598" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A598" s="17"/>
@@ -22920,7 +22931,7 @@
       <c r="AG598" s="17"/>
       <c r="AH598" s="17"/>
       <c r="AI598" s="17"/>
-      <c r="AJ598" s="4"/>
+      <c r="AJ598" s="18"/>
     </row>
     <row r="599" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A599" s="17"/>
@@ -22958,7 +22969,7 @@
       <c r="AG599" s="17"/>
       <c r="AH599" s="17"/>
       <c r="AI599" s="17"/>
-      <c r="AJ599" s="4"/>
+      <c r="AJ599" s="18"/>
     </row>
     <row r="600" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A600" s="17"/>
@@ -22996,7 +23007,7 @@
       <c r="AG600" s="17"/>
       <c r="AH600" s="17"/>
       <c r="AI600" s="17"/>
-      <c r="AJ600" s="4"/>
+      <c r="AJ600" s="18"/>
     </row>
     <row r="601" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A601" s="17"/>
@@ -23034,7 +23045,7 @@
       <c r="AG601" s="17"/>
       <c r="AH601" s="17"/>
       <c r="AI601" s="17"/>
-      <c r="AJ601" s="4"/>
+      <c r="AJ601" s="18"/>
     </row>
     <row r="602" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A602" s="17"/>
@@ -23072,7 +23083,7 @@
       <c r="AG602" s="17"/>
       <c r="AH602" s="17"/>
       <c r="AI602" s="17"/>
-      <c r="AJ602" s="4"/>
+      <c r="AJ602" s="18"/>
     </row>
     <row r="603" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A603" s="17"/>
@@ -23110,7 +23121,7 @@
       <c r="AG603" s="17"/>
       <c r="AH603" s="17"/>
       <c r="AI603" s="17"/>
-      <c r="AJ603" s="4"/>
+      <c r="AJ603" s="18"/>
     </row>
     <row r="604" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A604" s="17"/>
@@ -23148,7 +23159,7 @@
       <c r="AG604" s="17"/>
       <c r="AH604" s="17"/>
       <c r="AI604" s="17"/>
-      <c r="AJ604" s="4"/>
+      <c r="AJ604" s="18"/>
     </row>
     <row r="605" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A605" s="17"/>
@@ -23186,7 +23197,7 @@
       <c r="AG605" s="17"/>
       <c r="AH605" s="17"/>
       <c r="AI605" s="17"/>
-      <c r="AJ605" s="4"/>
+      <c r="AJ605" s="18"/>
     </row>
     <row r="606" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A606" s="17"/>
@@ -23224,7 +23235,7 @@
       <c r="AG606" s="17"/>
       <c r="AH606" s="17"/>
       <c r="AI606" s="17"/>
-      <c r="AJ606" s="4"/>
+      <c r="AJ606" s="18"/>
     </row>
     <row r="607" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A607" s="17"/>
@@ -23262,7 +23273,7 @@
       <c r="AG607" s="17"/>
       <c r="AH607" s="17"/>
       <c r="AI607" s="17"/>
-      <c r="AJ607" s="4"/>
+      <c r="AJ607" s="18"/>
     </row>
     <row r="608" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A608" s="17"/>
@@ -23300,7 +23311,7 @@
       <c r="AG608" s="17"/>
       <c r="AH608" s="17"/>
       <c r="AI608" s="17"/>
-      <c r="AJ608" s="4"/>
+      <c r="AJ608" s="18"/>
     </row>
     <row r="609" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A609" s="17"/>
@@ -23338,7 +23349,7 @@
       <c r="AG609" s="17"/>
       <c r="AH609" s="17"/>
       <c r="AI609" s="17"/>
-      <c r="AJ609" s="4"/>
+      <c r="AJ609" s="18"/>
     </row>
     <row r="610" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A610" s="17"/>
@@ -23376,7 +23387,7 @@
       <c r="AG610" s="17"/>
       <c r="AH610" s="17"/>
       <c r="AI610" s="17"/>
-      <c r="AJ610" s="4"/>
+      <c r="AJ610" s="18"/>
     </row>
     <row r="611" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A611" s="17"/>
@@ -23414,7 +23425,7 @@
       <c r="AG611" s="17"/>
       <c r="AH611" s="17"/>
       <c r="AI611" s="17"/>
-      <c r="AJ611" s="4"/>
+      <c r="AJ611" s="18"/>
     </row>
     <row r="612" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A612" s="17"/>
@@ -23452,7 +23463,7 @@
       <c r="AG612" s="17"/>
       <c r="AH612" s="17"/>
       <c r="AI612" s="17"/>
-      <c r="AJ612" s="4"/>
+      <c r="AJ612" s="18"/>
     </row>
     <row r="613" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A613" s="17"/>
@@ -23490,7 +23501,7 @@
       <c r="AG613" s="17"/>
       <c r="AH613" s="17"/>
       <c r="AI613" s="17"/>
-      <c r="AJ613" s="4"/>
+      <c r="AJ613" s="18"/>
     </row>
     <row r="614" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A614" s="17"/>
@@ -23528,7 +23539,7 @@
       <c r="AG614" s="17"/>
       <c r="AH614" s="17"/>
       <c r="AI614" s="17"/>
-      <c r="AJ614" s="4"/>
+      <c r="AJ614" s="18"/>
     </row>
     <row r="615" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A615" s="17"/>
@@ -23566,7 +23577,7 @@
       <c r="AG615" s="17"/>
       <c r="AH615" s="17"/>
       <c r="AI615" s="17"/>
-      <c r="AJ615" s="4"/>
+      <c r="AJ615" s="18"/>
     </row>
     <row r="616" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A616" s="17"/>
@@ -23604,7 +23615,7 @@
       <c r="AG616" s="17"/>
       <c r="AH616" s="17"/>
       <c r="AI616" s="17"/>
-      <c r="AJ616" s="4"/>
+      <c r="AJ616" s="18"/>
     </row>
     <row r="617" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A617" s="17"/>
@@ -23642,7 +23653,7 @@
       <c r="AG617" s="17"/>
       <c r="AH617" s="17"/>
       <c r="AI617" s="17"/>
-      <c r="AJ617" s="4"/>
+      <c r="AJ617" s="18"/>
     </row>
     <row r="618" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A618" s="17"/>
@@ -23680,7 +23691,7 @@
       <c r="AG618" s="17"/>
       <c r="AH618" s="17"/>
       <c r="AI618" s="17"/>
-      <c r="AJ618" s="4"/>
+      <c r="AJ618" s="18"/>
     </row>
     <row r="619" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A619" s="17"/>
@@ -23718,7 +23729,7 @@
       <c r="AG619" s="17"/>
       <c r="AH619" s="17"/>
       <c r="AI619" s="17"/>
-      <c r="AJ619" s="4"/>
+      <c r="AJ619" s="18"/>
     </row>
     <row r="620" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A620" s="17"/>
@@ -23756,7 +23767,7 @@
       <c r="AG620" s="17"/>
       <c r="AH620" s="17"/>
       <c r="AI620" s="17"/>
-      <c r="AJ620" s="4"/>
+      <c r="AJ620" s="18"/>
     </row>
     <row r="621" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A621" s="17"/>
@@ -23794,7 +23805,7 @@
       <c r="AG621" s="17"/>
       <c r="AH621" s="17"/>
       <c r="AI621" s="17"/>
-      <c r="AJ621" s="4"/>
+      <c r="AJ621" s="18"/>
     </row>
     <row r="622" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A622" s="17"/>
@@ -23832,7 +23843,7 @@
       <c r="AG622" s="17"/>
       <c r="AH622" s="17"/>
       <c r="AI622" s="17"/>
-      <c r="AJ622" s="4"/>
+      <c r="AJ622" s="18"/>
     </row>
     <row r="623" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A623" s="17"/>
@@ -23870,7 +23881,7 @@
       <c r="AG623" s="17"/>
       <c r="AH623" s="17"/>
       <c r="AI623" s="17"/>
-      <c r="AJ623" s="4"/>
+      <c r="AJ623" s="18"/>
     </row>
     <row r="624" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A624" s="17"/>
@@ -23908,7 +23919,7 @@
       <c r="AG624" s="17"/>
       <c r="AH624" s="17"/>
       <c r="AI624" s="17"/>
-      <c r="AJ624" s="4"/>
+      <c r="AJ624" s="18"/>
     </row>
     <row r="625" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A625" s="17"/>
@@ -23946,7 +23957,7 @@
       <c r="AG625" s="17"/>
       <c r="AH625" s="17"/>
       <c r="AI625" s="17"/>
-      <c r="AJ625" s="4"/>
+      <c r="AJ625" s="18"/>
     </row>
     <row r="626" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A626" s="17"/>
@@ -23984,7 +23995,7 @@
       <c r="AG626" s="17"/>
       <c r="AH626" s="17"/>
       <c r="AI626" s="17"/>
-      <c r="AJ626" s="4"/>
+      <c r="AJ626" s="18"/>
     </row>
     <row r="627" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A627" s="17"/>
@@ -24022,7 +24033,7 @@
       <c r="AG627" s="17"/>
       <c r="AH627" s="17"/>
       <c r="AI627" s="17"/>
-      <c r="AJ627" s="4"/>
+      <c r="AJ627" s="18"/>
     </row>
     <row r="628" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A628" s="17"/>
@@ -24060,7 +24071,7 @@
       <c r="AG628" s="17"/>
       <c r="AH628" s="17"/>
       <c r="AI628" s="17"/>
-      <c r="AJ628" s="4"/>
+      <c r="AJ628" s="18"/>
     </row>
     <row r="629" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A629" s="17"/>
@@ -24098,7 +24109,7 @@
       <c r="AG629" s="17"/>
       <c r="AH629" s="17"/>
       <c r="AI629" s="17"/>
-      <c r="AJ629" s="4"/>
+      <c r="AJ629" s="18"/>
     </row>
     <row r="630" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A630" s="17"/>
@@ -24136,7 +24147,7 @@
       <c r="AG630" s="17"/>
       <c r="AH630" s="17"/>
       <c r="AI630" s="17"/>
-      <c r="AJ630" s="4"/>
+      <c r="AJ630" s="18"/>
     </row>
     <row r="631" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A631" s="17"/>
@@ -24174,7 +24185,7 @@
       <c r="AG631" s="17"/>
       <c r="AH631" s="17"/>
       <c r="AI631" s="17"/>
-      <c r="AJ631" s="4"/>
+      <c r="AJ631" s="18"/>
     </row>
     <row r="632" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A632" s="17"/>
@@ -24212,7 +24223,7 @@
       <c r="AG632" s="17"/>
       <c r="AH632" s="17"/>
       <c r="AI632" s="17"/>
-      <c r="AJ632" s="4"/>
+      <c r="AJ632" s="18"/>
     </row>
     <row r="633" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A633" s="17"/>
@@ -24250,7 +24261,7 @@
       <c r="AG633" s="17"/>
       <c r="AH633" s="17"/>
       <c r="AI633" s="17"/>
-      <c r="AJ633" s="4"/>
+      <c r="AJ633" s="18"/>
     </row>
     <row r="634" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A634" s="17"/>
@@ -24288,7 +24299,7 @@
       <c r="AG634" s="17"/>
       <c r="AH634" s="17"/>
       <c r="AI634" s="17"/>
-      <c r="AJ634" s="4"/>
+      <c r="AJ634" s="18"/>
     </row>
     <row r="635" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A635" s="17"/>
@@ -24326,7 +24337,7 @@
       <c r="AG635" s="17"/>
       <c r="AH635" s="17"/>
       <c r="AI635" s="17"/>
-      <c r="AJ635" s="4"/>
+      <c r="AJ635" s="18"/>
     </row>
     <row r="636" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A636" s="17"/>
@@ -24364,7 +24375,7 @@
       <c r="AG636" s="17"/>
       <c r="AH636" s="17"/>
       <c r="AI636" s="17"/>
-      <c r="AJ636" s="4"/>
+      <c r="AJ636" s="18"/>
     </row>
     <row r="637" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A637" s="17"/>
@@ -24402,7 +24413,7 @@
       <c r="AG637" s="17"/>
       <c r="AH637" s="17"/>
       <c r="AI637" s="17"/>
-      <c r="AJ637" s="4"/>
+      <c r="AJ637" s="18"/>
     </row>
     <row r="638" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A638" s="17"/>
@@ -24440,7 +24451,7 @@
       <c r="AG638" s="17"/>
       <c r="AH638" s="17"/>
       <c r="AI638" s="17"/>
-      <c r="AJ638" s="4"/>
+      <c r="AJ638" s="18"/>
     </row>
     <row r="639" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A639" s="17"/>
@@ -24478,7 +24489,7 @@
       <c r="AG639" s="17"/>
       <c r="AH639" s="17"/>
       <c r="AI639" s="17"/>
-      <c r="AJ639" s="4"/>
+      <c r="AJ639" s="18"/>
     </row>
     <row r="640" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A640" s="17"/>
@@ -24516,7 +24527,7 @@
       <c r="AG640" s="17"/>
       <c r="AH640" s="17"/>
       <c r="AI640" s="17"/>
-      <c r="AJ640" s="4"/>
+      <c r="AJ640" s="18"/>
     </row>
     <row r="641" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A641" s="17"/>
@@ -24554,7 +24565,7 @@
       <c r="AG641" s="17"/>
       <c r="AH641" s="17"/>
       <c r="AI641" s="17"/>
-      <c r="AJ641" s="4"/>
+      <c r="AJ641" s="18"/>
     </row>
     <row r="642" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A642" s="17"/>
@@ -24592,7 +24603,7 @@
       <c r="AG642" s="17"/>
       <c r="AH642" s="17"/>
       <c r="AI642" s="17"/>
-      <c r="AJ642" s="4"/>
+      <c r="AJ642" s="18"/>
     </row>
     <row r="643" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A643" s="17"/>
@@ -24630,7 +24641,7 @@
       <c r="AG643" s="17"/>
       <c r="AH643" s="17"/>
       <c r="AI643" s="17"/>
-      <c r="AJ643" s="4"/>
+      <c r="AJ643" s="18"/>
     </row>
     <row r="644" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A644" s="17"/>
@@ -24668,7 +24679,7 @@
       <c r="AG644" s="17"/>
       <c r="AH644" s="17"/>
       <c r="AI644" s="17"/>
-      <c r="AJ644" s="4"/>
+      <c r="AJ644" s="18"/>
     </row>
     <row r="645" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A645" s="17"/>
@@ -24706,7 +24717,7 @@
       <c r="AG645" s="17"/>
       <c r="AH645" s="17"/>
       <c r="AI645" s="17"/>
-      <c r="AJ645" s="4"/>
+      <c r="AJ645" s="18"/>
     </row>
     <row r="646" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A646" s="17"/>
@@ -24744,7 +24755,7 @@
       <c r="AG646" s="17"/>
       <c r="AH646" s="17"/>
       <c r="AI646" s="17"/>
-      <c r="AJ646" s="4"/>
+      <c r="AJ646" s="18"/>
     </row>
     <row r="647" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A647" s="17"/>
@@ -24782,7 +24793,7 @@
       <c r="AG647" s="17"/>
       <c r="AH647" s="17"/>
       <c r="AI647" s="17"/>
-      <c r="AJ647" s="4"/>
+      <c r="AJ647" s="18"/>
     </row>
     <row r="648" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A648" s="17"/>
@@ -24820,7 +24831,7 @@
       <c r="AG648" s="17"/>
       <c r="AH648" s="17"/>
       <c r="AI648" s="17"/>
-      <c r="AJ648" s="4"/>
+      <c r="AJ648" s="18"/>
     </row>
     <row r="649" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A649" s="17"/>
@@ -24858,7 +24869,7 @@
       <c r="AG649" s="17"/>
       <c r="AH649" s="17"/>
       <c r="AI649" s="17"/>
-      <c r="AJ649" s="4"/>
+      <c r="AJ649" s="18"/>
     </row>
     <row r="650" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A650" s="17"/>
@@ -24896,7 +24907,7 @@
       <c r="AG650" s="17"/>
       <c r="AH650" s="17"/>
       <c r="AI650" s="17"/>
-      <c r="AJ650" s="4"/>
+      <c r="AJ650" s="18"/>
     </row>
     <row r="651" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A651" s="17"/>
@@ -24934,7 +24945,7 @@
       <c r="AG651" s="17"/>
       <c r="AH651" s="17"/>
       <c r="AI651" s="17"/>
-      <c r="AJ651" s="4"/>
+      <c r="AJ651" s="18"/>
     </row>
     <row r="652" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A652" s="17"/>
@@ -24972,7 +24983,7 @@
       <c r="AG652" s="17"/>
       <c r="AH652" s="17"/>
       <c r="AI652" s="17"/>
-      <c r="AJ652" s="4"/>
+      <c r="AJ652" s="18"/>
     </row>
     <row r="653" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A653" s="17"/>
@@ -25010,7 +25021,7 @@
       <c r="AG653" s="17"/>
       <c r="AH653" s="17"/>
       <c r="AI653" s="17"/>
-      <c r="AJ653" s="4"/>
+      <c r="AJ653" s="18"/>
     </row>
     <row r="654" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A654" s="17"/>
@@ -25048,7 +25059,7 @@
       <c r="AG654" s="17"/>
       <c r="AH654" s="17"/>
       <c r="AI654" s="17"/>
-      <c r="AJ654" s="4"/>
+      <c r="AJ654" s="18"/>
     </row>
     <row r="655" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A655" s="17"/>
@@ -25086,7 +25097,7 @@
       <c r="AG655" s="17"/>
       <c r="AH655" s="17"/>
       <c r="AI655" s="17"/>
-      <c r="AJ655" s="4"/>
+      <c r="AJ655" s="18"/>
     </row>
     <row r="656" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A656" s="17"/>
@@ -25124,7 +25135,7 @@
       <c r="AG656" s="17"/>
       <c r="AH656" s="17"/>
       <c r="AI656" s="17"/>
-      <c r="AJ656" s="4"/>
+      <c r="AJ656" s="18"/>
     </row>
     <row r="657" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A657" s="17"/>
@@ -25162,7 +25173,7 @@
       <c r="AG657" s="17"/>
       <c r="AH657" s="17"/>
       <c r="AI657" s="17"/>
-      <c r="AJ657" s="4"/>
+      <c r="AJ657" s="18"/>
     </row>
     <row r="658" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A658" s="17"/>
@@ -25200,7 +25211,7 @@
       <c r="AG658" s="17"/>
       <c r="AH658" s="17"/>
       <c r="AI658" s="17"/>
-      <c r="AJ658" s="4"/>
+      <c r="AJ658" s="18"/>
     </row>
     <row r="659" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A659" s="17"/>
@@ -25238,7 +25249,7 @@
       <c r="AG659" s="17"/>
       <c r="AH659" s="17"/>
       <c r="AI659" s="17"/>
-      <c r="AJ659" s="4"/>
+      <c r="AJ659" s="18"/>
     </row>
     <row r="660" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A660" s="17"/>
@@ -25276,7 +25287,7 @@
       <c r="AG660" s="17"/>
       <c r="AH660" s="17"/>
       <c r="AI660" s="17"/>
-      <c r="AJ660" s="4"/>
+      <c r="AJ660" s="18"/>
     </row>
     <row r="661" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A661" s="17"/>
@@ -25314,7 +25325,7 @@
       <c r="AG661" s="17"/>
       <c r="AH661" s="17"/>
       <c r="AI661" s="17"/>
-      <c r="AJ661" s="4"/>
+      <c r="AJ661" s="18"/>
     </row>
     <row r="662" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A662" s="17"/>
@@ -25352,7 +25363,7 @@
       <c r="AG662" s="17"/>
       <c r="AH662" s="17"/>
       <c r="AI662" s="17"/>
-      <c r="AJ662" s="4"/>
+      <c r="AJ662" s="18"/>
     </row>
     <row r="663" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A663" s="17"/>
@@ -25390,7 +25401,7 @@
       <c r="AG663" s="17"/>
       <c r="AH663" s="17"/>
       <c r="AI663" s="17"/>
-      <c r="AJ663" s="4"/>
+      <c r="AJ663" s="18"/>
     </row>
     <row r="664" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A664" s="17"/>
@@ -25428,7 +25439,7 @@
       <c r="AG664" s="17"/>
       <c r="AH664" s="17"/>
       <c r="AI664" s="17"/>
-      <c r="AJ664" s="4"/>
+      <c r="AJ664" s="18"/>
     </row>
     <row r="665" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A665" s="17"/>
@@ -25466,7 +25477,7 @@
       <c r="AG665" s="17"/>
       <c r="AH665" s="17"/>
       <c r="AI665" s="17"/>
-      <c r="AJ665" s="4"/>
+      <c r="AJ665" s="18"/>
     </row>
     <row r="666" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A666" s="17"/>
@@ -25504,7 +25515,7 @@
       <c r="AG666" s="17"/>
       <c r="AH666" s="17"/>
       <c r="AI666" s="17"/>
-      <c r="AJ666" s="4"/>
+      <c r="AJ666" s="18"/>
     </row>
     <row r="667" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A667" s="17"/>
@@ -25542,7 +25553,7 @@
       <c r="AG667" s="17"/>
       <c r="AH667" s="17"/>
       <c r="AI667" s="17"/>
-      <c r="AJ667" s="4"/>
+      <c r="AJ667" s="18"/>
     </row>
     <row r="668" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A668" s="17"/>
@@ -25580,7 +25591,7 @@
       <c r="AG668" s="17"/>
       <c r="AH668" s="17"/>
       <c r="AI668" s="17"/>
-      <c r="AJ668" s="4"/>
+      <c r="AJ668" s="18"/>
     </row>
     <row r="669" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A669" s="17"/>
@@ -25618,7 +25629,7 @@
       <c r="AG669" s="17"/>
       <c r="AH669" s="17"/>
       <c r="AI669" s="17"/>
-      <c r="AJ669" s="4"/>
+      <c r="AJ669" s="18"/>
     </row>
     <row r="670" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A670" s="17"/>
@@ -25656,7 +25667,7 @@
       <c r="AG670" s="17"/>
       <c r="AH670" s="17"/>
       <c r="AI670" s="17"/>
-      <c r="AJ670" s="4"/>
+      <c r="AJ670" s="18"/>
     </row>
     <row r="671" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A671" s="17"/>
@@ -25694,7 +25705,7 @@
       <c r="AG671" s="17"/>
       <c r="AH671" s="17"/>
       <c r="AI671" s="17"/>
-      <c r="AJ671" s="4"/>
+      <c r="AJ671" s="18"/>
     </row>
     <row r="672" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A672" s="17"/>
@@ -25732,7 +25743,7 @@
       <c r="AG672" s="17"/>
       <c r="AH672" s="17"/>
       <c r="AI672" s="17"/>
-      <c r="AJ672" s="4"/>
+      <c r="AJ672" s="18"/>
     </row>
     <row r="673" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A673" s="17"/>
@@ -25770,7 +25781,7 @@
       <c r="AG673" s="17"/>
       <c r="AH673" s="17"/>
       <c r="AI673" s="17"/>
-      <c r="AJ673" s="4"/>
+      <c r="AJ673" s="18"/>
     </row>
     <row r="674" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A674" s="17"/>
@@ -25808,7 +25819,7 @@
       <c r="AG674" s="17"/>
       <c r="AH674" s="17"/>
       <c r="AI674" s="17"/>
-      <c r="AJ674" s="4"/>
+      <c r="AJ674" s="18"/>
     </row>
     <row r="675" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A675" s="17"/>
@@ -25846,7 +25857,7 @@
       <c r="AG675" s="17"/>
       <c r="AH675" s="17"/>
       <c r="AI675" s="17"/>
-      <c r="AJ675" s="4"/>
+      <c r="AJ675" s="18"/>
     </row>
     <row r="676" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A676" s="17"/>
@@ -25884,7 +25895,7 @@
       <c r="AG676" s="17"/>
       <c r="AH676" s="17"/>
       <c r="AI676" s="17"/>
-      <c r="AJ676" s="4"/>
+      <c r="AJ676" s="18"/>
     </row>
     <row r="677" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A677" s="17"/>
@@ -25922,7 +25933,7 @@
       <c r="AG677" s="17"/>
       <c r="AH677" s="17"/>
       <c r="AI677" s="17"/>
-      <c r="AJ677" s="4"/>
+      <c r="AJ677" s="18"/>
     </row>
     <row r="678" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A678" s="17"/>
@@ -25960,7 +25971,7 @@
       <c r="AG678" s="17"/>
       <c r="AH678" s="17"/>
       <c r="AI678" s="17"/>
-      <c r="AJ678" s="4"/>
+      <c r="AJ678" s="18"/>
     </row>
     <row r="679" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A679" s="17"/>
@@ -25998,7 +26009,7 @@
       <c r="AG679" s="17"/>
       <c r="AH679" s="17"/>
       <c r="AI679" s="17"/>
-      <c r="AJ679" s="4"/>
+      <c r="AJ679" s="18"/>
     </row>
     <row r="680" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A680" s="17"/>
@@ -26036,7 +26047,7 @@
       <c r="AG680" s="17"/>
       <c r="AH680" s="17"/>
       <c r="AI680" s="17"/>
-      <c r="AJ680" s="4"/>
+      <c r="AJ680" s="18"/>
     </row>
     <row r="681" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A681" s="17"/>
@@ -26074,7 +26085,7 @@
       <c r="AG681" s="17"/>
       <c r="AH681" s="17"/>
       <c r="AI681" s="17"/>
-      <c r="AJ681" s="4"/>
+      <c r="AJ681" s="18"/>
     </row>
     <row r="682" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A682" s="17"/>
@@ -26112,7 +26123,7 @@
       <c r="AG682" s="17"/>
       <c r="AH682" s="17"/>
       <c r="AI682" s="17"/>
-      <c r="AJ682" s="4"/>
+      <c r="AJ682" s="18"/>
     </row>
     <row r="683" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A683" s="17"/>
@@ -26150,7 +26161,7 @@
       <c r="AG683" s="17"/>
       <c r="AH683" s="17"/>
       <c r="AI683" s="17"/>
-      <c r="AJ683" s="4"/>
+      <c r="AJ683" s="18"/>
     </row>
     <row r="684" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A684" s="17"/>
@@ -26188,7 +26199,7 @@
       <c r="AG684" s="17"/>
       <c r="AH684" s="17"/>
       <c r="AI684" s="17"/>
-      <c r="AJ684" s="4"/>
+      <c r="AJ684" s="18"/>
     </row>
     <row r="685" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A685" s="17"/>
@@ -26226,7 +26237,7 @@
       <c r="AG685" s="17"/>
       <c r="AH685" s="17"/>
       <c r="AI685" s="17"/>
-      <c r="AJ685" s="4"/>
+      <c r="AJ685" s="18"/>
     </row>
     <row r="686" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A686" s="17"/>
@@ -26264,7 +26275,7 @@
       <c r="AG686" s="17"/>
       <c r="AH686" s="17"/>
       <c r="AI686" s="17"/>
-      <c r="AJ686" s="4"/>
+      <c r="AJ686" s="18"/>
     </row>
     <row r="687" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A687" s="17"/>
@@ -26302,7 +26313,7 @@
       <c r="AG687" s="17"/>
       <c r="AH687" s="17"/>
       <c r="AI687" s="17"/>
-      <c r="AJ687" s="4"/>
+      <c r="AJ687" s="18"/>
     </row>
     <row r="688" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A688" s="17"/>
@@ -26340,7 +26351,7 @@
       <c r="AG688" s="17"/>
       <c r="AH688" s="17"/>
       <c r="AI688" s="17"/>
-      <c r="AJ688" s="4"/>
+      <c r="AJ688" s="18"/>
     </row>
     <row r="689" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A689" s="17"/>
@@ -26378,7 +26389,7 @@
       <c r="AG689" s="17"/>
       <c r="AH689" s="17"/>
       <c r="AI689" s="17"/>
-      <c r="AJ689" s="4"/>
+      <c r="AJ689" s="18"/>
     </row>
     <row r="690" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A690" s="17"/>
@@ -26416,7 +26427,7 @@
       <c r="AG690" s="17"/>
       <c r="AH690" s="17"/>
       <c r="AI690" s="17"/>
-      <c r="AJ690" s="4"/>
+      <c r="AJ690" s="18"/>
     </row>
     <row r="691" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A691" s="17"/>
@@ -26454,7 +26465,7 @@
       <c r="AG691" s="17"/>
       <c r="AH691" s="17"/>
       <c r="AI691" s="17"/>
-      <c r="AJ691" s="4"/>
+      <c r="AJ691" s="18"/>
     </row>
     <row r="692" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A692" s="17"/>
@@ -26492,7 +26503,7 @@
       <c r="AG692" s="17"/>
       <c r="AH692" s="17"/>
       <c r="AI692" s="17"/>
-      <c r="AJ692" s="4"/>
+      <c r="AJ692" s="18"/>
     </row>
     <row r="693" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A693" s="17"/>
@@ -26530,7 +26541,7 @@
       <c r="AG693" s="17"/>
       <c r="AH693" s="17"/>
       <c r="AI693" s="17"/>
-      <c r="AJ693" s="4"/>
+      <c r="AJ693" s="18"/>
     </row>
     <row r="694" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A694" s="17"/>
@@ -26568,7 +26579,7 @@
       <c r="AG694" s="17"/>
       <c r="AH694" s="17"/>
       <c r="AI694" s="17"/>
-      <c r="AJ694" s="4"/>
+      <c r="AJ694" s="18"/>
     </row>
     <row r="695" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A695" s="17"/>
@@ -26606,7 +26617,7 @@
       <c r="AG695" s="17"/>
       <c r="AH695" s="17"/>
       <c r="AI695" s="17"/>
-      <c r="AJ695" s="4"/>
+      <c r="AJ695" s="18"/>
     </row>
     <row r="696" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A696" s="17"/>
@@ -26644,7 +26655,7 @@
       <c r="AG696" s="17"/>
       <c r="AH696" s="17"/>
       <c r="AI696" s="17"/>
-      <c r="AJ696" s="4"/>
+      <c r="AJ696" s="18"/>
     </row>
     <row r="697" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A697" s="17"/>
@@ -26682,7 +26693,7 @@
       <c r="AG697" s="17"/>
       <c r="AH697" s="17"/>
       <c r="AI697" s="17"/>
-      <c r="AJ697" s="4"/>
+      <c r="AJ697" s="18"/>
     </row>
     <row r="698" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A698" s="17"/>
@@ -26720,7 +26731,7 @@
       <c r="AG698" s="17"/>
       <c r="AH698" s="17"/>
       <c r="AI698" s="17"/>
-      <c r="AJ698" s="4"/>
+      <c r="AJ698" s="18"/>
     </row>
     <row r="699" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A699" s="17"/>
@@ -26758,7 +26769,7 @@
       <c r="AG699" s="17"/>
       <c r="AH699" s="17"/>
       <c r="AI699" s="17"/>
-      <c r="AJ699" s="4"/>
+      <c r="AJ699" s="18"/>
     </row>
     <row r="700" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A700" s="17"/>
@@ -26796,7 +26807,7 @@
       <c r="AG700" s="17"/>
       <c r="AH700" s="17"/>
       <c r="AI700" s="17"/>
-      <c r="AJ700" s="4"/>
+      <c r="AJ700" s="18"/>
     </row>
     <row r="701" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A701" s="17"/>
@@ -26834,7 +26845,7 @@
       <c r="AG701" s="17"/>
       <c r="AH701" s="17"/>
       <c r="AI701" s="17"/>
-      <c r="AJ701" s="4"/>
+      <c r="AJ701" s="18"/>
     </row>
     <row r="702" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A702" s="17"/>
@@ -26872,7 +26883,7 @@
       <c r="AG702" s="17"/>
       <c r="AH702" s="17"/>
       <c r="AI702" s="17"/>
-      <c r="AJ702" s="4"/>
+      <c r="AJ702" s="18"/>
     </row>
     <row r="703" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A703" s="17"/>
@@ -26910,7 +26921,7 @@
       <c r="AG703" s="17"/>
       <c r="AH703" s="17"/>
       <c r="AI703" s="17"/>
-      <c r="AJ703" s="4"/>
+      <c r="AJ703" s="18"/>
     </row>
     <row r="704" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A704" s="17"/>
@@ -26948,7 +26959,7 @@
       <c r="AG704" s="17"/>
       <c r="AH704" s="17"/>
       <c r="AI704" s="17"/>
-      <c r="AJ704" s="4"/>
+      <c r="AJ704" s="18"/>
     </row>
     <row r="705" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A705" s="17"/>
@@ -26986,7 +26997,7 @@
       <c r="AG705" s="17"/>
       <c r="AH705" s="17"/>
       <c r="AI705" s="17"/>
-      <c r="AJ705" s="4"/>
+      <c r="AJ705" s="18"/>
     </row>
     <row r="706" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A706" s="17"/>
@@ -27024,7 +27035,7 @@
       <c r="AG706" s="17"/>
       <c r="AH706" s="17"/>
       <c r="AI706" s="17"/>
-      <c r="AJ706" s="4"/>
+      <c r="AJ706" s="18"/>
     </row>
     <row r="707" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A707" s="17"/>
@@ -27062,7 +27073,7 @@
       <c r="AG707" s="17"/>
       <c r="AH707" s="17"/>
       <c r="AI707" s="17"/>
-      <c r="AJ707" s="4"/>
+      <c r="AJ707" s="18"/>
     </row>
     <row r="708" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A708" s="17"/>
@@ -27100,7 +27111,7 @@
       <c r="AG708" s="17"/>
       <c r="AH708" s="17"/>
       <c r="AI708" s="17"/>
-      <c r="AJ708" s="4"/>
+      <c r="AJ708" s="18"/>
     </row>
     <row r="709" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A709" s="17"/>
@@ -27138,7 +27149,7 @@
       <c r="AG709" s="17"/>
       <c r="AH709" s="17"/>
       <c r="AI709" s="17"/>
-      <c r="AJ709" s="4"/>
+      <c r="AJ709" s="18"/>
     </row>
     <row r="710" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A710" s="17"/>
@@ -27176,7 +27187,7 @@
       <c r="AG710" s="17"/>
       <c r="AH710" s="17"/>
       <c r="AI710" s="17"/>
-      <c r="AJ710" s="4"/>
+      <c r="AJ710" s="18"/>
     </row>
     <row r="711" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A711" s="17"/>
@@ -27214,7 +27225,7 @@
       <c r="AG711" s="17"/>
       <c r="AH711" s="17"/>
       <c r="AI711" s="17"/>
-      <c r="AJ711" s="4"/>
+      <c r="AJ711" s="18"/>
     </row>
     <row r="712" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A712" s="17"/>
@@ -27252,7 +27263,7 @@
       <c r="AG712" s="17"/>
       <c r="AH712" s="17"/>
       <c r="AI712" s="17"/>
-      <c r="AJ712" s="4"/>
+      <c r="AJ712" s="18"/>
     </row>
     <row r="713" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A713" s="17"/>
@@ -27290,7 +27301,7 @@
       <c r="AG713" s="17"/>
       <c r="AH713" s="17"/>
       <c r="AI713" s="17"/>
-      <c r="AJ713" s="4"/>
+      <c r="AJ713" s="18"/>
     </row>
     <row r="714" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A714" s="17"/>
@@ -27328,7 +27339,7 @@
       <c r="AG714" s="17"/>
       <c r="AH714" s="17"/>
       <c r="AI714" s="17"/>
-      <c r="AJ714" s="4"/>
+      <c r="AJ714" s="18"/>
     </row>
     <row r="715" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A715" s="17"/>
@@ -27366,7 +27377,7 @@
       <c r="AG715" s="17"/>
       <c r="AH715" s="17"/>
       <c r="AI715" s="17"/>
-      <c r="AJ715" s="4"/>
+      <c r="AJ715" s="18"/>
     </row>
     <row r="716" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A716" s="17"/>
@@ -27404,7 +27415,7 @@
       <c r="AG716" s="17"/>
       <c r="AH716" s="17"/>
       <c r="AI716" s="17"/>
-      <c r="AJ716" s="4"/>
+      <c r="AJ716" s="18"/>
     </row>
     <row r="717" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A717" s="17"/>
@@ -27442,7 +27453,7 @@
       <c r="AG717" s="17"/>
       <c r="AH717" s="17"/>
       <c r="AI717" s="17"/>
-      <c r="AJ717" s="4"/>
+      <c r="AJ717" s="18"/>
     </row>
     <row r="718" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A718" s="17"/>
@@ -27480,7 +27491,7 @@
       <c r="AG718" s="17"/>
       <c r="AH718" s="17"/>
       <c r="AI718" s="17"/>
-      <c r="AJ718" s="4"/>
+      <c r="AJ718" s="18"/>
     </row>
     <row r="719" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A719" s="17"/>
@@ -27518,7 +27529,7 @@
       <c r="AG719" s="17"/>
       <c r="AH719" s="17"/>
       <c r="AI719" s="17"/>
-      <c r="AJ719" s="4"/>
+      <c r="AJ719" s="18"/>
     </row>
     <row r="720" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A720" s="17"/>
@@ -27556,7 +27567,7 @@
       <c r="AG720" s="17"/>
       <c r="AH720" s="17"/>
       <c r="AI720" s="17"/>
-      <c r="AJ720" s="4"/>
+      <c r="AJ720" s="18"/>
     </row>
     <row r="721" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A721" s="17"/>
@@ -27594,7 +27605,7 @@
       <c r="AG721" s="17"/>
       <c r="AH721" s="17"/>
       <c r="AI721" s="17"/>
-      <c r="AJ721" s="4"/>
+      <c r="AJ721" s="18"/>
     </row>
     <row r="722" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A722" s="17"/>
@@ -27632,7 +27643,7 @@
       <c r="AG722" s="17"/>
       <c r="AH722" s="17"/>
       <c r="AI722" s="17"/>
-      <c r="AJ722" s="4"/>
+      <c r="AJ722" s="18"/>
     </row>
     <row r="723" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A723" s="17"/>
@@ -27670,7 +27681,7 @@
       <c r="AG723" s="17"/>
       <c r="AH723" s="17"/>
       <c r="AI723" s="17"/>
-      <c r="AJ723" s="4"/>
+      <c r="AJ723" s="18"/>
     </row>
     <row r="724" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A724" s="17"/>
@@ -27708,7 +27719,7 @@
       <c r="AG724" s="17"/>
       <c r="AH724" s="17"/>
       <c r="AI724" s="17"/>
-      <c r="AJ724" s="4"/>
+      <c r="AJ724" s="18"/>
     </row>
     <row r="725" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A725" s="17"/>
@@ -27746,7 +27757,7 @@
       <c r="AG725" s="17"/>
       <c r="AH725" s="17"/>
       <c r="AI725" s="17"/>
-      <c r="AJ725" s="4"/>
+      <c r="AJ725" s="18"/>
     </row>
     <row r="726" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A726" s="17"/>
@@ -27784,7 +27795,7 @@
       <c r="AG726" s="17"/>
       <c r="AH726" s="17"/>
       <c r="AI726" s="17"/>
-      <c r="AJ726" s="4"/>
+      <c r="AJ726" s="18"/>
     </row>
     <row r="727" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A727" s="17"/>
@@ -27822,7 +27833,7 @@
       <c r="AG727" s="17"/>
       <c r="AH727" s="17"/>
       <c r="AI727" s="17"/>
-      <c r="AJ727" s="4"/>
+      <c r="AJ727" s="18"/>
     </row>
     <row r="728" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A728" s="17"/>
@@ -27860,7 +27871,7 @@
       <c r="AG728" s="17"/>
       <c r="AH728" s="17"/>
       <c r="AI728" s="17"/>
-      <c r="AJ728" s="4"/>
+      <c r="AJ728" s="18"/>
     </row>
     <row r="729" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A729" s="17"/>
@@ -27898,7 +27909,7 @@
       <c r="AG729" s="17"/>
       <c r="AH729" s="17"/>
       <c r="AI729" s="17"/>
-      <c r="AJ729" s="4"/>
+      <c r="AJ729" s="18"/>
     </row>
     <row r="730" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A730" s="17"/>
@@ -27936,7 +27947,7 @@
       <c r="AG730" s="17"/>
       <c r="AH730" s="17"/>
       <c r="AI730" s="17"/>
-      <c r="AJ730" s="4"/>
+      <c r="AJ730" s="18"/>
     </row>
     <row r="731" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A731" s="17"/>
@@ -27974,7 +27985,7 @@
       <c r="AG731" s="17"/>
       <c r="AH731" s="17"/>
       <c r="AI731" s="17"/>
-      <c r="AJ731" s="4"/>
+      <c r="AJ731" s="18"/>
     </row>
     <row r="732" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A732" s="17"/>
@@ -28012,7 +28023,7 @@
       <c r="AG732" s="17"/>
       <c r="AH732" s="17"/>
       <c r="AI732" s="17"/>
-      <c r="AJ732" s="4"/>
+      <c r="AJ732" s="18"/>
     </row>
     <row r="733" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A733" s="17"/>
@@ -28050,7 +28061,7 @@
       <c r="AG733" s="17"/>
       <c r="AH733" s="17"/>
       <c r="AI733" s="17"/>
-      <c r="AJ733" s="4"/>
+      <c r="AJ733" s="18"/>
     </row>
     <row r="734" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A734" s="17"/>
@@ -28088,7 +28099,7 @@
       <c r="AG734" s="17"/>
       <c r="AH734" s="17"/>
       <c r="AI734" s="17"/>
-      <c r="AJ734" s="4"/>
+      <c r="AJ734" s="18"/>
     </row>
     <row r="735" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A735" s="17"/>
@@ -28126,7 +28137,7 @@
       <c r="AG735" s="17"/>
       <c r="AH735" s="17"/>
       <c r="AI735" s="17"/>
-      <c r="AJ735" s="4"/>
+      <c r="AJ735" s="18"/>
     </row>
     <row r="736" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A736" s="17"/>
@@ -28164,7 +28175,7 @@
       <c r="AG736" s="17"/>
       <c r="AH736" s="17"/>
       <c r="AI736" s="17"/>
-      <c r="AJ736" s="4"/>
+      <c r="AJ736" s="18"/>
     </row>
     <row r="737" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A737" s="17"/>
@@ -28202,7 +28213,7 @@
       <c r="AG737" s="17"/>
       <c r="AH737" s="17"/>
       <c r="AI737" s="17"/>
-      <c r="AJ737" s="4"/>
+      <c r="AJ737" s="18"/>
     </row>
     <row r="738" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A738" s="17"/>
@@ -28240,7 +28251,7 @@
       <c r="AG738" s="17"/>
       <c r="AH738" s="17"/>
       <c r="AI738" s="17"/>
-      <c r="AJ738" s="4"/>
+      <c r="AJ738" s="18"/>
     </row>
     <row r="739" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A739" s="17"/>
@@ -28278,7 +28289,7 @@
       <c r="AG739" s="17"/>
       <c r="AH739" s="17"/>
       <c r="AI739" s="17"/>
-      <c r="AJ739" s="4"/>
+      <c r="AJ739" s="18"/>
     </row>
     <row r="740" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A740" s="17"/>
@@ -28316,7 +28327,7 @@
       <c r="AG740" s="17"/>
       <c r="AH740" s="17"/>
       <c r="AI740" s="17"/>
-      <c r="AJ740" s="4"/>
+      <c r="AJ740" s="18"/>
     </row>
     <row r="741" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A741" s="17"/>
@@ -28354,7 +28365,7 @@
       <c r="AG741" s="17"/>
       <c r="AH741" s="17"/>
       <c r="AI741" s="17"/>
-      <c r="AJ741" s="4"/>
+      <c r="AJ741" s="18"/>
     </row>
     <row r="742" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A742" s="17"/>
@@ -28392,7 +28403,7 @@
       <c r="AG742" s="17"/>
       <c r="AH742" s="17"/>
       <c r="AI742" s="17"/>
-      <c r="AJ742" s="4"/>
+      <c r="AJ742" s="18"/>
     </row>
     <row r="743" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A743" s="17"/>
@@ -28430,7 +28441,7 @@
       <c r="AG743" s="17"/>
       <c r="AH743" s="17"/>
       <c r="AI743" s="17"/>
-      <c r="AJ743" s="4"/>
+      <c r="AJ743" s="18"/>
     </row>
     <row r="744" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A744" s="17"/>
@@ -28468,7 +28479,7 @@
       <c r="AG744" s="17"/>
       <c r="AH744" s="17"/>
       <c r="AI744" s="17"/>
-      <c r="AJ744" s="4"/>
+      <c r="AJ744" s="18"/>
     </row>
     <row r="745" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A745" s="17"/>
@@ -28506,7 +28517,7 @@
       <c r="AG745" s="17"/>
       <c r="AH745" s="17"/>
       <c r="AI745" s="17"/>
-      <c r="AJ745" s="4"/>
+      <c r="AJ745" s="18"/>
     </row>
     <row r="746" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A746" s="17"/>
@@ -28544,7 +28555,7 @@
       <c r="AG746" s="17"/>
       <c r="AH746" s="17"/>
       <c r="AI746" s="17"/>
-      <c r="AJ746" s="4"/>
+      <c r="AJ746" s="18"/>
     </row>
     <row r="747" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A747" s="17"/>
@@ -28582,7 +28593,7 @@
       <c r="AG747" s="17"/>
       <c r="AH747" s="17"/>
       <c r="AI747" s="17"/>
-      <c r="AJ747" s="4"/>
+      <c r="AJ747" s="18"/>
     </row>
     <row r="748" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A748" s="17"/>
@@ -28620,7 +28631,7 @@
       <c r="AG748" s="17"/>
       <c r="AH748" s="17"/>
       <c r="AI748" s="17"/>
-      <c r="AJ748" s="4"/>
+      <c r="AJ748" s="18"/>
     </row>
     <row r="749" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A749" s="17"/>
@@ -28658,7 +28669,7 @@
       <c r="AG749" s="17"/>
       <c r="AH749" s="17"/>
       <c r="AI749" s="17"/>
-      <c r="AJ749" s="4"/>
+      <c r="AJ749" s="18"/>
     </row>
     <row r="750" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A750" s="17"/>
@@ -28696,7 +28707,7 @@
       <c r="AG750" s="17"/>
       <c r="AH750" s="17"/>
       <c r="AI750" s="17"/>
-      <c r="AJ750" s="4"/>
+      <c r="AJ750" s="18"/>
     </row>
     <row r="751" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A751" s="17"/>
@@ -28734,7 +28745,7 @@
       <c r="AG751" s="17"/>
       <c r="AH751" s="17"/>
       <c r="AI751" s="17"/>
-      <c r="AJ751" s="4"/>
+      <c r="AJ751" s="18"/>
     </row>
     <row r="752" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A752" s="17"/>
@@ -28772,7 +28783,7 @@
       <c r="AG752" s="17"/>
       <c r="AH752" s="17"/>
       <c r="AI752" s="17"/>
-      <c r="AJ752" s="4"/>
+      <c r="AJ752" s="18"/>
     </row>
     <row r="753" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A753" s="17"/>
@@ -28810,7 +28821,7 @@
       <c r="AG753" s="17"/>
       <c r="AH753" s="17"/>
       <c r="AI753" s="17"/>
-      <c r="AJ753" s="4"/>
+      <c r="AJ753" s="18"/>
     </row>
     <row r="754" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A754" s="17"/>
@@ -28848,7 +28859,7 @@
       <c r="AG754" s="17"/>
       <c r="AH754" s="17"/>
       <c r="AI754" s="17"/>
-      <c r="AJ754" s="4"/>
+      <c r="AJ754" s="18"/>
     </row>
     <row r="755" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A755" s="17"/>
@@ -28886,7 +28897,7 @@
       <c r="AG755" s="17"/>
       <c r="AH755" s="17"/>
       <c r="AI755" s="17"/>
-      <c r="AJ755" s="4"/>
+      <c r="AJ755" s="18"/>
     </row>
     <row r="756" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A756" s="17"/>
@@ -28924,7 +28935,7 @@
       <c r="AG756" s="17"/>
       <c r="AH756" s="17"/>
       <c r="AI756" s="17"/>
-      <c r="AJ756" s="4"/>
+      <c r="AJ756" s="18"/>
     </row>
     <row r="757" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A757" s="17"/>
@@ -28962,7 +28973,7 @@
       <c r="AG757" s="17"/>
       <c r="AH757" s="17"/>
       <c r="AI757" s="17"/>
-      <c r="AJ757" s="4"/>
+      <c r="AJ757" s="18"/>
     </row>
     <row r="758" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A758" s="17"/>
@@ -29000,7 +29011,7 @@
       <c r="AG758" s="17"/>
       <c r="AH758" s="17"/>
       <c r="AI758" s="17"/>
-      <c r="AJ758" s="4"/>
+      <c r="AJ758" s="18"/>
     </row>
     <row r="759" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A759" s="17"/>
@@ -29038,7 +29049,7 @@
       <c r="AG759" s="17"/>
       <c r="AH759" s="17"/>
       <c r="AI759" s="17"/>
-      <c r="AJ759" s="4"/>
+      <c r="AJ759" s="18"/>
     </row>
     <row r="760" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A760" s="17"/>
@@ -29076,7 +29087,7 @@
       <c r="AG760" s="17"/>
       <c r="AH760" s="17"/>
       <c r="AI760" s="17"/>
-      <c r="AJ760" s="4"/>
+      <c r="AJ760" s="18"/>
     </row>
     <row r="761" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A761" s="17"/>
@@ -29114,7 +29125,7 @@
       <c r="AG761" s="17"/>
       <c r="AH761" s="17"/>
       <c r="AI761" s="17"/>
-      <c r="AJ761" s="4"/>
+      <c r="AJ761" s="18"/>
     </row>
     <row r="762" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A762" s="17"/>
@@ -29152,7 +29163,7 @@
       <c r="AG762" s="17"/>
       <c r="AH762" s="17"/>
       <c r="AI762" s="17"/>
-      <c r="AJ762" s="4"/>
+      <c r="AJ762" s="18"/>
     </row>
     <row r="763" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A763" s="17"/>
@@ -29190,7 +29201,7 @@
       <c r="AG763" s="17"/>
       <c r="AH763" s="17"/>
       <c r="AI763" s="17"/>
-      <c r="AJ763" s="4"/>
+      <c r="AJ763" s="18"/>
     </row>
     <row r="764" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A764" s="17"/>
@@ -29228,7 +29239,7 @@
       <c r="AG764" s="17"/>
       <c r="AH764" s="17"/>
       <c r="AI764" s="17"/>
-      <c r="AJ764" s="4"/>
+      <c r="AJ764" s="18"/>
     </row>
     <row r="765" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A765" s="17"/>
@@ -29266,7 +29277,7 @@
       <c r="AG765" s="17"/>
       <c r="AH765" s="17"/>
       <c r="AI765" s="17"/>
-      <c r="AJ765" s="4"/>
+      <c r="AJ765" s="18"/>
     </row>
     <row r="766" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A766" s="17"/>
@@ -29304,7 +29315,7 @@
       <c r="AG766" s="17"/>
       <c r="AH766" s="17"/>
       <c r="AI766" s="17"/>
-      <c r="AJ766" s="4"/>
+      <c r="AJ766" s="18"/>
     </row>
     <row r="767" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A767" s="17"/>
@@ -29342,7 +29353,7 @@
       <c r="AG767" s="17"/>
       <c r="AH767" s="17"/>
       <c r="AI767" s="17"/>
-      <c r="AJ767" s="4"/>
+      <c r="AJ767" s="18"/>
     </row>
     <row r="768" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A768" s="17"/>
@@ -29380,7 +29391,7 @@
       <c r="AG768" s="17"/>
       <c r="AH768" s="17"/>
       <c r="AI768" s="17"/>
-      <c r="AJ768" s="4"/>
+      <c r="AJ768" s="18"/>
     </row>
     <row r="769" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A769" s="17"/>
@@ -29418,7 +29429,7 @@
       <c r="AG769" s="17"/>
       <c r="AH769" s="17"/>
       <c r="AI769" s="17"/>
-      <c r="AJ769" s="4"/>
+      <c r="AJ769" s="18"/>
     </row>
     <row r="770" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A770" s="17"/>
@@ -29456,7 +29467,7 @@
       <c r="AG770" s="17"/>
       <c r="AH770" s="17"/>
       <c r="AI770" s="17"/>
-      <c r="AJ770" s="4"/>
+      <c r="AJ770" s="18"/>
     </row>
     <row r="771" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A771" s="17"/>
@@ -29494,7 +29505,7 @@
       <c r="AG771" s="17"/>
       <c r="AH771" s="17"/>
       <c r="AI771" s="17"/>
-      <c r="AJ771" s="4"/>
+      <c r="AJ771" s="18"/>
     </row>
     <row r="772" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A772" s="17"/>
@@ -29532,7 +29543,7 @@
       <c r="AG772" s="17"/>
       <c r="AH772" s="17"/>
       <c r="AI772" s="17"/>
-      <c r="AJ772" s="4"/>
+      <c r="AJ772" s="18"/>
     </row>
     <row r="773" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A773" s="17"/>
@@ -29570,7 +29581,7 @@
       <c r="AG773" s="17"/>
       <c r="AH773" s="17"/>
       <c r="AI773" s="17"/>
-      <c r="AJ773" s="4"/>
+      <c r="AJ773" s="18"/>
     </row>
     <row r="774" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A774" s="17"/>
@@ -29608,7 +29619,7 @@
       <c r="AG774" s="17"/>
       <c r="AH774" s="17"/>
       <c r="AI774" s="17"/>
-      <c r="AJ774" s="4"/>
+      <c r="AJ774" s="18"/>
     </row>
     <row r="775" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A775" s="17"/>
@@ -29646,7 +29657,7 @@
       <c r="AG775" s="17"/>
       <c r="AH775" s="17"/>
       <c r="AI775" s="17"/>
-      <c r="AJ775" s="4"/>
+      <c r="AJ775" s="18"/>
     </row>
     <row r="776" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A776" s="17"/>
@@ -29684,7 +29695,7 @@
       <c r="AG776" s="17"/>
       <c r="AH776" s="17"/>
       <c r="AI776" s="17"/>
-      <c r="AJ776" s="4"/>
+      <c r="AJ776" s="18"/>
     </row>
     <row r="777" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A777" s="17"/>
@@ -29722,7 +29733,7 @@
       <c r="AG777" s="17"/>
       <c r="AH777" s="17"/>
       <c r="AI777" s="17"/>
-      <c r="AJ777" s="4"/>
+      <c r="AJ777" s="18"/>
     </row>
     <row r="778" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A778" s="17"/>
@@ -29760,7 +29771,7 @@
       <c r="AG778" s="17"/>
       <c r="AH778" s="17"/>
       <c r="AI778" s="17"/>
-      <c r="AJ778" s="4"/>
+      <c r="AJ778" s="18"/>
     </row>
     <row r="779" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A779" s="17"/>
@@ -29798,7 +29809,7 @@
       <c r="AG779" s="17"/>
       <c r="AH779" s="17"/>
       <c r="AI779" s="17"/>
-      <c r="AJ779" s="4"/>
+      <c r="AJ779" s="18"/>
     </row>
     <row r="780" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A780" s="17"/>
@@ -29836,7 +29847,7 @@
       <c r="AG780" s="17"/>
       <c r="AH780" s="17"/>
       <c r="AI780" s="17"/>
-      <c r="AJ780" s="4"/>
+      <c r="AJ780" s="18"/>
     </row>
     <row r="781" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A781" s="17"/>
@@ -29874,7 +29885,7 @@
       <c r="AG781" s="17"/>
       <c r="AH781" s="17"/>
       <c r="AI781" s="17"/>
-      <c r="AJ781" s="4"/>
+      <c r="AJ781" s="18"/>
     </row>
     <row r="782" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A782" s="17"/>
@@ -29912,7 +29923,7 @@
       <c r="AG782" s="17"/>
       <c r="AH782" s="17"/>
       <c r="AI782" s="17"/>
-      <c r="AJ782" s="4"/>
+      <c r="AJ782" s="18"/>
     </row>
     <row r="783" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A783" s="17"/>
@@ -29950,7 +29961,7 @@
       <c r="AG783" s="17"/>
       <c r="AH783" s="17"/>
       <c r="AI783" s="17"/>
-      <c r="AJ783" s="4"/>
+      <c r="AJ783" s="18"/>
     </row>
     <row r="784" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A784" s="17"/>
@@ -29988,7 +29999,7 @@
       <c r="AG784" s="17"/>
       <c r="AH784" s="17"/>
       <c r="AI784" s="17"/>
-      <c r="AJ784" s="4"/>
+      <c r="AJ784" s="18"/>
     </row>
     <row r="785" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A785" s="17"/>
@@ -30026,7 +30037,7 @@
       <c r="AG785" s="17"/>
       <c r="AH785" s="17"/>
       <c r="AI785" s="17"/>
-      <c r="AJ785" s="4"/>
+      <c r="AJ785" s="18"/>
     </row>
     <row r="786" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A786" s="17"/>
@@ -30064,7 +30075,7 @@
       <c r="AG786" s="17"/>
       <c r="AH786" s="17"/>
       <c r="AI786" s="17"/>
-      <c r="AJ786" s="4"/>
+      <c r="AJ786" s="18"/>
     </row>
     <row r="787" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A787" s="17"/>
@@ -30102,7 +30113,7 @@
       <c r="AG787" s="17"/>
       <c r="AH787" s="17"/>
       <c r="AI787" s="17"/>
-      <c r="AJ787" s="4"/>
+      <c r="AJ787" s="18"/>
     </row>
     <row r="788" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A788" s="17"/>
@@ -30140,7 +30151,7 @@
       <c r="AG788" s="17"/>
       <c r="AH788" s="17"/>
       <c r="AI788" s="17"/>
-      <c r="AJ788" s="4"/>
+      <c r="AJ788" s="18"/>
     </row>
     <row r="789" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A789" s="17"/>
@@ -30178,7 +30189,7 @@
       <c r="AG789" s="17"/>
       <c r="AH789" s="17"/>
       <c r="AI789" s="17"/>
-      <c r="AJ789" s="4"/>
+      <c r="AJ789" s="18"/>
     </row>
     <row r="790" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A790" s="17"/>
@@ -30216,7 +30227,7 @@
       <c r="AG790" s="17"/>
       <c r="AH790" s="17"/>
       <c r="AI790" s="17"/>
-      <c r="AJ790" s="4"/>
+      <c r="AJ790" s="18"/>
     </row>
     <row r="791" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A791" s="17"/>
@@ -30254,7 +30265,7 @@
       <c r="AG791" s="17"/>
       <c r="AH791" s="17"/>
       <c r="AI791" s="17"/>
-      <c r="AJ791" s="4"/>
+      <c r="AJ791" s="18"/>
     </row>
     <row r="792" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A792" s="17"/>
@@ -30292,7 +30303,7 @@
       <c r="AG792" s="17"/>
       <c r="AH792" s="17"/>
       <c r="AI792" s="17"/>
-      <c r="AJ792" s="4"/>
+      <c r="AJ792" s="18"/>
     </row>
     <row r="793" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A793" s="17"/>
@@ -30330,7 +30341,7 @@
       <c r="AG793" s="17"/>
       <c r="AH793" s="17"/>
       <c r="AI793" s="17"/>
-      <c r="AJ793" s="4"/>
+      <c r="AJ793" s="18"/>
     </row>
     <row r="794" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A794" s="17"/>
@@ -30368,7 +30379,7 @@
       <c r="AG794" s="17"/>
       <c r="AH794" s="17"/>
       <c r="AI794" s="17"/>
-      <c r="AJ794" s="4"/>
+      <c r="AJ794" s="18"/>
     </row>
     <row r="795" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A795" s="17"/>
@@ -30406,7 +30417,7 @@
       <c r="AG795" s="17"/>
       <c r="AH795" s="17"/>
       <c r="AI795" s="17"/>
-      <c r="AJ795" s="4"/>
+      <c r="AJ795" s="18"/>
     </row>
     <row r="796" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A796" s="17"/>
@@ -30444,7 +30455,7 @@
       <c r="AG796" s="17"/>
       <c r="AH796" s="17"/>
       <c r="AI796" s="17"/>
-      <c r="AJ796" s="4"/>
+      <c r="AJ796" s="18"/>
     </row>
     <row r="797" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A797" s="17"/>
@@ -30482,7 +30493,7 @@
       <c r="AG797" s="17"/>
       <c r="AH797" s="17"/>
       <c r="AI797" s="17"/>
-      <c r="AJ797" s="4"/>
+      <c r="AJ797" s="18"/>
     </row>
     <row r="798" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A798" s="17"/>
@@ -30520,7 +30531,7 @@
       <c r="AG798" s="17"/>
       <c r="AH798" s="17"/>
       <c r="AI798" s="17"/>
-      <c r="AJ798" s="4"/>
+      <c r="AJ798" s="18"/>
     </row>
     <row r="799" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A799" s="17"/>
@@ -30558,7 +30569,7 @@
       <c r="AG799" s="17"/>
       <c r="AH799" s="17"/>
       <c r="AI799" s="17"/>
-      <c r="AJ799" s="4"/>
+      <c r="AJ799" s="18"/>
     </row>
     <row r="800" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A800" s="17"/>
@@ -30596,7 +30607,7 @@
       <c r="AG800" s="17"/>
       <c r="AH800" s="17"/>
       <c r="AI800" s="17"/>
-      <c r="AJ800" s="4"/>
+      <c r="AJ800" s="18"/>
     </row>
     <row r="801" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A801" s="17"/>
@@ -30634,7 +30645,7 @@
       <c r="AG801" s="17"/>
       <c r="AH801" s="17"/>
       <c r="AI801" s="17"/>
-      <c r="AJ801" s="4"/>
+      <c r="AJ801" s="18"/>
     </row>
     <row r="802" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A802" s="17"/>
@@ -30672,7 +30683,7 @@
       <c r="AG802" s="17"/>
       <c r="AH802" s="17"/>
       <c r="AI802" s="17"/>
-      <c r="AJ802" s="4"/>
+      <c r="AJ802" s="18"/>
     </row>
     <row r="803" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A803" s="17"/>
@@ -30710,7 +30721,7 @@
       <c r="AG803" s="17"/>
       <c r="AH803" s="17"/>
       <c r="AI803" s="17"/>
-      <c r="AJ803" s="4"/>
+      <c r="AJ803" s="18"/>
     </row>
     <row r="804" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A804" s="17"/>
@@ -30748,7 +30759,7 @@
       <c r="AG804" s="17"/>
       <c r="AH804" s="17"/>
       <c r="AI804" s="17"/>
-      <c r="AJ804" s="4"/>
+      <c r="AJ804" s="18"/>
     </row>
     <row r="805" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A805" s="17"/>
@@ -30786,7 +30797,7 @@
       <c r="AG805" s="17"/>
       <c r="AH805" s="17"/>
       <c r="AI805" s="17"/>
-      <c r="AJ805" s="4"/>
+      <c r="AJ805" s="18"/>
     </row>
     <row r="806" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A806" s="17"/>
@@ -30824,7 +30835,7 @@
       <c r="AG806" s="17"/>
       <c r="AH806" s="17"/>
       <c r="AI806" s="17"/>
-      <c r="AJ806" s="4"/>
+      <c r="AJ806" s="18"/>
     </row>
     <row r="807" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A807" s="17"/>
@@ -30862,7 +30873,7 @@
       <c r="AG807" s="17"/>
       <c r="AH807" s="17"/>
       <c r="AI807" s="17"/>
-      <c r="AJ807" s="4"/>
+      <c r="AJ807" s="18"/>
     </row>
     <row r="808" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A808" s="17"/>
@@ -30900,7 +30911,7 @@
       <c r="AG808" s="17"/>
       <c r="AH808" s="17"/>
       <c r="AI808" s="17"/>
-      <c r="AJ808" s="4"/>
+      <c r="AJ808" s="18"/>
     </row>
     <row r="809" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A809" s="17"/>
@@ -30938,7 +30949,7 @@
       <c r="AG809" s="17"/>
       <c r="AH809" s="17"/>
       <c r="AI809" s="17"/>
-      <c r="AJ809" s="4"/>
+      <c r="AJ809" s="18"/>
     </row>
     <row r="810" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A810" s="17"/>
@@ -30976,7 +30987,7 @@
       <c r="AG810" s="17"/>
       <c r="AH810" s="17"/>
       <c r="AI810" s="17"/>
-      <c r="AJ810" s="4"/>
+      <c r="AJ810" s="18"/>
     </row>
     <row r="811" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A811" s="17"/>
@@ -31014,7 +31025,7 @@
       <c r="AG811" s="17"/>
       <c r="AH811" s="17"/>
       <c r="AI811" s="17"/>
-      <c r="AJ811" s="4"/>
+      <c r="AJ811" s="18"/>
     </row>
     <row r="812" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A812" s="17"/>
@@ -31052,7 +31063,7 @@
       <c r="AG812" s="17"/>
       <c r="AH812" s="17"/>
       <c r="AI812" s="17"/>
-      <c r="AJ812" s="4"/>
+      <c r="AJ812" s="18"/>
     </row>
     <row r="813" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A813" s="17"/>
@@ -31090,7 +31101,7 @@
       <c r="AG813" s="17"/>
       <c r="AH813" s="17"/>
       <c r="AI813" s="17"/>
-      <c r="AJ813" s="4"/>
+      <c r="AJ813" s="18"/>
     </row>
     <row r="814" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A814" s="17"/>
@@ -31128,7 +31139,7 @@
       <c r="AG814" s="17"/>
       <c r="AH814" s="17"/>
       <c r="AI814" s="17"/>
-      <c r="AJ814" s="4"/>
+      <c r="AJ814" s="18"/>
     </row>
     <row r="815" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A815" s="17"/>
@@ -31166,7 +31177,7 @@
       <c r="AG815" s="17"/>
       <c r="AH815" s="17"/>
       <c r="AI815" s="17"/>
-      <c r="AJ815" s="4"/>
+      <c r="AJ815" s="18"/>
     </row>
     <row r="816" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A816" s="17"/>
@@ -31204,7 +31215,7 @@
       <c r="AG816" s="17"/>
       <c r="AH816" s="17"/>
       <c r="AI816" s="17"/>
-      <c r="AJ816" s="4"/>
+      <c r="AJ816" s="18"/>
     </row>
     <row r="817" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A817" s="17"/>
@@ -31242,7 +31253,7 @@
       <c r="AG817" s="17"/>
       <c r="AH817" s="17"/>
       <c r="AI817" s="17"/>
-      <c r="AJ817" s="4"/>
+      <c r="AJ817" s="18"/>
     </row>
     <row r="818" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A818" s="17"/>
@@ -31280,7 +31291,7 @@
       <c r="AG818" s="17"/>
       <c r="AH818" s="17"/>
       <c r="AI818" s="17"/>
-      <c r="AJ818" s="4"/>
+      <c r="AJ818" s="18"/>
     </row>
     <row r="819" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A819" s="17"/>
@@ -31318,7 +31329,7 @@
       <c r="AG819" s="17"/>
       <c r="AH819" s="17"/>
       <c r="AI819" s="17"/>
-      <c r="AJ819" s="4"/>
+      <c r="AJ819" s="18"/>
     </row>
     <row r="820" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A820" s="17"/>
@@ -31356,7 +31367,7 @@
       <c r="AG820" s="17"/>
       <c r="AH820" s="17"/>
       <c r="AI820" s="17"/>
-      <c r="AJ820" s="4"/>
+      <c r="AJ820" s="18"/>
     </row>
     <row r="821" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A821" s="17"/>
@@ -31394,7 +31405,7 @@
       <c r="AG821" s="17"/>
       <c r="AH821" s="17"/>
       <c r="AI821" s="17"/>
-      <c r="AJ821" s="4"/>
+      <c r="AJ821" s="18"/>
     </row>
     <row r="822" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A822" s="17"/>
@@ -31432,7 +31443,7 @@
       <c r="AG822" s="17"/>
       <c r="AH822" s="17"/>
       <c r="AI822" s="17"/>
-      <c r="AJ822" s="4"/>
+      <c r="AJ822" s="18"/>
     </row>
     <row r="823" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A823" s="17"/>
@@ -31470,7 +31481,7 @@
       <c r="AG823" s="17"/>
       <c r="AH823" s="17"/>
       <c r="AI823" s="17"/>
-      <c r="AJ823" s="4"/>
+      <c r="AJ823" s="18"/>
     </row>
     <row r="824" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A824" s="17"/>
@@ -31508,7 +31519,7 @@
       <c r="AG824" s="17"/>
       <c r="AH824" s="17"/>
       <c r="AI824" s="17"/>
-      <c r="AJ824" s="4"/>
+      <c r="AJ824" s="18"/>
     </row>
     <row r="825" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A825" s="17"/>
@@ -31546,7 +31557,7 @@
       <c r="AG825" s="17"/>
       <c r="AH825" s="17"/>
       <c r="AI825" s="17"/>
-      <c r="AJ825" s="4"/>
+      <c r="AJ825" s="18"/>
     </row>
     <row r="826" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A826" s="17"/>
@@ -31584,7 +31595,7 @@
       <c r="AG826" s="17"/>
       <c r="AH826" s="17"/>
       <c r="AI826" s="17"/>
-      <c r="AJ826" s="4"/>
+      <c r="AJ826" s="18"/>
     </row>
     <row r="827" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A827" s="17"/>
@@ -31622,7 +31633,7 @@
       <c r="AG827" s="17"/>
       <c r="AH827" s="17"/>
       <c r="AI827" s="17"/>
-      <c r="AJ827" s="4"/>
+      <c r="AJ827" s="18"/>
     </row>
     <row r="828" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A828" s="17"/>
@@ -31660,7 +31671,7 @@
       <c r="AG828" s="17"/>
       <c r="AH828" s="17"/>
       <c r="AI828" s="17"/>
-      <c r="AJ828" s="4"/>
+      <c r="AJ828" s="18"/>
     </row>
     <row r="829" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A829" s="17"/>
@@ -31698,7 +31709,7 @@
       <c r="AG829" s="17"/>
       <c r="AH829" s="17"/>
       <c r="AI829" s="17"/>
-      <c r="AJ829" s="4"/>
+      <c r="AJ829" s="18"/>
     </row>
     <row r="830" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A830" s="17"/>
@@ -31736,7 +31747,7 @@
       <c r="AG830" s="17"/>
       <c r="AH830" s="17"/>
       <c r="AI830" s="17"/>
-      <c r="AJ830" s="4"/>
+      <c r="AJ830" s="18"/>
     </row>
     <row r="831" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A831" s="17"/>
@@ -31774,7 +31785,7 @@
       <c r="AG831" s="17"/>
       <c r="AH831" s="17"/>
       <c r="AI831" s="17"/>
-      <c r="AJ831" s="4"/>
+      <c r="AJ831" s="18"/>
     </row>
     <row r="832" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A832" s="17"/>
@@ -31812,7 +31823,7 @@
       <c r="AG832" s="17"/>
       <c r="AH832" s="17"/>
       <c r="AI832" s="17"/>
-      <c r="AJ832" s="4"/>
+      <c r="AJ832" s="18"/>
     </row>
     <row r="833" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A833" s="17"/>
@@ -31850,7 +31861,7 @@
       <c r="AG833" s="17"/>
       <c r="AH833" s="17"/>
       <c r="AI833" s="17"/>
-      <c r="AJ833" s="4"/>
+      <c r="AJ833" s="18"/>
     </row>
     <row r="834" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A834" s="17"/>
@@ -31888,7 +31899,7 @@
       <c r="AG834" s="17"/>
       <c r="AH834" s="17"/>
       <c r="AI834" s="17"/>
-      <c r="AJ834" s="4"/>
+      <c r="AJ834" s="18"/>
     </row>
     <row r="835" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A835" s="17"/>
@@ -31926,7 +31937,7 @@
       <c r="AG835" s="17"/>
       <c r="AH835" s="17"/>
       <c r="AI835" s="17"/>
-      <c r="AJ835" s="4"/>
+      <c r="AJ835" s="18"/>
     </row>
     <row r="836" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A836" s="17"/>
@@ -31964,7 +31975,7 @@
       <c r="AG836" s="17"/>
       <c r="AH836" s="17"/>
       <c r="AI836" s="17"/>
-      <c r="AJ836" s="4"/>
+      <c r="AJ836" s="18"/>
     </row>
     <row r="837" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A837" s="17"/>
@@ -32002,7 +32013,7 @@
       <c r="AG837" s="17"/>
       <c r="AH837" s="17"/>
       <c r="AI837" s="17"/>
-      <c r="AJ837" s="4"/>
+      <c r="AJ837" s="18"/>
     </row>
     <row r="838" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A838" s="17"/>
@@ -32040,7 +32051,7 @@
       <c r="AG838" s="17"/>
       <c r="AH838" s="17"/>
       <c r="AI838" s="17"/>
-      <c r="AJ838" s="4"/>
+      <c r="AJ838" s="18"/>
     </row>
     <row r="839" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A839" s="17"/>
@@ -32078,7 +32089,7 @@
       <c r="AG839" s="17"/>
       <c r="AH839" s="17"/>
       <c r="AI839" s="17"/>
-      <c r="AJ839" s="4"/>
+      <c r="AJ839" s="18"/>
     </row>
     <row r="840" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A840" s="17"/>
@@ -32116,7 +32127,7 @@
       <c r="AG840" s="17"/>
       <c r="AH840" s="17"/>
       <c r="AI840" s="17"/>
-      <c r="AJ840" s="4"/>
+      <c r="AJ840" s="18"/>
     </row>
     <row r="841" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A841" s="17"/>
@@ -32154,7 +32165,7 @@
       <c r="AG841" s="17"/>
       <c r="AH841" s="17"/>
       <c r="AI841" s="17"/>
-      <c r="AJ841" s="4"/>
+      <c r="AJ841" s="18"/>
     </row>
     <row r="842" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A842" s="17"/>
@@ -32192,7 +32203,7 @@
       <c r="AG842" s="17"/>
       <c r="AH842" s="17"/>
       <c r="AI842" s="17"/>
-      <c r="AJ842" s="4"/>
+      <c r="AJ842" s="18"/>
     </row>
     <row r="843" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A843" s="17"/>
@@ -32230,7 +32241,7 @@
       <c r="AG843" s="17"/>
       <c r="AH843" s="17"/>
       <c r="AI843" s="17"/>
-      <c r="AJ843" s="4"/>
+      <c r="AJ843" s="18"/>
     </row>
     <row r="844" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A844" s="17"/>
@@ -32268,7 +32279,7 @@
       <c r="AG844" s="17"/>
       <c r="AH844" s="17"/>
       <c r="AI844" s="17"/>
-      <c r="AJ844" s="4"/>
+      <c r="AJ844" s="18"/>
     </row>
     <row r="845" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A845" s="17"/>
@@ -32306,7 +32317,7 @@
       <c r="AG845" s="17"/>
       <c r="AH845" s="17"/>
       <c r="AI845" s="17"/>
-      <c r="AJ845" s="4"/>
+      <c r="AJ845" s="18"/>
     </row>
     <row r="846" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A846" s="17"/>
@@ -32344,7 +32355,7 @@
       <c r="AG846" s="17"/>
       <c r="AH846" s="17"/>
       <c r="AI846" s="17"/>
-      <c r="AJ846" s="4"/>
+      <c r="AJ846" s="18"/>
     </row>
     <row r="847" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A847" s="17"/>
@@ -32382,7 +32393,7 @@
       <c r="AG847" s="17"/>
       <c r="AH847" s="17"/>
       <c r="AI847" s="17"/>
-      <c r="AJ847" s="4"/>
+      <c r="AJ847" s="18"/>
     </row>
     <row r="848" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A848" s="17"/>
@@ -32420,7 +32431,7 @@
       <c r="AG848" s="17"/>
       <c r="AH848" s="17"/>
       <c r="AI848" s="17"/>
-      <c r="AJ848" s="4"/>
+      <c r="AJ848" s="18"/>
     </row>
     <row r="849" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A849" s="17"/>
@@ -32458,7 +32469,7 @@
       <c r="AG849" s="17"/>
       <c r="AH849" s="17"/>
       <c r="AI849" s="17"/>
-      <c r="AJ849" s="4"/>
+      <c r="AJ849" s="18"/>
     </row>
     <row r="850" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A850" s="17"/>
@@ -32496,7 +32507,7 @@
       <c r="AG850" s="17"/>
       <c r="AH850" s="17"/>
       <c r="AI850" s="17"/>
-      <c r="AJ850" s="4"/>
+      <c r="AJ850" s="18"/>
     </row>
     <row r="851" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A851" s="17"/>
@@ -32534,7 +32545,7 @@
       <c r="AG851" s="17"/>
       <c r="AH851" s="17"/>
       <c r="AI851" s="17"/>
-      <c r="AJ851" s="4"/>
+      <c r="AJ851" s="18"/>
     </row>
     <row r="852" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A852" s="17"/>
@@ -32572,7 +32583,7 @@
       <c r="AG852" s="17"/>
       <c r="AH852" s="17"/>
       <c r="AI852" s="17"/>
-      <c r="AJ852" s="4"/>
+      <c r="AJ852" s="18"/>
     </row>
     <row r="853" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A853" s="17"/>
@@ -32610,7 +32621,7 @@
       <c r="AG853" s="17"/>
       <c r="AH853" s="17"/>
       <c r="AI853" s="17"/>
-      <c r="AJ853" s="4"/>
+      <c r="AJ853" s="18"/>
     </row>
     <row r="854" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A854" s="17"/>
@@ -32648,7 +32659,7 @@
       <c r="AG854" s="17"/>
       <c r="AH854" s="17"/>
       <c r="AI854" s="17"/>
-      <c r="AJ854" s="4"/>
+      <c r="AJ854" s="18"/>
     </row>
     <row r="855" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A855" s="17"/>
@@ -32686,7 +32697,7 @@
       <c r="AG855" s="17"/>
       <c r="AH855" s="17"/>
       <c r="AI855" s="17"/>
-      <c r="AJ855" s="4"/>
+      <c r="AJ855" s="18"/>
     </row>
     <row r="856" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A856" s="17"/>
@@ -32724,7 +32735,7 @@
       <c r="AG856" s="17"/>
       <c r="AH856" s="17"/>
       <c r="AI856" s="17"/>
-      <c r="AJ856" s="4"/>
+      <c r="AJ856" s="18"/>
     </row>
     <row r="857" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A857" s="17"/>
@@ -32762,7 +32773,7 @@
       <c r="AG857" s="17"/>
       <c r="AH857" s="17"/>
       <c r="AI857" s="17"/>
-      <c r="AJ857" s="4"/>
+      <c r="AJ857" s="18"/>
     </row>
     <row r="858" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A858" s="17"/>
@@ -32800,7 +32811,7 @@
       <c r="AG858" s="17"/>
       <c r="AH858" s="17"/>
       <c r="AI858" s="17"/>
-      <c r="AJ858" s="4"/>
+      <c r="AJ858" s="18"/>
     </row>
     <row r="859" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A859" s="17"/>
@@ -32838,7 +32849,7 @@
       <c r="AG859" s="17"/>
       <c r="AH859" s="17"/>
       <c r="AI859" s="17"/>
-      <c r="AJ859" s="4"/>
+      <c r="AJ859" s="18"/>
     </row>
     <row r="860" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A860" s="17"/>
@@ -32876,7 +32887,7 @@
       <c r="AG860" s="17"/>
       <c r="AH860" s="17"/>
       <c r="AI860" s="17"/>
-      <c r="AJ860" s="4"/>
+      <c r="AJ860" s="18"/>
     </row>
     <row r="861" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A861" s="17"/>
@@ -32914,7 +32925,7 @@
       <c r="AG861" s="17"/>
       <c r="AH861" s="17"/>
       <c r="AI861" s="17"/>
-      <c r="AJ861" s="4"/>
+      <c r="AJ861" s="18"/>
     </row>
     <row r="862" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A862" s="17"/>
@@ -32952,7 +32963,7 @@
       <c r="AG862" s="17"/>
       <c r="AH862" s="17"/>
       <c r="AI862" s="17"/>
-      <c r="AJ862" s="4"/>
+      <c r="AJ862" s="18"/>
     </row>
     <row r="863" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A863" s="17"/>
@@ -32990,7 +33001,7 @@
       <c r="AG863" s="17"/>
       <c r="AH863" s="17"/>
       <c r="AI863" s="17"/>
-      <c r="AJ863" s="4"/>
+      <c r="AJ863" s="18"/>
     </row>
     <row r="864" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A864" s="17"/>
@@ -33028,7 +33039,7 @@
       <c r="AG864" s="17"/>
       <c r="AH864" s="17"/>
       <c r="AI864" s="17"/>
-      <c r="AJ864" s="4"/>
+      <c r="AJ864" s="18"/>
     </row>
     <row r="865" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A865" s="17"/>
@@ -33066,7 +33077,7 @@
       <c r="AG865" s="17"/>
       <c r="AH865" s="17"/>
       <c r="AI865" s="17"/>
-      <c r="AJ865" s="4"/>
+      <c r="AJ865" s="18"/>
     </row>
     <row r="866" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A866" s="17"/>
@@ -33104,7 +33115,7 @@
       <c r="AG866" s="17"/>
       <c r="AH866" s="17"/>
       <c r="AI866" s="17"/>
-      <c r="AJ866" s="4"/>
+      <c r="AJ866" s="18"/>
     </row>
     <row r="867" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A867" s="17"/>
@@ -33142,7 +33153,7 @@
       <c r="AG867" s="17"/>
       <c r="AH867" s="17"/>
       <c r="AI867" s="17"/>
-      <c r="AJ867" s="4"/>
+      <c r="AJ867" s="18"/>
     </row>
     <row r="868" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A868" s="17"/>
@@ -33180,7 +33191,7 @@
       <c r="AG868" s="17"/>
       <c r="AH868" s="17"/>
       <c r="AI868" s="17"/>
-      <c r="AJ868" s="4"/>
+      <c r="AJ868" s="18"/>
     </row>
     <row r="869" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A869" s="17"/>
@@ -33218,7 +33229,7 @@
       <c r="AG869" s="17"/>
       <c r="AH869" s="17"/>
       <c r="AI869" s="17"/>
-      <c r="AJ869" s="4"/>
+      <c r="AJ869" s="18"/>
     </row>
     <row r="870" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A870" s="17"/>
@@ -33256,7 +33267,7 @@
       <c r="AG870" s="17"/>
       <c r="AH870" s="17"/>
       <c r="AI870" s="17"/>
-      <c r="AJ870" s="4"/>
+      <c r="AJ870" s="18"/>
     </row>
     <row r="871" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A871" s="17"/>
@@ -33294,7 +33305,7 @@
       <c r="AG871" s="17"/>
       <c r="AH871" s="17"/>
       <c r="AI871" s="17"/>
-      <c r="AJ871" s="4"/>
+      <c r="AJ871" s="18"/>
     </row>
     <row r="872" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A872" s="17"/>
@@ -33332,7 +33343,7 @@
       <c r="AG872" s="17"/>
       <c r="AH872" s="17"/>
       <c r="AI872" s="17"/>
-      <c r="AJ872" s="4"/>
+      <c r="AJ872" s="18"/>
     </row>
     <row r="873" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A873" s="17"/>
@@ -33370,7 +33381,7 @@
       <c r="AG873" s="17"/>
       <c r="AH873" s="17"/>
       <c r="AI873" s="17"/>
-      <c r="AJ873" s="4"/>
+      <c r="AJ873" s="18"/>
     </row>
     <row r="874" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A874" s="17"/>
@@ -33408,7 +33419,7 @@
       <c r="AG874" s="17"/>
       <c r="AH874" s="17"/>
       <c r="AI874" s="17"/>
-      <c r="AJ874" s="4"/>
+      <c r="AJ874" s="18"/>
     </row>
     <row r="875" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A875" s="17"/>
@@ -33446,7 +33457,7 @@
       <c r="AG875" s="17"/>
       <c r="AH875" s="17"/>
       <c r="AI875" s="17"/>
-      <c r="AJ875" s="4"/>
+      <c r="AJ875" s="18"/>
     </row>
     <row r="876" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A876" s="17"/>
@@ -33484,7 +33495,7 @@
       <c r="AG876" s="17"/>
       <c r="AH876" s="17"/>
       <c r="AI876" s="17"/>
-      <c r="AJ876" s="4"/>
+      <c r="AJ876" s="18"/>
     </row>
     <row r="877" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A877" s="17"/>
@@ -33522,7 +33533,7 @@
       <c r="AG877" s="17"/>
       <c r="AH877" s="17"/>
       <c r="AI877" s="17"/>
-      <c r="AJ877" s="4"/>
+      <c r="AJ877" s="18"/>
     </row>
     <row r="878" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A878" s="17"/>
@@ -33560,7 +33571,7 @@
       <c r="AG878" s="17"/>
       <c r="AH878" s="17"/>
       <c r="AI878" s="17"/>
-      <c r="AJ878" s="4"/>
+      <c r="AJ878" s="18"/>
     </row>
     <row r="879" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A879" s="17"/>
@@ -33598,7 +33609,7 @@
       <c r="AG879" s="17"/>
       <c r="AH879" s="17"/>
       <c r="AI879" s="17"/>
-      <c r="AJ879" s="4"/>
+      <c r="AJ879" s="18"/>
     </row>
     <row r="880" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A880" s="17"/>
@@ -33636,7 +33647,7 @@
       <c r="AG880" s="17"/>
       <c r="AH880" s="17"/>
       <c r="AI880" s="17"/>
-      <c r="AJ880" s="4"/>
+      <c r="AJ880" s="18"/>
     </row>
     <row r="881" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A881" s="17"/>
@@ -33674,7 +33685,7 @@
       <c r="AG881" s="17"/>
       <c r="AH881" s="17"/>
       <c r="AI881" s="17"/>
-      <c r="AJ881" s="4"/>
+      <c r="AJ881" s="18"/>
     </row>
     <row r="882" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A882" s="17"/>
@@ -33712,7 +33723,7 @@
       <c r="AG882" s="17"/>
       <c r="AH882" s="17"/>
       <c r="AI882" s="17"/>
-      <c r="AJ882" s="4"/>
+      <c r="AJ882" s="18"/>
     </row>
     <row r="883" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A883" s="17"/>
@@ -33750,7 +33761,7 @@
       <c r="AG883" s="17"/>
       <c r="AH883" s="17"/>
       <c r="AI883" s="17"/>
-      <c r="AJ883" s="4"/>
+      <c r="AJ883" s="18"/>
     </row>
     <row r="884" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A884" s="17"/>
@@ -33788,7 +33799,7 @@
       <c r="AG884" s="17"/>
       <c r="AH884" s="17"/>
       <c r="AI884" s="17"/>
-      <c r="AJ884" s="4"/>
+      <c r="AJ884" s="18"/>
     </row>
     <row r="885" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A885" s="17"/>
@@ -33826,7 +33837,7 @@
       <c r="AG885" s="17"/>
       <c r="AH885" s="17"/>
       <c r="AI885" s="17"/>
-      <c r="AJ885" s="4"/>
+      <c r="AJ885" s="18"/>
     </row>
     <row r="886" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A886" s="17"/>
@@ -33864,7 +33875,7 @@
       <c r="AG886" s="17"/>
       <c r="AH886" s="17"/>
       <c r="AI886" s="17"/>
-      <c r="AJ886" s="4"/>
+      <c r="AJ886" s="18"/>
     </row>
     <row r="887" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A887" s="17"/>
@@ -33902,7 +33913,7 @@
       <c r="AG887" s="17"/>
       <c r="AH887" s="17"/>
       <c r="AI887" s="17"/>
-      <c r="AJ887" s="4"/>
+      <c r="AJ887" s="18"/>
     </row>
     <row r="888" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A888" s="17"/>
@@ -33940,7 +33951,7 @@
       <c r="AG888" s="17"/>
       <c r="AH888" s="17"/>
       <c r="AI888" s="17"/>
-      <c r="AJ888" s="4"/>
+      <c r="AJ888" s="18"/>
     </row>
     <row r="889" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A889" s="17"/>
@@ -33978,7 +33989,7 @@
       <c r="AG889" s="17"/>
       <c r="AH889" s="17"/>
       <c r="AI889" s="17"/>
-      <c r="AJ889" s="4"/>
+      <c r="AJ889" s="18"/>
     </row>
     <row r="890" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A890" s="17"/>
@@ -34016,7 +34027,7 @@
       <c r="AG890" s="17"/>
       <c r="AH890" s="17"/>
       <c r="AI890" s="17"/>
-      <c r="AJ890" s="4"/>
+      <c r="AJ890" s="18"/>
     </row>
     <row r="891" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A891" s="17"/>
@@ -34054,7 +34065,7 @@
       <c r="AG891" s="17"/>
       <c r="AH891" s="17"/>
       <c r="AI891" s="17"/>
-      <c r="AJ891" s="4"/>
+      <c r="AJ891" s="18"/>
     </row>
     <row r="892" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A892" s="17"/>
@@ -34092,7 +34103,7 @@
       <c r="AG892" s="17"/>
       <c r="AH892" s="17"/>
       <c r="AI892" s="17"/>
-      <c r="AJ892" s="4"/>
+      <c r="AJ892" s="18"/>
     </row>
     <row r="893" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A893" s="17"/>
@@ -34130,7 +34141,7 @@
       <c r="AG893" s="17"/>
       <c r="AH893" s="17"/>
       <c r="AI893" s="17"/>
-      <c r="AJ893" s="4"/>
+      <c r="AJ893" s="18"/>
     </row>
     <row r="894" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A894" s="17"/>
@@ -34168,7 +34179,7 @@
       <c r="AG894" s="17"/>
       <c r="AH894" s="17"/>
       <c r="AI894" s="17"/>
-      <c r="AJ894" s="4"/>
+      <c r="AJ894" s="18"/>
     </row>
     <row r="895" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A895" s="17"/>
@@ -34206,7 +34217,7 @@
       <c r="AG895" s="17"/>
       <c r="AH895" s="17"/>
       <c r="AI895" s="17"/>
-      <c r="AJ895" s="4"/>
+      <c r="AJ895" s="18"/>
     </row>
     <row r="896" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A896" s="17"/>
@@ -34244,7 +34255,7 @@
       <c r="AG896" s="17"/>
       <c r="AH896" s="17"/>
       <c r="AI896" s="17"/>
-      <c r="AJ896" s="4"/>
+      <c r="AJ896" s="18"/>
     </row>
     <row r="897" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A897" s="17"/>
@@ -34282,7 +34293,7 @@
       <c r="AG897" s="17"/>
       <c r="AH897" s="17"/>
       <c r="AI897" s="17"/>
-      <c r="AJ897" s="4"/>
+      <c r="AJ897" s="18"/>
     </row>
     <row r="898" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A898" s="17"/>
@@ -34320,7 +34331,7 @@
       <c r="AG898" s="17"/>
       <c r="AH898" s="17"/>
       <c r="AI898" s="17"/>
-      <c r="AJ898" s="4"/>
+      <c r="AJ898" s="18"/>
     </row>
     <row r="899" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A899" s="17"/>
@@ -34358,7 +34369,7 @@
       <c r="AG899" s="17"/>
       <c r="AH899" s="17"/>
       <c r="AI899" s="17"/>
-      <c r="AJ899" s="4"/>
+      <c r="AJ899" s="18"/>
     </row>
     <row r="900" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A900" s="17"/>
@@ -34396,7 +34407,7 @@
       <c r="AG900" s="17"/>
       <c r="AH900" s="17"/>
       <c r="AI900" s="17"/>
-      <c r="AJ900" s="4"/>
+      <c r="AJ900" s="18"/>
     </row>
     <row r="901" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A901" s="17"/>
@@ -34434,7 +34445,7 @@
       <c r="AG901" s="17"/>
       <c r="AH901" s="17"/>
       <c r="AI901" s="17"/>
-      <c r="AJ901" s="4"/>
+      <c r="AJ901" s="18"/>
     </row>
     <row r="902" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A902" s="17"/>
@@ -34472,7 +34483,7 @@
       <c r="AG902" s="17"/>
       <c r="AH902" s="17"/>
       <c r="AI902" s="17"/>
-      <c r="AJ902" s="4"/>
+      <c r="AJ902" s="18"/>
     </row>
     <row r="903" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A903" s="17"/>
@@ -34510,7 +34521,7 @@
       <c r="AG903" s="17"/>
       <c r="AH903" s="17"/>
       <c r="AI903" s="17"/>
-      <c r="AJ903" s="4"/>
+      <c r="AJ903" s="18"/>
     </row>
     <row r="904" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A904" s="17"/>
@@ -34548,7 +34559,7 @@
       <c r="AG904" s="17"/>
       <c r="AH904" s="17"/>
       <c r="AI904" s="17"/>
-      <c r="AJ904" s="4"/>
+      <c r="AJ904" s="18"/>
     </row>
     <row r="905" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A905" s="17"/>
@@ -34586,7 +34597,7 @@
       <c r="AG905" s="17"/>
       <c r="AH905" s="17"/>
       <c r="AI905" s="17"/>
-      <c r="AJ905" s="4"/>
+      <c r="AJ905" s="18"/>
     </row>
     <row r="906" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A906" s="17"/>
@@ -34624,7 +34635,7 @@
       <c r="AG906" s="17"/>
       <c r="AH906" s="17"/>
       <c r="AI906" s="17"/>
-      <c r="AJ906" s="4"/>
+      <c r="AJ906" s="18"/>
     </row>
     <row r="907" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A907" s="17"/>
@@ -34662,7 +34673,7 @@
       <c r="AG907" s="17"/>
       <c r="AH907" s="17"/>
       <c r="AI907" s="17"/>
-      <c r="AJ907" s="4"/>
+      <c r="AJ907" s="18"/>
     </row>
     <row r="908" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A908" s="17"/>
@@ -34700,7 +34711,7 @@
       <c r="AG908" s="17"/>
       <c r="AH908" s="17"/>
       <c r="AI908" s="17"/>
-      <c r="AJ908" s="4"/>
+      <c r="AJ908" s="18"/>
     </row>
     <row r="909" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A909" s="17"/>
@@ -34738,7 +34749,7 @@
       <c r="AG909" s="17"/>
       <c r="AH909" s="17"/>
       <c r="AI909" s="17"/>
-      <c r="AJ909" s="4"/>
+      <c r="AJ909" s="18"/>
     </row>
     <row r="910" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A910" s="17"/>
@@ -34776,7 +34787,7 @@
       <c r="AG910" s="17"/>
       <c r="AH910" s="17"/>
       <c r="AI910" s="17"/>
-      <c r="AJ910" s="4"/>
+      <c r="AJ910" s="18"/>
     </row>
     <row r="911" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A911" s="17"/>
@@ -34814,7 +34825,7 @@
       <c r="AG911" s="17"/>
       <c r="AH911" s="17"/>
       <c r="AI911" s="17"/>
-      <c r="AJ911" s="4"/>
+      <c r="AJ911" s="18"/>
     </row>
     <row r="912" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A912" s="17"/>
@@ -34852,7 +34863,7 @@
       <c r="AG912" s="17"/>
       <c r="AH912" s="17"/>
       <c r="AI912" s="17"/>
-      <c r="AJ912" s="4"/>
+      <c r="AJ912" s="18"/>
     </row>
     <row r="913" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A913" s="17"/>
@@ -34890,7 +34901,7 @@
       <c r="AG913" s="17"/>
       <c r="AH913" s="17"/>
       <c r="AI913" s="17"/>
-      <c r="AJ913" s="4"/>
+      <c r="AJ913" s="18"/>
     </row>
     <row r="914" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A914" s="17"/>
@@ -34928,7 +34939,7 @@
       <c r="AG914" s="17"/>
       <c r="AH914" s="17"/>
       <c r="AI914" s="17"/>
-      <c r="AJ914" s="4"/>
+      <c r="AJ914" s="18"/>
     </row>
     <row r="915" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A915" s="17"/>
@@ -34966,7 +34977,7 @@
       <c r="AG915" s="17"/>
       <c r="AH915" s="17"/>
       <c r="AI915" s="17"/>
-      <c r="AJ915" s="4"/>
+      <c r="AJ915" s="18"/>
     </row>
     <row r="916" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A916" s="17"/>
@@ -35004,7 +35015,7 @@
       <c r="AG916" s="17"/>
       <c r="AH916" s="17"/>
       <c r="AI916" s="17"/>
-      <c r="AJ916" s="4"/>
+      <c r="AJ916" s="18"/>
     </row>
     <row r="917" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A917" s="17"/>
@@ -35042,7 +35053,7 @@
       <c r="AG917" s="17"/>
       <c r="AH917" s="17"/>
       <c r="AI917" s="17"/>
-      <c r="AJ917" s="4"/>
+      <c r="AJ917" s="18"/>
     </row>
     <row r="918" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A918" s="17"/>
@@ -35080,7 +35091,7 @@
       <c r="AG918" s="17"/>
       <c r="AH918" s="17"/>
       <c r="AI918" s="17"/>
-      <c r="AJ918" s="4"/>
+      <c r="AJ918" s="18"/>
     </row>
     <row r="919" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A919" s="17"/>
@@ -35118,7 +35129,7 @@
       <c r="AG919" s="17"/>
       <c r="AH919" s="17"/>
       <c r="AI919" s="17"/>
-      <c r="AJ919" s="4"/>
+      <c r="AJ919" s="18"/>
     </row>
     <row r="920" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A920" s="17"/>
@@ -35156,7 +35167,7 @@
       <c r="AG920" s="17"/>
       <c r="AH920" s="17"/>
       <c r="AI920" s="17"/>
-      <c r="AJ920" s="4"/>
+      <c r="AJ920" s="18"/>
     </row>
     <row r="921" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A921" s="17"/>
@@ -35194,7 +35205,7 @@
       <c r="AG921" s="17"/>
       <c r="AH921" s="17"/>
       <c r="AI921" s="17"/>
-      <c r="AJ921" s="4"/>
+      <c r="AJ921" s="18"/>
     </row>
     <row r="922" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A922" s="17"/>
@@ -35232,7 +35243,7 @@
       <c r="AG922" s="17"/>
       <c r="AH922" s="17"/>
       <c r="AI922" s="17"/>
-      <c r="AJ922" s="4"/>
+      <c r="AJ922" s="18"/>
     </row>
     <row r="923" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A923" s="17"/>
@@ -35270,7 +35281,7 @@
       <c r="AG923" s="17"/>
       <c r="AH923" s="17"/>
       <c r="AI923" s="17"/>
-      <c r="AJ923" s="4"/>
+      <c r="AJ923" s="18"/>
     </row>
     <row r="924" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A924" s="17"/>
@@ -35308,7 +35319,7 @@
       <c r="AG924" s="17"/>
       <c r="AH924" s="17"/>
       <c r="AI924" s="17"/>
-      <c r="AJ924" s="4"/>
+      <c r="AJ924" s="18"/>
     </row>
     <row r="925" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A925" s="17"/>
@@ -35346,7 +35357,7 @@
       <c r="AG925" s="17"/>
       <c r="AH925" s="17"/>
       <c r="AI925" s="17"/>
-      <c r="AJ925" s="4"/>
+      <c r="AJ925" s="18"/>
     </row>
     <row r="926" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A926" s="17"/>
@@ -35384,7 +35395,7 @@
       <c r="AG926" s="17"/>
       <c r="AH926" s="17"/>
       <c r="AI926" s="17"/>
-      <c r="AJ926" s="4"/>
+      <c r="AJ926" s="18"/>
     </row>
     <row r="927" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A927" s="17"/>
@@ -35422,7 +35433,7 @@
       <c r="AG927" s="17"/>
       <c r="AH927" s="17"/>
       <c r="AI927" s="17"/>
-      <c r="AJ927" s="4"/>
+      <c r="AJ927" s="18"/>
     </row>
     <row r="928" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A928" s="17"/>
@@ -35460,7 +35471,7 @@
       <c r="AG928" s="17"/>
       <c r="AH928" s="17"/>
       <c r="AI928" s="17"/>
-      <c r="AJ928" s="4"/>
+      <c r="AJ928" s="18"/>
     </row>
     <row r="929" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A929" s="17"/>
@@ -35498,7 +35509,7 @@
       <c r="AG929" s="17"/>
       <c r="AH929" s="17"/>
       <c r="AI929" s="17"/>
-      <c r="AJ929" s="4"/>
+      <c r="AJ929" s="18"/>
     </row>
     <row r="930" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A930" s="17"/>
@@ -35536,7 +35547,7 @@
       <c r="AG930" s="17"/>
       <c r="AH930" s="17"/>
       <c r="AI930" s="17"/>
-      <c r="AJ930" s="4"/>
+      <c r="AJ930" s="18"/>
     </row>
     <row r="931" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A931" s="17"/>
@@ -35574,7 +35585,7 @@
       <c r="AG931" s="17"/>
       <c r="AH931" s="17"/>
       <c r="AI931" s="17"/>
-      <c r="AJ931" s="4"/>
+      <c r="AJ931" s="18"/>
     </row>
     <row r="932" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A932" s="17"/>
@@ -35612,7 +35623,7 @@
       <c r="AG932" s="17"/>
       <c r="AH932" s="17"/>
       <c r="AI932" s="17"/>
-      <c r="AJ932" s="4"/>
+      <c r="AJ932" s="18"/>
     </row>
     <row r="933" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A933" s="17"/>
@@ -35650,7 +35661,7 @@
       <c r="AG933" s="17"/>
       <c r="AH933" s="17"/>
       <c r="AI933" s="17"/>
-      <c r="AJ933" s="4"/>
+      <c r="AJ933" s="18"/>
     </row>
     <row r="934" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A934" s="17"/>
@@ -35688,7 +35699,7 @@
       <c r="AG934" s="17"/>
       <c r="AH934" s="17"/>
       <c r="AI934" s="17"/>
-      <c r="AJ934" s="4"/>
+      <c r="AJ934" s="18"/>
     </row>
     <row r="935" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A935" s="17"/>
@@ -35726,7 +35737,7 @@
       <c r="AG935" s="17"/>
       <c r="AH935" s="17"/>
       <c r="AI935" s="17"/>
-      <c r="AJ935" s="4"/>
+      <c r="AJ935" s="18"/>
     </row>
     <row r="936" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A936" s="17"/>
@@ -35764,7 +35775,7 @@
       <c r="AG936" s="17"/>
       <c r="AH936" s="17"/>
       <c r="AI936" s="17"/>
-      <c r="AJ936" s="4"/>
+      <c r="AJ936" s="18"/>
     </row>
     <row r="937" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A937" s="17"/>
@@ -35802,7 +35813,7 @@
       <c r="AG937" s="17"/>
       <c r="AH937" s="17"/>
       <c r="AI937" s="17"/>
-      <c r="AJ937" s="4"/>
+      <c r="AJ937" s="18"/>
     </row>
     <row r="938" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A938" s="17"/>
@@ -35840,7 +35851,7 @@
       <c r="AG938" s="17"/>
       <c r="AH938" s="17"/>
       <c r="AI938" s="17"/>
-      <c r="AJ938" s="4"/>
+      <c r="AJ938" s="18"/>
     </row>
     <row r="939" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A939" s="17"/>
@@ -35878,7 +35889,7 @@
       <c r="AG939" s="17"/>
       <c r="AH939" s="17"/>
       <c r="AI939" s="17"/>
-      <c r="AJ939" s="4"/>
+      <c r="AJ939" s="18"/>
     </row>
     <row r="940" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A940" s="17"/>
@@ -35916,7 +35927,7 @@
       <c r="AG940" s="17"/>
       <c r="AH940" s="17"/>
       <c r="AI940" s="17"/>
-      <c r="AJ940" s="4"/>
+      <c r="AJ940" s="18"/>
     </row>
     <row r="941" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A941" s="17"/>
@@ -35954,7 +35965,7 @@
       <c r="AG941" s="17"/>
       <c r="AH941" s="17"/>
       <c r="AI941" s="17"/>
-      <c r="AJ941" s="4"/>
+      <c r="AJ941" s="18"/>
     </row>
     <row r="942" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A942" s="17"/>
@@ -35992,7 +36003,7 @@
       <c r="AG942" s="17"/>
       <c r="AH942" s="17"/>
       <c r="AI942" s="17"/>
-      <c r="AJ942" s="4"/>
+      <c r="AJ942" s="18"/>
     </row>
     <row r="943" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A943" s="17"/>
@@ -36030,7 +36041,7 @@
       <c r="AG943" s="17"/>
       <c r="AH943" s="17"/>
       <c r="AI943" s="17"/>
-      <c r="AJ943" s="4"/>
+      <c r="AJ943" s="18"/>
     </row>
     <row r="944" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A944" s="17"/>
@@ -36068,7 +36079,7 @@
       <c r="AG944" s="17"/>
       <c r="AH944" s="17"/>
       <c r="AI944" s="17"/>
-      <c r="AJ944" s="4"/>
+      <c r="AJ944" s="18"/>
     </row>
     <row r="945" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A945" s="17"/>
@@ -36106,7 +36117,7 @@
       <c r="AG945" s="17"/>
       <c r="AH945" s="17"/>
       <c r="AI945" s="17"/>
-      <c r="AJ945" s="4"/>
+      <c r="AJ945" s="18"/>
     </row>
     <row r="946" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A946" s="17"/>
@@ -36144,7 +36155,7 @@
       <c r="AG946" s="17"/>
       <c r="AH946" s="17"/>
       <c r="AI946" s="17"/>
-      <c r="AJ946" s="4"/>
+      <c r="AJ946" s="18"/>
     </row>
     <row r="947" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A947" s="17"/>
@@ -36182,7 +36193,7 @@
       <c r="AG947" s="17"/>
       <c r="AH947" s="17"/>
       <c r="AI947" s="17"/>
-      <c r="AJ947" s="4"/>
+      <c r="AJ947" s="18"/>
     </row>
     <row r="948" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A948" s="17"/>
@@ -36220,7 +36231,7 @@
       <c r="AG948" s="17"/>
       <c r="AH948" s="17"/>
       <c r="AI948" s="17"/>
-      <c r="AJ948" s="4"/>
+      <c r="AJ948" s="18"/>
     </row>
     <row r="949" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A949" s="17"/>
@@ -36258,7 +36269,7 @@
       <c r="AG949" s="17"/>
       <c r="AH949" s="17"/>
       <c r="AI949" s="17"/>
-      <c r="AJ949" s="4"/>
+      <c r="AJ949" s="18"/>
     </row>
     <row r="950" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A950" s="17"/>
@@ -36296,7 +36307,7 @@
       <c r="AG950" s="17"/>
       <c r="AH950" s="17"/>
       <c r="AI950" s="17"/>
-      <c r="AJ950" s="4"/>
+      <c r="AJ950" s="18"/>
     </row>
     <row r="951" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A951" s="17"/>
@@ -36334,7 +36345,7 @@
       <c r="AG951" s="17"/>
       <c r="AH951" s="17"/>
       <c r="AI951" s="17"/>
-      <c r="AJ951" s="4"/>
+      <c r="AJ951" s="18"/>
     </row>
     <row r="952" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A952" s="17"/>
@@ -36372,7 +36383,7 @@
       <c r="AG952" s="17"/>
       <c r="AH952" s="17"/>
       <c r="AI952" s="17"/>
-      <c r="AJ952" s="4"/>
+      <c r="AJ952" s="18"/>
     </row>
     <row r="953" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A953" s="17"/>
@@ -36410,7 +36421,7 @@
       <c r="AG953" s="17"/>
       <c r="AH953" s="17"/>
       <c r="AI953" s="17"/>
-      <c r="AJ953" s="4"/>
+      <c r="AJ953" s="18"/>
     </row>
     <row r="954" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A954" s="17"/>
@@ -36448,7 +36459,7 @@
       <c r="AG954" s="17"/>
       <c r="AH954" s="17"/>
       <c r="AI954" s="17"/>
-      <c r="AJ954" s="4"/>
+      <c r="AJ954" s="18"/>
     </row>
     <row r="955" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A955" s="17"/>
@@ -36486,7 +36497,7 @@
       <c r="AG955" s="17"/>
       <c r="AH955" s="17"/>
       <c r="AI955" s="17"/>
-      <c r="AJ955" s="4"/>
+      <c r="AJ955" s="18"/>
     </row>
     <row r="956" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A956" s="17"/>
@@ -36524,7 +36535,7 @@
       <c r="AG956" s="17"/>
       <c r="AH956" s="17"/>
       <c r="AI956" s="17"/>
-      <c r="AJ956" s="4"/>
+      <c r="AJ956" s="18"/>
     </row>
     <row r="957" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A957" s="17"/>
@@ -36562,7 +36573,7 @@
       <c r="AG957" s="17"/>
       <c r="AH957" s="17"/>
       <c r="AI957" s="17"/>
-      <c r="AJ957" s="4"/>
+      <c r="AJ957" s="18"/>
     </row>
     <row r="958" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A958" s="17"/>
@@ -36600,7 +36611,7 @@
       <c r="AG958" s="17"/>
       <c r="AH958" s="17"/>
       <c r="AI958" s="17"/>
-      <c r="AJ958" s="4"/>
+      <c r="AJ958" s="18"/>
     </row>
     <row r="959" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A959" s="17"/>
@@ -36638,7 +36649,7 @@
       <c r="AG959" s="17"/>
       <c r="AH959" s="17"/>
       <c r="AI959" s="17"/>
-      <c r="AJ959" s="4"/>
+      <c r="AJ959" s="18"/>
     </row>
     <row r="960" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A960" s="17"/>
@@ -36676,7 +36687,7 @@
       <c r="AG960" s="17"/>
       <c r="AH960" s="17"/>
       <c r="AI960" s="17"/>
-      <c r="AJ960" s="4"/>
+      <c r="AJ960" s="18"/>
     </row>
     <row r="961" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A961" s="17"/>
@@ -36714,7 +36725,7 @@
       <c r="AG961" s="17"/>
       <c r="AH961" s="17"/>
       <c r="AI961" s="17"/>
-      <c r="AJ961" s="4"/>
+      <c r="AJ961" s="18"/>
     </row>
     <row r="962" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A962" s="17"/>
@@ -36752,7 +36763,7 @@
       <c r="AG962" s="17"/>
       <c r="AH962" s="17"/>
       <c r="AI962" s="17"/>
-      <c r="AJ962" s="4"/>
+      <c r="AJ962" s="18"/>
     </row>
     <row r="963" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A963" s="17"/>
@@ -36790,7 +36801,7 @@
       <c r="AG963" s="17"/>
       <c r="AH963" s="17"/>
       <c r="AI963" s="17"/>
-      <c r="AJ963" s="4"/>
+      <c r="AJ963" s="18"/>
     </row>
     <row r="964" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A964" s="17"/>
@@ -36828,7 +36839,7 @@
       <c r="AG964" s="17"/>
       <c r="AH964" s="17"/>
       <c r="AI964" s="17"/>
-      <c r="AJ964" s="4"/>
+      <c r="AJ964" s="18"/>
     </row>
     <row r="965" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A965" s="17"/>
@@ -36866,7 +36877,7 @@
       <c r="AG965" s="17"/>
       <c r="AH965" s="17"/>
       <c r="AI965" s="17"/>
-      <c r="AJ965" s="4"/>
+      <c r="AJ965" s="18"/>
     </row>
     <row r="966" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A966" s="17"/>
@@ -36904,7 +36915,7 @@
       <c r="AG966" s="17"/>
       <c r="AH966" s="17"/>
       <c r="AI966" s="17"/>
-      <c r="AJ966" s="4"/>
+      <c r="AJ966" s="18"/>
     </row>
     <row r="967" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A967" s="17"/>
@@ -36942,7 +36953,7 @@
       <c r="AG967" s="17"/>
       <c r="AH967" s="17"/>
       <c r="AI967" s="17"/>
-      <c r="AJ967" s="4"/>
+      <c r="AJ967" s="18"/>
     </row>
     <row r="968" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A968" s="17"/>
@@ -36980,7 +36991,7 @@
       <c r="AG968" s="17"/>
       <c r="AH968" s="17"/>
       <c r="AI968" s="17"/>
-      <c r="AJ968" s="4"/>
+      <c r="AJ968" s="18"/>
     </row>
     <row r="969" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A969" s="17"/>
@@ -37018,7 +37029,7 @@
       <c r="AG969" s="17"/>
       <c r="AH969" s="17"/>
       <c r="AI969" s="17"/>
-      <c r="AJ969" s="4"/>
+      <c r="AJ969" s="18"/>
     </row>
     <row r="970" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A970" s="17"/>
@@ -37056,7 +37067,7 @@
       <c r="AG970" s="17"/>
       <c r="AH970" s="17"/>
       <c r="AI970" s="17"/>
-      <c r="AJ970" s="4"/>
+      <c r="AJ970" s="18"/>
     </row>
     <row r="971" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A971" s="17"/>
@@ -37094,7 +37105,7 @@
       <c r="AG971" s="17"/>
       <c r="AH971" s="17"/>
       <c r="AI971" s="17"/>
-      <c r="AJ971" s="4"/>
+      <c r="AJ971" s="18"/>
     </row>
     <row r="972" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A972" s="17"/>
@@ -37132,7 +37143,7 @@
       <c r="AG972" s="17"/>
       <c r="AH972" s="17"/>
       <c r="AI972" s="17"/>
-      <c r="AJ972" s="4"/>
+      <c r="AJ972" s="18"/>
     </row>
     <row r="973" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A973" s="17"/>
@@ -37170,7 +37181,7 @@
       <c r="AG973" s="17"/>
       <c r="AH973" s="17"/>
       <c r="AI973" s="17"/>
-      <c r="AJ973" s="4"/>
+      <c r="AJ973" s="18"/>
     </row>
     <row r="974" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A974" s="17"/>
@@ -37208,7 +37219,7 @@
       <c r="AG974" s="17"/>
       <c r="AH974" s="17"/>
       <c r="AI974" s="17"/>
-      <c r="AJ974" s="4"/>
+      <c r="AJ974" s="18"/>
     </row>
     <row r="975" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A975" s="17"/>
@@ -37246,7 +37257,7 @@
       <c r="AG975" s="17"/>
       <c r="AH975" s="17"/>
       <c r="AI975" s="17"/>
-      <c r="AJ975" s="4"/>
+      <c r="AJ975" s="18"/>
     </row>
     <row r="976" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A976" s="17"/>
@@ -37284,7 +37295,7 @@
       <c r="AG976" s="17"/>
       <c r="AH976" s="17"/>
       <c r="AI976" s="17"/>
-      <c r="AJ976" s="4"/>
+      <c r="AJ976" s="18"/>
     </row>
     <row r="977" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A977" s="17"/>
@@ -37322,7 +37333,7 @@
       <c r="AG977" s="17"/>
       <c r="AH977" s="17"/>
       <c r="AI977" s="17"/>
-      <c r="AJ977" s="4"/>
+      <c r="AJ977" s="18"/>
     </row>
     <row r="978" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A978" s="17"/>
@@ -37360,7 +37371,7 @@
       <c r="AG978" s="17"/>
       <c r="AH978" s="17"/>
       <c r="AI978" s="17"/>
-      <c r="AJ978" s="4"/>
+      <c r="AJ978" s="18"/>
     </row>
     <row r="979" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A979" s="17"/>
@@ -37398,7 +37409,7 @@
       <c r="AG979" s="17"/>
       <c r="AH979" s="17"/>
       <c r="AI979" s="17"/>
-      <c r="AJ979" s="4"/>
+      <c r="AJ979" s="18"/>
     </row>
     <row r="980" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A980" s="17"/>
@@ -37436,7 +37447,7 @@
       <c r="AG980" s="17"/>
       <c r="AH980" s="17"/>
       <c r="AI980" s="17"/>
-      <c r="AJ980" s="4"/>
+      <c r="AJ980" s="18"/>
     </row>
     <row r="981" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A981" s="17"/>
@@ -37474,7 +37485,7 @@
       <c r="AG981" s="17"/>
       <c r="AH981" s="17"/>
       <c r="AI981" s="17"/>
-      <c r="AJ981" s="4"/>
+      <c r="AJ981" s="18"/>
     </row>
     <row r="982" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A982" s="17"/>
@@ -37512,7 +37523,7 @@
       <c r="AG982" s="17"/>
       <c r="AH982" s="17"/>
       <c r="AI982" s="17"/>
-      <c r="AJ982" s="4"/>
+      <c r="AJ982" s="18"/>
     </row>
     <row r="983" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A983" s="17"/>
@@ -37550,7 +37561,7 @@
       <c r="AG983" s="17"/>
       <c r="AH983" s="17"/>
       <c r="AI983" s="17"/>
-      <c r="AJ983" s="4"/>
+      <c r="AJ983" s="18"/>
     </row>
     <row r="984" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A984" s="17"/>
@@ -37588,7 +37599,7 @@
       <c r="AG984" s="17"/>
       <c r="AH984" s="17"/>
       <c r="AI984" s="17"/>
-      <c r="AJ984" s="4"/>
+      <c r="AJ984" s="18"/>
     </row>
     <row r="985" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A985" s="17"/>
@@ -37626,7 +37637,7 @@
       <c r="AG985" s="17"/>
       <c r="AH985" s="17"/>
       <c r="AI985" s="17"/>
-      <c r="AJ985" s="4"/>
+      <c r="AJ985" s="18"/>
     </row>
     <row r="986" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A986" s="17"/>
@@ -37664,7 +37675,7 @@
       <c r="AG986" s="17"/>
       <c r="AH986" s="17"/>
       <c r="AI986" s="17"/>
-      <c r="AJ986" s="4"/>
+      <c r="AJ986" s="18"/>
     </row>
     <row r="987" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A987" s="17"/>
@@ -37702,7 +37713,7 @@
       <c r="AG987" s="17"/>
       <c r="AH987" s="17"/>
       <c r="AI987" s="17"/>
-      <c r="AJ987" s="4"/>
+      <c r="AJ987" s="18"/>
     </row>
     <row r="988" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A988" s="17"/>
@@ -37740,7 +37751,7 @@
       <c r="AG988" s="17"/>
       <c r="AH988" s="17"/>
       <c r="AI988" s="17"/>
-      <c r="AJ988" s="4"/>
+      <c r="AJ988" s="18"/>
     </row>
     <row r="989" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A989" s="17"/>
@@ -37778,7 +37789,7 @@
       <c r="AG989" s="17"/>
       <c r="AH989" s="17"/>
       <c r="AI989" s="17"/>
-      <c r="AJ989" s="4"/>
+      <c r="AJ989" s="18"/>
     </row>
     <row r="990" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="991" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR003.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR003.xlsx
@@ -77,7 +77,7 @@
     <numFmt numFmtId="169" formatCode="0%"/>
     <numFmt numFmtId="170" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -100,6 +100,14 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ ゴシック"/>
@@ -263,35 +271,35 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="3" borderId="2" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="2" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="3" borderId="3" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="3" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="3" borderId="4" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="4" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="3" borderId="5" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="5" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="3" borderId="6" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="6" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="3" borderId="6" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="6" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="3" borderId="7" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="7" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="3" borderId="7" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="5" fillId="3" borderId="7" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -402,7 +410,7 @@
   <dimension ref="A1:AJ997"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AN15" activeCellId="0" sqref="AN15"/>
+      <selection pane="topLeft" activeCell="U21" activeCellId="0" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.15625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR003.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR003.xlsx
@@ -77,7 +77,7 @@
     <numFmt numFmtId="169" formatCode="0%"/>
     <numFmt numFmtId="170" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -100,14 +100,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ ゴシック"/>
@@ -271,35 +263,35 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="2" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="3" borderId="2" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="3" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="3" borderId="3" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="4" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="3" borderId="4" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="5" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="3" borderId="5" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="6" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="3" borderId="6" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="6" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="3" borderId="6" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="7" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="3" borderId="7" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="3" borderId="7" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="3" borderId="7" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -410,7 +402,7 @@
   <dimension ref="A1:AJ997"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U21" activeCellId="0" sqref="U21"/>
+      <selection pane="topLeft" activeCell="AM9" activeCellId="0" sqref="AM9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.15625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR003.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR003.xlsx
@@ -402,10 +402,10 @@
   <dimension ref="A1:AJ997"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AM9" activeCellId="0" sqref="AM9"/>
+      <selection pane="topLeft" activeCell="R16" activeCellId="0" sqref="R16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.15625" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="4" style="1" width="4.29"/>
@@ -679,271 +679,274 @@
       <c r="AI7" s="16"/>
       <c r="AJ7" s="16"/>
     </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
-      <c r="AI8" s="14"/>
-      <c r="AJ8" s="14"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="16"/>
-      <c r="AG9" s="16"/>
-      <c r="AH9" s="16"/>
-      <c r="AI9" s="16"/>
-      <c r="AJ9" s="16"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="14"/>
-      <c r="AH10" s="14"/>
-      <c r="AI10" s="14"/>
-      <c r="AJ10" s="14"/>
-    </row>
+    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="16"/>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="16"/>
-      <c r="AI11" s="16"/>
-      <c r="AJ11" s="16"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="17"/>
+      <c r="AI11" s="17"/>
+      <c r="AJ11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="14"/>
-      <c r="AE12" s="14"/>
-      <c r="AF12" s="14"/>
-      <c r="AG12" s="14"/>
-      <c r="AH12" s="14"/>
-      <c r="AI12" s="14"/>
-      <c r="AJ12" s="14"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="17"/>
+      <c r="AH12" s="17"/>
+      <c r="AI12" s="17"/>
+      <c r="AJ12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="16"/>
-      <c r="AH13" s="16"/>
-      <c r="AI13" s="16"/>
-      <c r="AJ13" s="16"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="14"/>
-      <c r="AE14" s="14"/>
-      <c r="AF14" s="14"/>
-      <c r="AG14" s="14"/>
-      <c r="AH14" s="14"/>
-      <c r="AI14" s="14"/>
-      <c r="AJ14" s="14"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="17"/>
+      <c r="AI14" s="17"/>
+      <c r="AJ14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="17"/>
+      <c r="AJ15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="17"/>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="17"/>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="17"/>
@@ -37615,272 +37618,13 @@
       <c r="AI982" s="17"/>
       <c r="AJ982" s="4"/>
     </row>
-    <row r="983" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A983" s="17"/>
-      <c r="B983" s="17"/>
-      <c r="C983" s="17"/>
-      <c r="D983" s="17"/>
-      <c r="E983" s="17"/>
-      <c r="F983" s="17"/>
-      <c r="G983" s="17"/>
-      <c r="H983" s="17"/>
-      <c r="I983" s="17"/>
-      <c r="J983" s="17"/>
-      <c r="K983" s="17"/>
-      <c r="L983" s="17"/>
-      <c r="M983" s="17"/>
-      <c r="N983" s="17"/>
-      <c r="O983" s="17"/>
-      <c r="P983" s="17"/>
-      <c r="Q983" s="17"/>
-      <c r="R983" s="17"/>
-      <c r="S983" s="17"/>
-      <c r="T983" s="17"/>
-      <c r="U983" s="17"/>
-      <c r="V983" s="17"/>
-      <c r="W983" s="17"/>
-      <c r="X983" s="17"/>
-      <c r="Y983" s="17"/>
-      <c r="Z983" s="17"/>
-      <c r="AA983" s="17"/>
-      <c r="AB983" s="17"/>
-      <c r="AC983" s="17"/>
-      <c r="AD983" s="17"/>
-      <c r="AE983" s="17"/>
-      <c r="AF983" s="17"/>
-      <c r="AG983" s="17"/>
-      <c r="AH983" s="17"/>
-      <c r="AI983" s="17"/>
-      <c r="AJ983" s="4"/>
-    </row>
-    <row r="984" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A984" s="17"/>
-      <c r="B984" s="17"/>
-      <c r="C984" s="17"/>
-      <c r="D984" s="17"/>
-      <c r="E984" s="17"/>
-      <c r="F984" s="17"/>
-      <c r="G984" s="17"/>
-      <c r="H984" s="17"/>
-      <c r="I984" s="17"/>
-      <c r="J984" s="17"/>
-      <c r="K984" s="17"/>
-      <c r="L984" s="17"/>
-      <c r="M984" s="17"/>
-      <c r="N984" s="17"/>
-      <c r="O984" s="17"/>
-      <c r="P984" s="17"/>
-      <c r="Q984" s="17"/>
-      <c r="R984" s="17"/>
-      <c r="S984" s="17"/>
-      <c r="T984" s="17"/>
-      <c r="U984" s="17"/>
-      <c r="V984" s="17"/>
-      <c r="W984" s="17"/>
-      <c r="X984" s="17"/>
-      <c r="Y984" s="17"/>
-      <c r="Z984" s="17"/>
-      <c r="AA984" s="17"/>
-      <c r="AB984" s="17"/>
-      <c r="AC984" s="17"/>
-      <c r="AD984" s="17"/>
-      <c r="AE984" s="17"/>
-      <c r="AF984" s="17"/>
-      <c r="AG984" s="17"/>
-      <c r="AH984" s="17"/>
-      <c r="AI984" s="17"/>
-      <c r="AJ984" s="4"/>
-    </row>
-    <row r="985" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A985" s="17"/>
-      <c r="B985" s="17"/>
-      <c r="C985" s="17"/>
-      <c r="D985" s="17"/>
-      <c r="E985" s="17"/>
-      <c r="F985" s="17"/>
-      <c r="G985" s="17"/>
-      <c r="H985" s="17"/>
-      <c r="I985" s="17"/>
-      <c r="J985" s="17"/>
-      <c r="K985" s="17"/>
-      <c r="L985" s="17"/>
-      <c r="M985" s="17"/>
-      <c r="N985" s="17"/>
-      <c r="O985" s="17"/>
-      <c r="P985" s="17"/>
-      <c r="Q985" s="17"/>
-      <c r="R985" s="17"/>
-      <c r="S985" s="17"/>
-      <c r="T985" s="17"/>
-      <c r="U985" s="17"/>
-      <c r="V985" s="17"/>
-      <c r="W985" s="17"/>
-      <c r="X985" s="17"/>
-      <c r="Y985" s="17"/>
-      <c r="Z985" s="17"/>
-      <c r="AA985" s="17"/>
-      <c r="AB985" s="17"/>
-      <c r="AC985" s="17"/>
-      <c r="AD985" s="17"/>
-      <c r="AE985" s="17"/>
-      <c r="AF985" s="17"/>
-      <c r="AG985" s="17"/>
-      <c r="AH985" s="17"/>
-      <c r="AI985" s="17"/>
-      <c r="AJ985" s="4"/>
-    </row>
-    <row r="986" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A986" s="17"/>
-      <c r="B986" s="17"/>
-      <c r="C986" s="17"/>
-      <c r="D986" s="17"/>
-      <c r="E986" s="17"/>
-      <c r="F986" s="17"/>
-      <c r="G986" s="17"/>
-      <c r="H986" s="17"/>
-      <c r="I986" s="17"/>
-      <c r="J986" s="17"/>
-      <c r="K986" s="17"/>
-      <c r="L986" s="17"/>
-      <c r="M986" s="17"/>
-      <c r="N986" s="17"/>
-      <c r="O986" s="17"/>
-      <c r="P986" s="17"/>
-      <c r="Q986" s="17"/>
-      <c r="R986" s="17"/>
-      <c r="S986" s="17"/>
-      <c r="T986" s="17"/>
-      <c r="U986" s="17"/>
-      <c r="V986" s="17"/>
-      <c r="W986" s="17"/>
-      <c r="X986" s="17"/>
-      <c r="Y986" s="17"/>
-      <c r="Z986" s="17"/>
-      <c r="AA986" s="17"/>
-      <c r="AB986" s="17"/>
-      <c r="AC986" s="17"/>
-      <c r="AD986" s="17"/>
-      <c r="AE986" s="17"/>
-      <c r="AF986" s="17"/>
-      <c r="AG986" s="17"/>
-      <c r="AH986" s="17"/>
-      <c r="AI986" s="17"/>
-      <c r="AJ986" s="4"/>
-    </row>
-    <row r="987" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A987" s="17"/>
-      <c r="B987" s="17"/>
-      <c r="C987" s="17"/>
-      <c r="D987" s="17"/>
-      <c r="E987" s="17"/>
-      <c r="F987" s="17"/>
-      <c r="G987" s="17"/>
-      <c r="H987" s="17"/>
-      <c r="I987" s="17"/>
-      <c r="J987" s="17"/>
-      <c r="K987" s="17"/>
-      <c r="L987" s="17"/>
-      <c r="M987" s="17"/>
-      <c r="N987" s="17"/>
-      <c r="O987" s="17"/>
-      <c r="P987" s="17"/>
-      <c r="Q987" s="17"/>
-      <c r="R987" s="17"/>
-      <c r="S987" s="17"/>
-      <c r="T987" s="17"/>
-      <c r="U987" s="17"/>
-      <c r="V987" s="17"/>
-      <c r="W987" s="17"/>
-      <c r="X987" s="17"/>
-      <c r="Y987" s="17"/>
-      <c r="Z987" s="17"/>
-      <c r="AA987" s="17"/>
-      <c r="AB987" s="17"/>
-      <c r="AC987" s="17"/>
-      <c r="AD987" s="17"/>
-      <c r="AE987" s="17"/>
-      <c r="AF987" s="17"/>
-      <c r="AG987" s="17"/>
-      <c r="AH987" s="17"/>
-      <c r="AI987" s="17"/>
-      <c r="AJ987" s="4"/>
-    </row>
-    <row r="988" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A988" s="17"/>
-      <c r="B988" s="17"/>
-      <c r="C988" s="17"/>
-      <c r="D988" s="17"/>
-      <c r="E988" s="17"/>
-      <c r="F988" s="17"/>
-      <c r="G988" s="17"/>
-      <c r="H988" s="17"/>
-      <c r="I988" s="17"/>
-      <c r="J988" s="17"/>
-      <c r="K988" s="17"/>
-      <c r="L988" s="17"/>
-      <c r="M988" s="17"/>
-      <c r="N988" s="17"/>
-      <c r="O988" s="17"/>
-      <c r="P988" s="17"/>
-      <c r="Q988" s="17"/>
-      <c r="R988" s="17"/>
-      <c r="S988" s="17"/>
-      <c r="T988" s="17"/>
-      <c r="U988" s="17"/>
-      <c r="V988" s="17"/>
-      <c r="W988" s="17"/>
-      <c r="X988" s="17"/>
-      <c r="Y988" s="17"/>
-      <c r="Z988" s="17"/>
-      <c r="AA988" s="17"/>
-      <c r="AB988" s="17"/>
-      <c r="AC988" s="17"/>
-      <c r="AD988" s="17"/>
-      <c r="AE988" s="17"/>
-      <c r="AF988" s="17"/>
-      <c r="AG988" s="17"/>
-      <c r="AH988" s="17"/>
-      <c r="AI988" s="17"/>
-      <c r="AJ988" s="4"/>
-    </row>
-    <row r="989" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A989" s="17"/>
-      <c r="B989" s="17"/>
-      <c r="C989" s="17"/>
-      <c r="D989" s="17"/>
-      <c r="E989" s="17"/>
-      <c r="F989" s="17"/>
-      <c r="G989" s="17"/>
-      <c r="H989" s="17"/>
-      <c r="I989" s="17"/>
-      <c r="J989" s="17"/>
-      <c r="K989" s="17"/>
-      <c r="L989" s="17"/>
-      <c r="M989" s="17"/>
-      <c r="N989" s="17"/>
-      <c r="O989" s="17"/>
-      <c r="P989" s="17"/>
-      <c r="Q989" s="17"/>
-      <c r="R989" s="17"/>
-      <c r="S989" s="17"/>
-      <c r="T989" s="17"/>
-      <c r="U989" s="17"/>
-      <c r="V989" s="17"/>
-      <c r="W989" s="17"/>
-      <c r="X989" s="17"/>
-      <c r="Y989" s="17"/>
-      <c r="Z989" s="17"/>
-      <c r="AA989" s="17"/>
-      <c r="AB989" s="17"/>
-      <c r="AC989" s="17"/>
-      <c r="AD989" s="17"/>
-      <c r="AE989" s="17"/>
-      <c r="AF989" s="17"/>
-      <c r="AG989" s="17"/>
-      <c r="AH989" s="17"/>
-      <c r="AI989" s="17"/>
-      <c r="AJ989" s="4"/>
-    </row>
+    <row r="983" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="984" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="985" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="986" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="987" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="988" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="989" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="990" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="991" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="992" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -37890,7 +37634,7 @@
     <row r="996" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="997" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="8">
     <mergeCell ref="A2:C3"/>
     <mergeCell ref="AI2:AJ3"/>
     <mergeCell ref="A4:AH4"/>
@@ -37899,20 +37643,6 @@
     <mergeCell ref="AI6:AJ6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="AI14:AJ14"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR003.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR003.xlsx
@@ -402,7 +402,7 @@
   <dimension ref="A1:AJ997"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R16" activeCellId="0" sqref="R16"/>
+      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR003.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR003.xlsx
@@ -402,7 +402,7 @@
   <dimension ref="A1:AJ997"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR003.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR003.xlsx
@@ -248,71 +248,71 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="4" fillId="2" borderId="1" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="4" fillId="2" borderId="0" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="4" fillId="3" borderId="2" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="4" fillId="3" borderId="3" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="4" fillId="3" borderId="4" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="4" fillId="3" borderId="5" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="4" fillId="3" borderId="6" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="4" fillId="3" borderId="6" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="4" fillId="3" borderId="7" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="4" fillId="3" borderId="7" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="4" fillId="2" borderId="8" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="4" fillId="2" borderId="8" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="4" fillId="4" borderId="8" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="4" fillId="4" borderId="8" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -402,7 +402,7 @@
   <dimension ref="A1:AJ997"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="T15" activeCellId="0" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR003.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR003.xlsx
@@ -410,7 +410,7 @@
   <dimension ref="A1:AJ997"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X19" activeCellId="0" sqref="X19"/>
+      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR003.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR003.xlsx
@@ -409,8 +409,8 @@
   </sheetPr>
   <dimension ref="A1:AJ997"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.15625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR003.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR003.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\UniversalK\nts.uk\uk.at\at.file\nts.uk.file.at.infra\src\main\resources\report\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6DDBB4-3AF9-4CA4-907C-72B47BE66046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="4">
     <font>
       <sz val="10"/>
@@ -188,62 +182,62 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -369,7 +363,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -421,7 +415,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -615,17 +609,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="12.75"/>
   <cols>
@@ -634,273 +630,273 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="11"/>
-      <c r="AJ1" s="11"/>
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
     </row>
     <row r="2" spans="1:36">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
     </row>
     <row r="3" spans="1:36">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="7"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14"/>
     </row>
     <row r="4" spans="1:36">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="14"/>
-      <c r="AJ4" s="14"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
     </row>
     <row r="5" spans="1:36">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="15"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="7"/>
+      <c r="AJ5" s="7"/>
     </row>
     <row r="6" spans="1:36">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="16"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="18"/>
+      <c r="AJ6" s="18"/>
     </row>
     <row r="7" spans="1:36">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="17"/>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
     </row>
     <row r="14" spans="1:36">
-      <c r="G14" s="18"/>
+      <c r="G14" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -914,7 +910,7 @@
     <mergeCell ref="AI6:AJ6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="1" right="1" top="1.5" bottom="1.5" header="0.8" footer="0.8"/>
+  <pageMargins left="1" right="1.5" top="1.5" bottom="1.5" header="0.8" footer="0.8"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR003.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR003.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -20,7 +20,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -29,25 +35,11 @@
     </font>
     <font>
       <sz val="7"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="ＭＳ ゴシック"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -56,24 +48,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9BC2E6"/>
+        <fgColor theme="0"/>
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDDEBF7"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -164,13 +168,78 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="dotted">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -178,61 +247,79 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -609,7 +696,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -617,19 +704,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ14"/>
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="2.5703125" customWidth="1"/>
-    <col min="36" max="36" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" style="8" customWidth="1"/>
+    <col min="2" max="3" width="3.42578125" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="3.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:36" ht="13.5" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -667,10 +753,10 @@
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
     </row>
-    <row r="2" spans="1:36">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+    <row r="2" spans="1:36" ht="13.5" customHeight="1">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -702,13 +788,13 @@
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
-      <c r="AI2" s="14"/>
-      <c r="AJ2" s="14"/>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16"/>
     </row>
-    <row r="3" spans="1:36">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
+    <row r="3" spans="1:36" ht="13.5" customHeight="1">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -740,177 +826,174 @@
       <c r="AF3" s="5"/>
       <c r="AG3" s="5"/>
       <c r="AH3" s="5"/>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="14"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
     </row>
-    <row r="4" spans="1:36">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="15"/>
+    <row r="4" spans="1:36" ht="13.5" customHeight="1">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
     </row>
-    <row r="5" spans="1:36">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="16"/>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="16"/>
-      <c r="AG5" s="16"/>
-      <c r="AH5" s="16"/>
+    <row r="5" spans="1:36" ht="13.5" customHeight="1">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
       <c r="AI5" s="7"/>
       <c r="AJ5" s="7"/>
     </row>
-    <row r="6" spans="1:36">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
-      <c r="AI6" s="18"/>
-      <c r="AJ6" s="18"/>
+    <row r="6" spans="1:36" ht="13.5" customHeight="1">
+      <c r="A6" s="12"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9"/>
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="20"/>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" ht="13.5" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="9"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="12"/>
-    </row>
-    <row r="14" spans="1:36">
-      <c r="G14" s="10"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A7:C7"/>
     <mergeCell ref="AI7:AJ7"/>
     <mergeCell ref="A2:C3"/>
     <mergeCell ref="AI2:AJ3"/>
     <mergeCell ref="A4:AH4"/>
     <mergeCell ref="A5:AH5"/>
-    <mergeCell ref="A6:C6"/>
     <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="1" right="1.5" top="1.5" bottom="1.5" header="0.8" footer="0.8"/>
-  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR003.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR003.xlsx
@@ -696,7 +696,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR003.xlsx
+++ b/nts.uk/uk.at/at.file/nts.uk.file.at.infra/src/main/resources/report/KWR003.xlsx
@@ -77,7 +77,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -160,8 +160,38 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -169,9 +199,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="dotted">
         <color auto="1"/>
       </bottom>
@@ -182,9 +210,7 @@
       <right style="dotted">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="dotted">
         <color auto="1"/>
       </bottom>
@@ -197,48 +223,7 @@
       <right style="dotted">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom style="dotted">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color auto="1"/>
-      </left>
-      <right style="dotted">
-        <color auto="1"/>
-      </right>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="dotted">
         <color auto="1"/>
       </bottom>
@@ -249,7 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -269,26 +254,50 @@
     <xf numFmtId="49" fontId="2" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -300,26 +309,8 @@
     <xf numFmtId="49" fontId="2" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -704,15 +695,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AJ9"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="115" zoomScalePageLayoutView="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" style="8" customWidth="1"/>
-    <col min="2" max="3" width="3.42578125" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="3.85546875" style="8"/>
+    <col min="1" max="1" width="1.42578125" style="7" customWidth="1"/>
+    <col min="2" max="3" width="3.42578125" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="3.85546875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="13.5" customHeight="1">
@@ -754,9 +745,9 @@
       <c r="AJ1" s="3"/>
     </row>
     <row r="2" spans="1:36" ht="13.5" customHeight="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -788,13 +779,13 @@
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="24"/>
     </row>
     <row r="3" spans="1:36" ht="13.5" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -826,170 +817,250 @@
       <c r="AF3" s="5"/>
       <c r="AG3" s="5"/>
       <c r="AH3" s="5"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
     </row>
-    <row r="4" spans="1:36" ht="13.5" customHeight="1">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="17"/>
+    <row r="4" spans="1:36" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="25"/>
       <c r="AI4" s="6"/>
       <c r="AJ4" s="6"/>
     </row>
-    <row r="5" spans="1:36" ht="13.5" customHeight="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="18"/>
-      <c r="AH5" s="18"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
+    <row r="5" spans="1:36" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="26"/>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="14"/>
     </row>
     <row r="6" spans="1:36" ht="13.5" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="19"/>
-      <c r="AJ6" s="20"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="18"/>
     </row>
     <row r="7" spans="1:36" ht="13.5" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="13"/>
-      <c r="AJ7" s="14"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="22"/>
+    </row>
+    <row r="8" spans="1:36" ht="13.5" customHeight="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="17"/>
+      <c r="AJ8" s="18"/>
+    </row>
+    <row r="9" spans="1:36" ht="13.5" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="AI7:AJ7"/>
+  <mergeCells count="12">
     <mergeCell ref="A2:C3"/>
     <mergeCell ref="AI2:AJ3"/>
     <mergeCell ref="A4:AH4"/>
     <mergeCell ref="A5:AH5"/>
     <mergeCell ref="AI6:AJ6"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AI7:AJ7"/>
     <mergeCell ref="B7:C7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
